--- a/incasacia/Resources/sample.xlsx
+++ b/incasacia/Resources/sample.xlsx
@@ -235,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,7 +315,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -323,7 +324,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -644,17 +651,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -743,8 +750,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -752,7 +759,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,19 +783,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -800,12 +807,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -854,92 +870,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1223,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB291"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="T103" sqref="T103:AC104"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="AD290" sqref="AD290:AH290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1755,18 +1762,18 @@
         <v>5</v>
       </c>
       <c r="Q7" s="40"/>
-      <c r="R7" s="154"/>
-      <c r="S7" s="154"/>
-      <c r="T7" s="154"/>
-      <c r="U7" s="154"/>
-      <c r="V7" s="154"/>
-      <c r="W7" s="154"/>
-      <c r="X7" s="154"/>
-      <c r="Y7" s="154"/>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="154"/>
-      <c r="AB7" s="154"/>
-      <c r="AC7" s="155"/>
+      <c r="R7" s="157"/>
+      <c r="S7" s="157"/>
+      <c r="T7" s="157"/>
+      <c r="U7" s="157"/>
+      <c r="V7" s="157"/>
+      <c r="W7" s="157"/>
+      <c r="X7" s="157"/>
+      <c r="Y7" s="157"/>
+      <c r="Z7" s="157"/>
+      <c r="AA7" s="157"/>
+      <c r="AB7" s="157"/>
+      <c r="AC7" s="158"/>
       <c r="AD7" s="71" t="s">
         <v>7</v>
       </c>
@@ -1912,33 +1919,33 @@
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="149"/>
-      <c r="L9" s="149"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="149"/>
-      <c r="O9" s="150"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="153"/>
       <c r="P9" s="43" t="s">
         <v>5</v>
       </c>
       <c r="Q9" s="40"/>
-      <c r="R9" s="149"/>
-      <c r="S9" s="149"/>
-      <c r="T9" s="149"/>
-      <c r="U9" s="149"/>
-      <c r="V9" s="149"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="149"/>
-      <c r="Y9" s="149"/>
-      <c r="Z9" s="149"/>
-      <c r="AA9" s="149"/>
-      <c r="AB9" s="149"/>
-      <c r="AC9" s="150"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="152"/>
+      <c r="U9" s="152"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="152"/>
+      <c r="X9" s="152"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="152"/>
+      <c r="AA9" s="152"/>
+      <c r="AB9" s="152"/>
+      <c r="AC9" s="153"/>
       <c r="AD9" s="99"/>
       <c r="AE9" s="99"/>
       <c r="AF9" s="99"/>
@@ -2515,16 +2522,16 @@
       <c r="Q16" s="116"/>
       <c r="R16" s="116"/>
       <c r="S16" s="116"/>
-      <c r="T16" s="159"/>
-      <c r="U16" s="159"/>
-      <c r="V16" s="159"/>
-      <c r="W16" s="159"/>
-      <c r="X16" s="159"/>
-      <c r="Y16" s="159"/>
-      <c r="Z16" s="159"/>
-      <c r="AA16" s="159"/>
-      <c r="AB16" s="159"/>
-      <c r="AC16" s="160"/>
+      <c r="T16" s="117"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="117"/>
+      <c r="Z16" s="117"/>
+      <c r="AA16" s="117"/>
+      <c r="AB16" s="117"/>
+      <c r="AC16" s="118"/>
       <c r="AD16" s="102"/>
       <c r="AE16" s="102"/>
       <c r="AF16" s="102"/>
@@ -2606,7 +2613,7 @@
       <c r="Z17" s="70"/>
       <c r="AA17" s="70"/>
       <c r="AB17" s="70"/>
-      <c r="AC17" s="161"/>
+      <c r="AC17" s="119"/>
       <c r="AD17" s="102"/>
       <c r="AE17" s="102"/>
       <c r="AF17" s="102"/>
@@ -2660,42 +2667,42 @@
       <c r="CB17" s="1"/>
     </row>
     <row r="18" spans="1:80" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="117"/>
-      <c r="T18" s="117"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
-      <c r="Y18" s="117"/>
-      <c r="Z18" s="117"/>
-      <c r="AA18" s="117"/>
-      <c r="AB18" s="117"/>
-      <c r="AC18" s="117"/>
+      <c r="A18" s="120"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="120"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="120"/>
+      <c r="W18" s="120"/>
+      <c r="X18" s="120"/>
+      <c r="Y18" s="120"/>
+      <c r="Z18" s="120"/>
+      <c r="AA18" s="120"/>
+      <c r="AB18" s="120"/>
+      <c r="AC18" s="120"/>
       <c r="AD18" s="72" t="s">
         <v>15</v>
       </c>
       <c r="AE18" s="72"/>
-      <c r="AF18" s="119"/>
-      <c r="AG18" s="119"/>
-      <c r="AH18" s="119"/>
+      <c r="AF18" s="122"/>
+      <c r="AG18" s="122"/>
+      <c r="AH18" s="122"/>
       <c r="AI18" s="72" t="s">
         <v>17</v>
       </c>
@@ -2781,11 +2788,11 @@
       <c r="AC19" s="93"/>
       <c r="AD19" s="46"/>
       <c r="AE19" s="46"/>
-      <c r="AF19" s="120" t="s">
+      <c r="AF19" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="AG19" s="120"/>
-      <c r="AH19" s="120"/>
+      <c r="AG19" s="123"/>
+      <c r="AH19" s="123"/>
       <c r="AI19" s="46"/>
       <c r="AJ19" s="46"/>
       <c r="AK19" s="1"/>
@@ -3349,36 +3356,36 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="118" t="s">
+      <c r="L26" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="118"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="118"/>
-      <c r="X26" s="118" t="s">
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="121"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="121"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="121"/>
+      <c r="W26" s="121"/>
+      <c r="X26" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="Y26" s="118"/>
-      <c r="Z26" s="118"/>
-      <c r="AA26" s="118"/>
-      <c r="AB26" s="118"/>
-      <c r="AC26" s="118"/>
-      <c r="AD26" s="118"/>
-      <c r="AE26" s="118"/>
-      <c r="AF26" s="118"/>
-      <c r="AG26" s="118"/>
-      <c r="AH26" s="118"/>
-      <c r="AI26" s="118"/>
-      <c r="AJ26" s="118"/>
-      <c r="AK26" s="118"/>
+      <c r="Y26" s="121"/>
+      <c r="Z26" s="121"/>
+      <c r="AA26" s="121"/>
+      <c r="AB26" s="121"/>
+      <c r="AC26" s="121"/>
+      <c r="AD26" s="121"/>
+      <c r="AE26" s="121"/>
+      <c r="AF26" s="121"/>
+      <c r="AG26" s="121"/>
+      <c r="AH26" s="121"/>
+      <c r="AI26" s="121"/>
+      <c r="AJ26" s="121"/>
+      <c r="AK26" s="121"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
@@ -3435,34 +3442,34 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="118"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="118"/>
-      <c r="X27" s="118" t="s">
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="121"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="121"/>
+      <c r="W27" s="121"/>
+      <c r="X27" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="Y27" s="118"/>
-      <c r="Z27" s="118"/>
-      <c r="AA27" s="118"/>
-      <c r="AB27" s="118"/>
-      <c r="AC27" s="118"/>
-      <c r="AD27" s="118"/>
-      <c r="AE27" s="118"/>
-      <c r="AF27" s="118"/>
-      <c r="AG27" s="118"/>
-      <c r="AH27" s="118"/>
-      <c r="AI27" s="118"/>
-      <c r="AJ27" s="118"/>
-      <c r="AK27" s="118"/>
+      <c r="Y27" s="121"/>
+      <c r="Z27" s="121"/>
+      <c r="AA27" s="121"/>
+      <c r="AB27" s="121"/>
+      <c r="AC27" s="121"/>
+      <c r="AD27" s="121"/>
+      <c r="AE27" s="121"/>
+      <c r="AF27" s="121"/>
+      <c r="AG27" s="121"/>
+      <c r="AH27" s="121"/>
+      <c r="AI27" s="121"/>
+      <c r="AJ27" s="121"/>
+      <c r="AK27" s="121"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
@@ -3674,47 +3681,47 @@
       <c r="CB29" s="1"/>
     </row>
     <row r="30" spans="1:80" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="121"/>
-      <c r="R30" s="121"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="121"/>
-      <c r="W30" s="121"/>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="121"/>
-      <c r="Z30" s="121"/>
-      <c r="AA30" s="121"/>
-      <c r="AB30" s="121"/>
-      <c r="AC30" s="121"/>
-      <c r="AD30" s="121"/>
-      <c r="AE30" s="121"/>
-      <c r="AF30" s="121"/>
-      <c r="AG30" s="121"/>
-      <c r="AH30" s="121"/>
-      <c r="AI30" s="121"/>
-      <c r="AJ30" s="121"/>
-      <c r="AK30" s="121"/>
-      <c r="AL30" s="121"/>
-      <c r="AM30" s="121"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="124"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="124"/>
+      <c r="S30" s="124"/>
+      <c r="T30" s="124"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="124"/>
+      <c r="W30" s="124"/>
+      <c r="X30" s="124"/>
+      <c r="Y30" s="124"/>
+      <c r="Z30" s="124"/>
+      <c r="AA30" s="124"/>
+      <c r="AB30" s="124"/>
+      <c r="AC30" s="124"/>
+      <c r="AD30" s="124"/>
+      <c r="AE30" s="124"/>
+      <c r="AF30" s="124"/>
+      <c r="AG30" s="124"/>
+      <c r="AH30" s="124"/>
+      <c r="AI30" s="124"/>
+      <c r="AJ30" s="124"/>
+      <c r="AK30" s="124"/>
+      <c r="AL30" s="124"/>
+      <c r="AM30" s="124"/>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
@@ -3870,21 +3877,21 @@
       <c r="V32" s="48"/>
       <c r="W32" s="48"/>
       <c r="X32" s="49"/>
-      <c r="Y32" s="125" t="s">
+      <c r="Y32" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="Z32" s="126"/>
-      <c r="AA32" s="126"/>
-      <c r="AB32" s="126"/>
-      <c r="AC32" s="126"/>
-      <c r="AD32" s="126"/>
-      <c r="AE32" s="126"/>
-      <c r="AF32" s="126"/>
-      <c r="AG32" s="126"/>
-      <c r="AH32" s="126"/>
-      <c r="AI32" s="126"/>
-      <c r="AJ32" s="126"/>
-      <c r="AK32" s="127"/>
+      <c r="Z32" s="129"/>
+      <c r="AA32" s="129"/>
+      <c r="AB32" s="129"/>
+      <c r="AC32" s="129"/>
+      <c r="AD32" s="129"/>
+      <c r="AE32" s="129"/>
+      <c r="AF32" s="129"/>
+      <c r="AG32" s="129"/>
+      <c r="AH32" s="129"/>
+      <c r="AI32" s="129"/>
+      <c r="AJ32" s="129"/>
+      <c r="AK32" s="130"/>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
@@ -4016,30 +4023,30 @@
       <c r="CB33" s="1"/>
     </row>
     <row r="34" spans="1:80" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="122"/>
-      <c r="B34" s="123"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="124"/>
-      <c r="Q34" s="122"/>
-      <c r="R34" s="123"/>
-      <c r="S34" s="123"/>
-      <c r="T34" s="123"/>
-      <c r="U34" s="123"/>
-      <c r="V34" s="123"/>
-      <c r="W34" s="123"/>
-      <c r="X34" s="124"/>
+      <c r="A34" s="125"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="126"/>
+      <c r="N34" s="126"/>
+      <c r="O34" s="126"/>
+      <c r="P34" s="127"/>
+      <c r="Q34" s="125"/>
+      <c r="R34" s="126"/>
+      <c r="S34" s="126"/>
+      <c r="T34" s="126"/>
+      <c r="U34" s="126"/>
+      <c r="V34" s="126"/>
+      <c r="W34" s="126"/>
+      <c r="X34" s="127"/>
       <c r="Y34" s="50"/>
       <c r="Z34" s="51"/>
       <c r="AA34" s="51"/>
@@ -5215,18 +5222,18 @@
         <v>5</v>
       </c>
       <c r="Q51" s="40"/>
-      <c r="R51" s="154"/>
-      <c r="S51" s="154"/>
-      <c r="T51" s="154"/>
-      <c r="U51" s="154"/>
-      <c r="V51" s="154"/>
-      <c r="W51" s="154"/>
-      <c r="X51" s="154"/>
-      <c r="Y51" s="154"/>
-      <c r="Z51" s="154"/>
-      <c r="AA51" s="154"/>
-      <c r="AB51" s="154"/>
-      <c r="AC51" s="155"/>
+      <c r="R51" s="157"/>
+      <c r="S51" s="157"/>
+      <c r="T51" s="157"/>
+      <c r="U51" s="157"/>
+      <c r="V51" s="157"/>
+      <c r="W51" s="157"/>
+      <c r="X51" s="157"/>
+      <c r="Y51" s="157"/>
+      <c r="Z51" s="157"/>
+      <c r="AA51" s="157"/>
+      <c r="AB51" s="157"/>
+      <c r="AC51" s="158"/>
       <c r="AD51" s="71" t="s">
         <v>7</v>
       </c>
@@ -5290,33 +5297,33 @@
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>
       <c r="D53" s="40"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="149"/>
-      <c r="G53" s="149"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="149"/>
-      <c r="J53" s="149"/>
-      <c r="K53" s="149"/>
-      <c r="L53" s="149"/>
-      <c r="M53" s="149"/>
-      <c r="N53" s="149"/>
-      <c r="O53" s="150"/>
+      <c r="E53" s="152"/>
+      <c r="F53" s="152"/>
+      <c r="G53" s="152"/>
+      <c r="H53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="152"/>
+      <c r="K53" s="152"/>
+      <c r="L53" s="152"/>
+      <c r="M53" s="152"/>
+      <c r="N53" s="152"/>
+      <c r="O53" s="153"/>
       <c r="P53" s="43" t="s">
         <v>5</v>
       </c>
       <c r="Q53" s="40"/>
-      <c r="R53" s="149"/>
-      <c r="S53" s="149"/>
-      <c r="T53" s="149"/>
-      <c r="U53" s="149"/>
-      <c r="V53" s="149"/>
-      <c r="W53" s="149"/>
-      <c r="X53" s="149"/>
-      <c r="Y53" s="149"/>
-      <c r="Z53" s="149"/>
-      <c r="AA53" s="149"/>
-      <c r="AB53" s="149"/>
-      <c r="AC53" s="150"/>
+      <c r="R53" s="152"/>
+      <c r="S53" s="152"/>
+      <c r="T53" s="152"/>
+      <c r="U53" s="152"/>
+      <c r="V53" s="152"/>
+      <c r="W53" s="152"/>
+      <c r="X53" s="152"/>
+      <c r="Y53" s="152"/>
+      <c r="Z53" s="152"/>
+      <c r="AA53" s="152"/>
+      <c r="AB53" s="152"/>
+      <c r="AC53" s="153"/>
       <c r="AD53" s="65"/>
       <c r="AE53" s="65"/>
       <c r="AF53" s="65"/>
@@ -5496,9 +5503,9 @@
       <c r="AF57" s="102"/>
       <c r="AG57" s="102"/>
       <c r="AH57" s="112"/>
-      <c r="AI57" s="128"/>
-      <c r="AJ57" s="128"/>
-      <c r="AK57" s="128"/>
+      <c r="AI57" s="131"/>
+      <c r="AJ57" s="131"/>
+      <c r="AK57" s="131"/>
       <c r="AL57" s="1"/>
       <c r="AM57" s="1"/>
     </row>
@@ -5606,16 +5613,16 @@
       <c r="Q60" s="116"/>
       <c r="R60" s="116"/>
       <c r="S60" s="116"/>
-      <c r="T60" s="159"/>
-      <c r="U60" s="159"/>
-      <c r="V60" s="159"/>
-      <c r="W60" s="159"/>
-      <c r="X60" s="159"/>
-      <c r="Y60" s="159"/>
-      <c r="Z60" s="159"/>
-      <c r="AA60" s="159"/>
-      <c r="AB60" s="159"/>
-      <c r="AC60" s="160"/>
+      <c r="T60" s="117"/>
+      <c r="U60" s="117"/>
+      <c r="V60" s="117"/>
+      <c r="W60" s="117"/>
+      <c r="X60" s="117"/>
+      <c r="Y60" s="117"/>
+      <c r="Z60" s="117"/>
+      <c r="AA60" s="117"/>
+      <c r="AB60" s="117"/>
+      <c r="AC60" s="118"/>
       <c r="AD60" s="102"/>
       <c r="AE60" s="102"/>
       <c r="AF60" s="102"/>
@@ -5656,7 +5663,7 @@
       <c r="Z61" s="70"/>
       <c r="AA61" s="70"/>
       <c r="AB61" s="70"/>
-      <c r="AC61" s="161"/>
+      <c r="AC61" s="119"/>
       <c r="AD61" s="102"/>
       <c r="AE61" s="102"/>
       <c r="AF61" s="102"/>
@@ -5669,39 +5676,39 @@
       <c r="AM61" s="1"/>
     </row>
     <row r="62" spans="1:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="117"/>
-      <c r="B62" s="117"/>
-      <c r="C62" s="117"/>
-      <c r="D62" s="117"/>
-      <c r="E62" s="117"/>
-      <c r="F62" s="117"/>
-      <c r="G62" s="117"/>
-      <c r="H62" s="117"/>
-      <c r="I62" s="117"/>
-      <c r="J62" s="117"/>
-      <c r="K62" s="117"/>
-      <c r="L62" s="117"/>
-      <c r="M62" s="117"/>
-      <c r="N62" s="117"/>
-      <c r="O62" s="117"/>
-      <c r="P62" s="117"/>
-      <c r="Q62" s="117"/>
-      <c r="R62" s="117"/>
-      <c r="S62" s="117"/>
-      <c r="T62" s="117"/>
-      <c r="U62" s="117"/>
-      <c r="V62" s="117"/>
-      <c r="W62" s="117"/>
-      <c r="X62" s="117"/>
-      <c r="Y62" s="117"/>
-      <c r="Z62" s="117"/>
-      <c r="AA62" s="117"/>
-      <c r="AB62" s="117"/>
-      <c r="AC62" s="117"/>
-      <c r="AD62" s="129" t="s">
+      <c r="A62" s="120"/>
+      <c r="B62" s="120"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="120"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="120"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="120"/>
+      <c r="K62" s="120"/>
+      <c r="L62" s="120"/>
+      <c r="M62" s="120"/>
+      <c r="N62" s="120"/>
+      <c r="O62" s="120"/>
+      <c r="P62" s="120"/>
+      <c r="Q62" s="120"/>
+      <c r="R62" s="120"/>
+      <c r="S62" s="120"/>
+      <c r="T62" s="120"/>
+      <c r="U62" s="120"/>
+      <c r="V62" s="120"/>
+      <c r="W62" s="120"/>
+      <c r="X62" s="120"/>
+      <c r="Y62" s="120"/>
+      <c r="Z62" s="120"/>
+      <c r="AA62" s="120"/>
+      <c r="AB62" s="120"/>
+      <c r="AC62" s="120"/>
+      <c r="AD62" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="AE62" s="129"/>
+      <c r="AE62" s="132"/>
       <c r="AF62" s="95"/>
       <c r="AG62" s="95"/>
       <c r="AH62" s="95"/>
@@ -5869,22 +5876,22 @@
       <c r="U66" s="21"/>
       <c r="V66" s="21"/>
       <c r="W66" s="17"/>
-      <c r="X66" s="130" t="s">
+      <c r="X66" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="Y66" s="130"/>
-      <c r="Z66" s="130"/>
-      <c r="AA66" s="130"/>
-      <c r="AB66" s="130"/>
-      <c r="AC66" s="130"/>
-      <c r="AD66" s="130"/>
-      <c r="AE66" s="130"/>
-      <c r="AF66" s="130"/>
-      <c r="AG66" s="130"/>
-      <c r="AH66" s="130"/>
-      <c r="AI66" s="130"/>
-      <c r="AJ66" s="130"/>
-      <c r="AK66" s="130"/>
+      <c r="Y66" s="133"/>
+      <c r="Z66" s="133"/>
+      <c r="AA66" s="133"/>
+      <c r="AB66" s="133"/>
+      <c r="AC66" s="133"/>
+      <c r="AD66" s="133"/>
+      <c r="AE66" s="133"/>
+      <c r="AF66" s="133"/>
+      <c r="AG66" s="133"/>
+      <c r="AH66" s="133"/>
+      <c r="AI66" s="133"/>
+      <c r="AJ66" s="133"/>
+      <c r="AK66" s="133"/>
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
     </row>
@@ -5912,20 +5919,20 @@
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
       <c r="W67" s="6"/>
-      <c r="X67" s="131"/>
-      <c r="Y67" s="131"/>
-      <c r="Z67" s="131"/>
-      <c r="AA67" s="131"/>
-      <c r="AB67" s="131"/>
-      <c r="AC67" s="131"/>
-      <c r="AD67" s="131"/>
-      <c r="AE67" s="131"/>
-      <c r="AF67" s="131"/>
-      <c r="AG67" s="131"/>
-      <c r="AH67" s="131"/>
-      <c r="AI67" s="131"/>
-      <c r="AJ67" s="131"/>
-      <c r="AK67" s="131"/>
+      <c r="X67" s="134"/>
+      <c r="Y67" s="134"/>
+      <c r="Z67" s="134"/>
+      <c r="AA67" s="134"/>
+      <c r="AB67" s="134"/>
+      <c r="AC67" s="134"/>
+      <c r="AD67" s="134"/>
+      <c r="AE67" s="134"/>
+      <c r="AF67" s="134"/>
+      <c r="AG67" s="134"/>
+      <c r="AH67" s="134"/>
+      <c r="AI67" s="134"/>
+      <c r="AJ67" s="134"/>
+      <c r="AK67" s="134"/>
       <c r="AL67" s="1"/>
       <c r="AM67" s="1"/>
     </row>
@@ -6100,47 +6107,47 @@
       <c r="AM71" s="74"/>
     </row>
     <row r="72" spans="1:39" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="121" t="s">
+      <c r="A72" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="B72" s="121"/>
-      <c r="C72" s="121"/>
-      <c r="D72" s="121"/>
-      <c r="E72" s="121"/>
-      <c r="F72" s="121"/>
-      <c r="G72" s="121"/>
-      <c r="H72" s="121"/>
-      <c r="I72" s="121"/>
-      <c r="J72" s="121"/>
-      <c r="K72" s="121"/>
-      <c r="L72" s="121"/>
-      <c r="M72" s="121"/>
-      <c r="N72" s="121"/>
-      <c r="O72" s="121"/>
-      <c r="P72" s="121"/>
-      <c r="Q72" s="121"/>
-      <c r="R72" s="121"/>
-      <c r="S72" s="121"/>
-      <c r="T72" s="121"/>
-      <c r="U72" s="121"/>
-      <c r="V72" s="121"/>
-      <c r="W72" s="121"/>
-      <c r="X72" s="121"/>
-      <c r="Y72" s="121"/>
-      <c r="Z72" s="121"/>
-      <c r="AA72" s="121"/>
-      <c r="AB72" s="121"/>
-      <c r="AC72" s="121"/>
-      <c r="AD72" s="121"/>
-      <c r="AE72" s="121"/>
-      <c r="AF72" s="121"/>
-      <c r="AG72" s="121"/>
-      <c r="AH72" s="121"/>
-      <c r="AI72" s="121"/>
-      <c r="AJ72" s="121"/>
-      <c r="AK72" s="121"/>
-      <c r="AL72" s="121"/>
-      <c r="AM72" s="121"/>
+      <c r="B72" s="124"/>
+      <c r="C72" s="124"/>
+      <c r="D72" s="124"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="124"/>
+      <c r="G72" s="124"/>
+      <c r="H72" s="124"/>
+      <c r="I72" s="124"/>
+      <c r="J72" s="124"/>
+      <c r="K72" s="124"/>
+      <c r="L72" s="124"/>
+      <c r="M72" s="124"/>
+      <c r="N72" s="124"/>
+      <c r="O72" s="124"/>
+      <c r="P72" s="124"/>
+      <c r="Q72" s="124"/>
+      <c r="R72" s="124"/>
+      <c r="S72" s="124"/>
+      <c r="T72" s="124"/>
+      <c r="U72" s="124"/>
+      <c r="V72" s="124"/>
+      <c r="W72" s="124"/>
+      <c r="X72" s="124"/>
+      <c r="Y72" s="124"/>
+      <c r="Z72" s="124"/>
+      <c r="AA72" s="124"/>
+      <c r="AB72" s="124"/>
+      <c r="AC72" s="124"/>
+      <c r="AD72" s="124"/>
+      <c r="AE72" s="124"/>
+      <c r="AF72" s="124"/>
+      <c r="AG72" s="124"/>
+      <c r="AH72" s="124"/>
+      <c r="AI72" s="124"/>
+      <c r="AJ72" s="124"/>
+      <c r="AK72" s="124"/>
+      <c r="AL72" s="124"/>
+      <c r="AM72" s="124"/>
     </row>
     <row r="73" spans="1:39" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
@@ -6214,21 +6221,21 @@
       <c r="V74" s="48"/>
       <c r="W74" s="48"/>
       <c r="X74" s="49"/>
-      <c r="Y74" s="125" t="s">
+      <c r="Y74" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="Z74" s="126"/>
-      <c r="AA74" s="126"/>
-      <c r="AB74" s="126"/>
-      <c r="AC74" s="126"/>
-      <c r="AD74" s="126"/>
-      <c r="AE74" s="126"/>
-      <c r="AF74" s="126"/>
-      <c r="AG74" s="126"/>
-      <c r="AH74" s="126"/>
-      <c r="AI74" s="126"/>
-      <c r="AJ74" s="126"/>
-      <c r="AK74" s="127"/>
+      <c r="Z74" s="129"/>
+      <c r="AA74" s="129"/>
+      <c r="AB74" s="129"/>
+      <c r="AC74" s="129"/>
+      <c r="AD74" s="129"/>
+      <c r="AE74" s="129"/>
+      <c r="AF74" s="129"/>
+      <c r="AG74" s="129"/>
+      <c r="AH74" s="129"/>
+      <c r="AI74" s="129"/>
+      <c r="AJ74" s="129"/>
+      <c r="AK74" s="130"/>
       <c r="AL74" s="1"/>
       <c r="AM74" s="1"/>
     </row>
@@ -6278,30 +6285,30 @@
       <c r="AM75" s="1"/>
     </row>
     <row r="76" spans="1:39" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="122"/>
-      <c r="B76" s="123"/>
-      <c r="C76" s="123"/>
-      <c r="D76" s="123"/>
-      <c r="E76" s="123"/>
-      <c r="F76" s="123"/>
-      <c r="G76" s="123"/>
-      <c r="H76" s="124"/>
-      <c r="I76" s="122"/>
-      <c r="J76" s="123"/>
-      <c r="K76" s="123"/>
-      <c r="L76" s="123"/>
-      <c r="M76" s="123"/>
-      <c r="N76" s="123"/>
-      <c r="O76" s="123"/>
-      <c r="P76" s="124"/>
-      <c r="Q76" s="122"/>
-      <c r="R76" s="123"/>
-      <c r="S76" s="123"/>
-      <c r="T76" s="123"/>
-      <c r="U76" s="123"/>
-      <c r="V76" s="123"/>
-      <c r="W76" s="123"/>
-      <c r="X76" s="124"/>
+      <c r="A76" s="125"/>
+      <c r="B76" s="126"/>
+      <c r="C76" s="126"/>
+      <c r="D76" s="126"/>
+      <c r="E76" s="126"/>
+      <c r="F76" s="126"/>
+      <c r="G76" s="126"/>
+      <c r="H76" s="127"/>
+      <c r="I76" s="125"/>
+      <c r="J76" s="126"/>
+      <c r="K76" s="126"/>
+      <c r="L76" s="126"/>
+      <c r="M76" s="126"/>
+      <c r="N76" s="126"/>
+      <c r="O76" s="126"/>
+      <c r="P76" s="127"/>
+      <c r="Q76" s="125"/>
+      <c r="R76" s="126"/>
+      <c r="S76" s="126"/>
+      <c r="T76" s="126"/>
+      <c r="U76" s="126"/>
+      <c r="V76" s="126"/>
+      <c r="W76" s="126"/>
+      <c r="X76" s="127"/>
       <c r="Y76" s="50"/>
       <c r="Z76" s="51"/>
       <c r="AA76" s="51"/>
@@ -6980,18 +6987,18 @@
         <v>5</v>
       </c>
       <c r="Q94" s="40"/>
-      <c r="R94" s="154"/>
-      <c r="S94" s="154"/>
-      <c r="T94" s="154"/>
-      <c r="U94" s="154"/>
-      <c r="V94" s="154"/>
-      <c r="W94" s="154"/>
-      <c r="X94" s="154"/>
-      <c r="Y94" s="154"/>
-      <c r="Z94" s="154"/>
-      <c r="AA94" s="154"/>
-      <c r="AB94" s="154"/>
-      <c r="AC94" s="155"/>
+      <c r="R94" s="157"/>
+      <c r="S94" s="157"/>
+      <c r="T94" s="157"/>
+      <c r="U94" s="157"/>
+      <c r="V94" s="157"/>
+      <c r="W94" s="157"/>
+      <c r="X94" s="157"/>
+      <c r="Y94" s="157"/>
+      <c r="Z94" s="157"/>
+      <c r="AA94" s="157"/>
+      <c r="AB94" s="157"/>
+      <c r="AC94" s="158"/>
       <c r="AD94" s="71" t="s">
         <v>7</v>
       </c>
@@ -7055,33 +7062,33 @@
       <c r="B96" s="40"/>
       <c r="C96" s="40"/>
       <c r="D96" s="40"/>
-      <c r="E96" s="149"/>
-      <c r="F96" s="149"/>
-      <c r="G96" s="149"/>
-      <c r="H96" s="149"/>
-      <c r="I96" s="149"/>
-      <c r="J96" s="149"/>
-      <c r="K96" s="149"/>
-      <c r="L96" s="149"/>
-      <c r="M96" s="149"/>
-      <c r="N96" s="149"/>
-      <c r="O96" s="150"/>
+      <c r="E96" s="152"/>
+      <c r="F96" s="152"/>
+      <c r="G96" s="152"/>
+      <c r="H96" s="152"/>
+      <c r="I96" s="152"/>
+      <c r="J96" s="152"/>
+      <c r="K96" s="152"/>
+      <c r="L96" s="152"/>
+      <c r="M96" s="152"/>
+      <c r="N96" s="152"/>
+      <c r="O96" s="153"/>
       <c r="P96" s="43" t="s">
         <v>5</v>
       </c>
       <c r="Q96" s="40"/>
-      <c r="R96" s="149"/>
-      <c r="S96" s="149"/>
-      <c r="T96" s="149"/>
-      <c r="U96" s="149"/>
-      <c r="V96" s="149"/>
-      <c r="W96" s="149"/>
-      <c r="X96" s="149"/>
-      <c r="Y96" s="149"/>
-      <c r="Z96" s="149"/>
-      <c r="AA96" s="149"/>
-      <c r="AB96" s="149"/>
-      <c r="AC96" s="150"/>
+      <c r="R96" s="152"/>
+      <c r="S96" s="152"/>
+      <c r="T96" s="152"/>
+      <c r="U96" s="152"/>
+      <c r="V96" s="152"/>
+      <c r="W96" s="152"/>
+      <c r="X96" s="152"/>
+      <c r="Y96" s="152"/>
+      <c r="Z96" s="152"/>
+      <c r="AA96" s="152"/>
+      <c r="AB96" s="152"/>
+      <c r="AC96" s="153"/>
       <c r="AD96" s="65"/>
       <c r="AE96" s="65"/>
       <c r="AF96" s="65"/>
@@ -7109,17 +7116,17 @@
       <c r="K97" s="72"/>
       <c r="L97" s="72"/>
       <c r="M97" s="2"/>
-      <c r="N97" s="133"/>
-      <c r="O97" s="133"/>
-      <c r="P97" s="133"/>
-      <c r="Q97" s="133"/>
-      <c r="R97" s="133"/>
-      <c r="S97" s="133"/>
-      <c r="T97" s="133"/>
-      <c r="U97" s="133"/>
-      <c r="V97" s="133"/>
-      <c r="W97" s="133"/>
-      <c r="X97" s="133"/>
+      <c r="N97" s="136"/>
+      <c r="O97" s="136"/>
+      <c r="P97" s="136"/>
+      <c r="Q97" s="136"/>
+      <c r="R97" s="136"/>
+      <c r="S97" s="136"/>
+      <c r="T97" s="136"/>
+      <c r="U97" s="136"/>
+      <c r="V97" s="136"/>
+      <c r="W97" s="136"/>
+      <c r="X97" s="136"/>
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
@@ -7152,17 +7159,17 @@
       <c r="K98" s="105"/>
       <c r="L98" s="105"/>
       <c r="M98" s="3"/>
-      <c r="N98" s="134"/>
-      <c r="O98" s="134"/>
-      <c r="P98" s="134"/>
-      <c r="Q98" s="134"/>
-      <c r="R98" s="134"/>
-      <c r="S98" s="134"/>
-      <c r="T98" s="134"/>
-      <c r="U98" s="134"/>
-      <c r="V98" s="134"/>
-      <c r="W98" s="134"/>
-      <c r="X98" s="134"/>
+      <c r="N98" s="137"/>
+      <c r="O98" s="137"/>
+      <c r="P98" s="137"/>
+      <c r="Q98" s="137"/>
+      <c r="R98" s="137"/>
+      <c r="S98" s="137"/>
+      <c r="T98" s="137"/>
+      <c r="U98" s="137"/>
+      <c r="V98" s="137"/>
+      <c r="W98" s="137"/>
+      <c r="X98" s="137"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
       <c r="AA98" s="3"/>
@@ -7261,9 +7268,9 @@
       <c r="AF100" s="102"/>
       <c r="AG100" s="102"/>
       <c r="AH100" s="112"/>
-      <c r="AI100" s="128"/>
-      <c r="AJ100" s="128"/>
-      <c r="AK100" s="128"/>
+      <c r="AI100" s="131"/>
+      <c r="AJ100" s="131"/>
+      <c r="AK100" s="131"/>
       <c r="AL100" s="1"/>
       <c r="AM100" s="1"/>
     </row>
@@ -7371,16 +7378,16 @@
       <c r="Q103" s="116"/>
       <c r="R103" s="116"/>
       <c r="S103" s="116"/>
-      <c r="T103" s="159"/>
-      <c r="U103" s="159"/>
-      <c r="V103" s="159"/>
-      <c r="W103" s="159"/>
-      <c r="X103" s="159"/>
-      <c r="Y103" s="159"/>
-      <c r="Z103" s="159"/>
-      <c r="AA103" s="159"/>
-      <c r="AB103" s="159"/>
-      <c r="AC103" s="160"/>
+      <c r="T103" s="117"/>
+      <c r="U103" s="117"/>
+      <c r="V103" s="117"/>
+      <c r="W103" s="117"/>
+      <c r="X103" s="117"/>
+      <c r="Y103" s="117"/>
+      <c r="Z103" s="117"/>
+      <c r="AA103" s="117"/>
+      <c r="AB103" s="117"/>
+      <c r="AC103" s="118"/>
       <c r="AD103" s="102"/>
       <c r="AE103" s="102"/>
       <c r="AF103" s="102"/>
@@ -7421,7 +7428,7 @@
       <c r="Z104" s="70"/>
       <c r="AA104" s="70"/>
       <c r="AB104" s="70"/>
-      <c r="AC104" s="161"/>
+      <c r="AC104" s="119"/>
       <c r="AD104" s="102"/>
       <c r="AE104" s="102"/>
       <c r="AF104" s="102"/>
@@ -7434,39 +7441,39 @@
       <c r="AM104" s="1"/>
     </row>
     <row r="105" spans="1:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="117"/>
-      <c r="B105" s="117"/>
-      <c r="C105" s="117"/>
-      <c r="D105" s="117"/>
-      <c r="E105" s="117"/>
-      <c r="F105" s="117"/>
-      <c r="G105" s="117"/>
-      <c r="H105" s="117"/>
-      <c r="I105" s="117"/>
-      <c r="J105" s="117"/>
-      <c r="K105" s="117"/>
-      <c r="L105" s="117"/>
-      <c r="M105" s="117"/>
-      <c r="N105" s="117"/>
-      <c r="O105" s="117"/>
-      <c r="P105" s="117"/>
-      <c r="Q105" s="117"/>
-      <c r="R105" s="117"/>
-      <c r="S105" s="117"/>
-      <c r="T105" s="117"/>
-      <c r="U105" s="117"/>
-      <c r="V105" s="117"/>
-      <c r="W105" s="117"/>
-      <c r="X105" s="117"/>
-      <c r="Y105" s="117"/>
-      <c r="Z105" s="117"/>
-      <c r="AA105" s="117"/>
-      <c r="AB105" s="117"/>
-      <c r="AC105" s="117"/>
-      <c r="AD105" s="132" t="s">
+      <c r="A105" s="120"/>
+      <c r="B105" s="120"/>
+      <c r="C105" s="120"/>
+      <c r="D105" s="120"/>
+      <c r="E105" s="120"/>
+      <c r="F105" s="120"/>
+      <c r="G105" s="120"/>
+      <c r="H105" s="120"/>
+      <c r="I105" s="120"/>
+      <c r="J105" s="120"/>
+      <c r="K105" s="120"/>
+      <c r="L105" s="120"/>
+      <c r="M105" s="120"/>
+      <c r="N105" s="120"/>
+      <c r="O105" s="120"/>
+      <c r="P105" s="120"/>
+      <c r="Q105" s="120"/>
+      <c r="R105" s="120"/>
+      <c r="S105" s="120"/>
+      <c r="T105" s="120"/>
+      <c r="U105" s="120"/>
+      <c r="V105" s="120"/>
+      <c r="W105" s="120"/>
+      <c r="X105" s="120"/>
+      <c r="Y105" s="120"/>
+      <c r="Z105" s="120"/>
+      <c r="AA105" s="120"/>
+      <c r="AB105" s="120"/>
+      <c r="AC105" s="120"/>
+      <c r="AD105" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="AE105" s="132"/>
+      <c r="AE105" s="135"/>
       <c r="AF105" s="61"/>
       <c r="AG105" s="61"/>
       <c r="AH105" s="61"/>
@@ -7514,11 +7521,11 @@
       <c r="AC106" s="93"/>
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
-      <c r="AF106" s="151" t="s">
+      <c r="AF106" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="AG106" s="151"/>
-      <c r="AH106" s="151"/>
+      <c r="AG106" s="154"/>
+      <c r="AH106" s="154"/>
       <c r="AI106" s="1"/>
       <c r="AJ106" s="1"/>
       <c r="AK106" s="1"/>
@@ -7634,22 +7641,22 @@
       <c r="U109" s="21"/>
       <c r="V109" s="21"/>
       <c r="W109" s="17"/>
-      <c r="X109" s="130" t="s">
+      <c r="X109" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="Y109" s="130"/>
-      <c r="Z109" s="130"/>
-      <c r="AA109" s="130"/>
-      <c r="AB109" s="130"/>
-      <c r="AC109" s="130"/>
-      <c r="AD109" s="130"/>
-      <c r="AE109" s="130"/>
-      <c r="AF109" s="130"/>
-      <c r="AG109" s="130"/>
-      <c r="AH109" s="130"/>
-      <c r="AI109" s="130"/>
-      <c r="AJ109" s="130"/>
-      <c r="AK109" s="130"/>
+      <c r="Y109" s="133"/>
+      <c r="Z109" s="133"/>
+      <c r="AA109" s="133"/>
+      <c r="AB109" s="133"/>
+      <c r="AC109" s="133"/>
+      <c r="AD109" s="133"/>
+      <c r="AE109" s="133"/>
+      <c r="AF109" s="133"/>
+      <c r="AG109" s="133"/>
+      <c r="AH109" s="133"/>
+      <c r="AI109" s="133"/>
+      <c r="AJ109" s="133"/>
+      <c r="AK109" s="133"/>
       <c r="AL109" s="1"/>
       <c r="AM109" s="1"/>
     </row>
@@ -7677,20 +7684,20 @@
       <c r="U110" s="6"/>
       <c r="V110" s="6"/>
       <c r="W110" s="6"/>
-      <c r="X110" s="131"/>
-      <c r="Y110" s="131"/>
-      <c r="Z110" s="131"/>
-      <c r="AA110" s="131"/>
-      <c r="AB110" s="131"/>
-      <c r="AC110" s="131"/>
-      <c r="AD110" s="131"/>
-      <c r="AE110" s="131"/>
-      <c r="AF110" s="131"/>
-      <c r="AG110" s="131"/>
-      <c r="AH110" s="131"/>
-      <c r="AI110" s="131"/>
-      <c r="AJ110" s="131"/>
-      <c r="AK110" s="131"/>
+      <c r="X110" s="134"/>
+      <c r="Y110" s="134"/>
+      <c r="Z110" s="134"/>
+      <c r="AA110" s="134"/>
+      <c r="AB110" s="134"/>
+      <c r="AC110" s="134"/>
+      <c r="AD110" s="134"/>
+      <c r="AE110" s="134"/>
+      <c r="AF110" s="134"/>
+      <c r="AG110" s="134"/>
+      <c r="AH110" s="134"/>
+      <c r="AI110" s="134"/>
+      <c r="AJ110" s="134"/>
+      <c r="AK110" s="134"/>
       <c r="AL110" s="1"/>
       <c r="AM110" s="1"/>
     </row>
@@ -7865,47 +7872,47 @@
       <c r="AM114" s="74"/>
     </row>
     <row r="115" spans="1:39" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="121" t="s">
+      <c r="A115" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="B115" s="121"/>
-      <c r="C115" s="121"/>
-      <c r="D115" s="121"/>
-      <c r="E115" s="121"/>
-      <c r="F115" s="121"/>
-      <c r="G115" s="121"/>
-      <c r="H115" s="121"/>
-      <c r="I115" s="121"/>
-      <c r="J115" s="121"/>
-      <c r="K115" s="121"/>
-      <c r="L115" s="121"/>
-      <c r="M115" s="121"/>
-      <c r="N115" s="121"/>
-      <c r="O115" s="121"/>
-      <c r="P115" s="121"/>
-      <c r="Q115" s="121"/>
-      <c r="R115" s="121"/>
-      <c r="S115" s="121"/>
-      <c r="T115" s="121"/>
-      <c r="U115" s="121"/>
-      <c r="V115" s="121"/>
-      <c r="W115" s="121"/>
-      <c r="X115" s="121"/>
-      <c r="Y115" s="121"/>
-      <c r="Z115" s="121"/>
-      <c r="AA115" s="121"/>
-      <c r="AB115" s="121"/>
-      <c r="AC115" s="121"/>
-      <c r="AD115" s="121"/>
-      <c r="AE115" s="121"/>
-      <c r="AF115" s="121"/>
-      <c r="AG115" s="121"/>
-      <c r="AH115" s="121"/>
-      <c r="AI115" s="121"/>
-      <c r="AJ115" s="121"/>
-      <c r="AK115" s="121"/>
-      <c r="AL115" s="121"/>
-      <c r="AM115" s="121"/>
+      <c r="B115" s="124"/>
+      <c r="C115" s="124"/>
+      <c r="D115" s="124"/>
+      <c r="E115" s="124"/>
+      <c r="F115" s="124"/>
+      <c r="G115" s="124"/>
+      <c r="H115" s="124"/>
+      <c r="I115" s="124"/>
+      <c r="J115" s="124"/>
+      <c r="K115" s="124"/>
+      <c r="L115" s="124"/>
+      <c r="M115" s="124"/>
+      <c r="N115" s="124"/>
+      <c r="O115" s="124"/>
+      <c r="P115" s="124"/>
+      <c r="Q115" s="124"/>
+      <c r="R115" s="124"/>
+      <c r="S115" s="124"/>
+      <c r="T115" s="124"/>
+      <c r="U115" s="124"/>
+      <c r="V115" s="124"/>
+      <c r="W115" s="124"/>
+      <c r="X115" s="124"/>
+      <c r="Y115" s="124"/>
+      <c r="Z115" s="124"/>
+      <c r="AA115" s="124"/>
+      <c r="AB115" s="124"/>
+      <c r="AC115" s="124"/>
+      <c r="AD115" s="124"/>
+      <c r="AE115" s="124"/>
+      <c r="AF115" s="124"/>
+      <c r="AG115" s="124"/>
+      <c r="AH115" s="124"/>
+      <c r="AI115" s="124"/>
+      <c r="AJ115" s="124"/>
+      <c r="AK115" s="124"/>
+      <c r="AL115" s="124"/>
+      <c r="AM115" s="124"/>
     </row>
     <row r="116" spans="1:39" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
@@ -7979,21 +7986,21 @@
       <c r="V117" s="48"/>
       <c r="W117" s="48"/>
       <c r="X117" s="49"/>
-      <c r="Y117" s="125" t="s">
+      <c r="Y117" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="Z117" s="126"/>
-      <c r="AA117" s="126"/>
-      <c r="AB117" s="126"/>
-      <c r="AC117" s="126"/>
-      <c r="AD117" s="126"/>
-      <c r="AE117" s="126"/>
-      <c r="AF117" s="126"/>
-      <c r="AG117" s="126"/>
-      <c r="AH117" s="126"/>
-      <c r="AI117" s="126"/>
-      <c r="AJ117" s="126"/>
-      <c r="AK117" s="127"/>
+      <c r="Z117" s="129"/>
+      <c r="AA117" s="129"/>
+      <c r="AB117" s="129"/>
+      <c r="AC117" s="129"/>
+      <c r="AD117" s="129"/>
+      <c r="AE117" s="129"/>
+      <c r="AF117" s="129"/>
+      <c r="AG117" s="129"/>
+      <c r="AH117" s="129"/>
+      <c r="AI117" s="129"/>
+      <c r="AJ117" s="129"/>
+      <c r="AK117" s="130"/>
       <c r="AL117" s="1"/>
       <c r="AM117" s="1"/>
     </row>
@@ -8043,30 +8050,30 @@
       <c r="AM118" s="1"/>
     </row>
     <row r="119" spans="1:39" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="122"/>
-      <c r="B119" s="123"/>
-      <c r="C119" s="123"/>
-      <c r="D119" s="123"/>
-      <c r="E119" s="123"/>
-      <c r="F119" s="123"/>
-      <c r="G119" s="123"/>
-      <c r="H119" s="124"/>
-      <c r="I119" s="122"/>
-      <c r="J119" s="123"/>
-      <c r="K119" s="123"/>
-      <c r="L119" s="123"/>
-      <c r="M119" s="123"/>
-      <c r="N119" s="123"/>
-      <c r="O119" s="123"/>
-      <c r="P119" s="124"/>
-      <c r="Q119" s="122"/>
-      <c r="R119" s="123"/>
-      <c r="S119" s="123"/>
-      <c r="T119" s="123"/>
-      <c r="U119" s="123"/>
-      <c r="V119" s="123"/>
-      <c r="W119" s="123"/>
-      <c r="X119" s="124"/>
+      <c r="A119" s="125"/>
+      <c r="B119" s="126"/>
+      <c r="C119" s="126"/>
+      <c r="D119" s="126"/>
+      <c r="E119" s="126"/>
+      <c r="F119" s="126"/>
+      <c r="G119" s="126"/>
+      <c r="H119" s="127"/>
+      <c r="I119" s="125"/>
+      <c r="J119" s="126"/>
+      <c r="K119" s="126"/>
+      <c r="L119" s="126"/>
+      <c r="M119" s="126"/>
+      <c r="N119" s="126"/>
+      <c r="O119" s="126"/>
+      <c r="P119" s="127"/>
+      <c r="Q119" s="125"/>
+      <c r="R119" s="126"/>
+      <c r="S119" s="126"/>
+      <c r="T119" s="126"/>
+      <c r="U119" s="126"/>
+      <c r="V119" s="126"/>
+      <c r="W119" s="126"/>
+      <c r="X119" s="127"/>
       <c r="Y119" s="50"/>
       <c r="Z119" s="51"/>
       <c r="AA119" s="51"/>
@@ -8385,46 +8392,46 @@
       <c r="AK126" s="16"/>
     </row>
     <row r="168" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="144" t="s">
+      <c r="B168" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="C168" s="144"/>
-      <c r="D168" s="144"/>
-      <c r="E168" s="144"/>
-      <c r="F168" s="144"/>
-      <c r="G168" s="144"/>
-      <c r="H168" s="144"/>
-      <c r="I168" s="144"/>
-      <c r="J168" s="144"/>
-      <c r="K168" s="144"/>
-      <c r="L168" s="144"/>
-      <c r="M168" s="144"/>
-      <c r="N168" s="144"/>
-      <c r="O168" s="144"/>
-      <c r="P168" s="144"/>
-      <c r="Q168" s="144"/>
-      <c r="R168" s="144"/>
-      <c r="S168" s="144"/>
-      <c r="T168" s="135" t="s">
+      <c r="C168" s="147"/>
+      <c r="D168" s="147"/>
+      <c r="E168" s="147"/>
+      <c r="F168" s="147"/>
+      <c r="G168" s="147"/>
+      <c r="H168" s="147"/>
+      <c r="I168" s="147"/>
+      <c r="J168" s="147"/>
+      <c r="K168" s="147"/>
+      <c r="L168" s="147"/>
+      <c r="M168" s="147"/>
+      <c r="N168" s="147"/>
+      <c r="O168" s="147"/>
+      <c r="P168" s="147"/>
+      <c r="Q168" s="147"/>
+      <c r="R168" s="147"/>
+      <c r="S168" s="147"/>
+      <c r="T168" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="U168" s="136"/>
-      <c r="V168" s="136"/>
-      <c r="W168" s="136"/>
-      <c r="X168" s="136"/>
-      <c r="Y168" s="136"/>
-      <c r="Z168" s="136"/>
-      <c r="AA168" s="136"/>
-      <c r="AB168" s="136"/>
-      <c r="AC168" s="136"/>
-      <c r="AD168" s="136"/>
-      <c r="AE168" s="136"/>
-      <c r="AF168" s="136"/>
-      <c r="AG168" s="136"/>
-      <c r="AH168" s="136"/>
-      <c r="AI168" s="136"/>
-      <c r="AJ168" s="136"/>
-      <c r="AK168" s="137"/>
+      <c r="U168" s="139"/>
+      <c r="V168" s="139"/>
+      <c r="W168" s="139"/>
+      <c r="X168" s="139"/>
+      <c r="Y168" s="139"/>
+      <c r="Z168" s="139"/>
+      <c r="AA168" s="139"/>
+      <c r="AB168" s="139"/>
+      <c r="AC168" s="139"/>
+      <c r="AD168" s="139"/>
+      <c r="AE168" s="139"/>
+      <c r="AF168" s="139"/>
+      <c r="AG168" s="139"/>
+      <c r="AH168" s="139"/>
+      <c r="AI168" s="139"/>
+      <c r="AJ168" s="139"/>
+      <c r="AK168" s="140"/>
     </row>
     <row r="169" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="34"/>
@@ -8445,24 +8452,24 @@
       <c r="Q169" s="4"/>
       <c r="R169" s="4"/>
       <c r="S169" s="37"/>
-      <c r="T169" s="138"/>
-      <c r="U169" s="139"/>
-      <c r="V169" s="139"/>
-      <c r="W169" s="139"/>
-      <c r="X169" s="139"/>
-      <c r="Y169" s="139"/>
-      <c r="Z169" s="139"/>
-      <c r="AA169" s="139"/>
-      <c r="AB169" s="139"/>
-      <c r="AC169" s="139"/>
-      <c r="AD169" s="139"/>
-      <c r="AE169" s="139"/>
-      <c r="AF169" s="139"/>
-      <c r="AG169" s="139"/>
-      <c r="AH169" s="139"/>
-      <c r="AI169" s="139"/>
-      <c r="AJ169" s="139"/>
-      <c r="AK169" s="140"/>
+      <c r="T169" s="141"/>
+      <c r="U169" s="142"/>
+      <c r="V169" s="142"/>
+      <c r="W169" s="142"/>
+      <c r="X169" s="142"/>
+      <c r="Y169" s="142"/>
+      <c r="Z169" s="142"/>
+      <c r="AA169" s="142"/>
+      <c r="AB169" s="142"/>
+      <c r="AC169" s="142"/>
+      <c r="AD169" s="142"/>
+      <c r="AE169" s="142"/>
+      <c r="AF169" s="142"/>
+      <c r="AG169" s="142"/>
+      <c r="AH169" s="142"/>
+      <c r="AI169" s="142"/>
+      <c r="AJ169" s="142"/>
+      <c r="AK169" s="143"/>
     </row>
     <row r="170" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="35"/>
@@ -8483,24 +8490,24 @@
       <c r="Q170" s="36"/>
       <c r="R170" s="36"/>
       <c r="S170" s="38"/>
-      <c r="T170" s="138"/>
-      <c r="U170" s="139"/>
-      <c r="V170" s="139"/>
-      <c r="W170" s="139"/>
-      <c r="X170" s="139"/>
-      <c r="Y170" s="139"/>
-      <c r="Z170" s="139"/>
-      <c r="AA170" s="139"/>
-      <c r="AB170" s="139"/>
-      <c r="AC170" s="139"/>
-      <c r="AD170" s="139"/>
-      <c r="AE170" s="139"/>
-      <c r="AF170" s="139"/>
-      <c r="AG170" s="139"/>
-      <c r="AH170" s="139"/>
-      <c r="AI170" s="139"/>
-      <c r="AJ170" s="139"/>
-      <c r="AK170" s="140"/>
+      <c r="T170" s="141"/>
+      <c r="U170" s="142"/>
+      <c r="V170" s="142"/>
+      <c r="W170" s="142"/>
+      <c r="X170" s="142"/>
+      <c r="Y170" s="142"/>
+      <c r="Z170" s="142"/>
+      <c r="AA170" s="142"/>
+      <c r="AB170" s="142"/>
+      <c r="AC170" s="142"/>
+      <c r="AD170" s="142"/>
+      <c r="AE170" s="142"/>
+      <c r="AF170" s="142"/>
+      <c r="AG170" s="142"/>
+      <c r="AH170" s="142"/>
+      <c r="AI170" s="142"/>
+      <c r="AJ170" s="142"/>
+      <c r="AK170" s="143"/>
     </row>
     <row r="171" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="35"/>
@@ -8523,24 +8530,24 @@
       <c r="Q171" s="36"/>
       <c r="R171" s="36"/>
       <c r="S171" s="38"/>
-      <c r="T171" s="138"/>
-      <c r="U171" s="139"/>
-      <c r="V171" s="139"/>
-      <c r="W171" s="139"/>
-      <c r="X171" s="139"/>
-      <c r="Y171" s="139"/>
-      <c r="Z171" s="139"/>
-      <c r="AA171" s="139"/>
-      <c r="AB171" s="139"/>
-      <c r="AC171" s="139"/>
-      <c r="AD171" s="139"/>
-      <c r="AE171" s="139"/>
-      <c r="AF171" s="139"/>
-      <c r="AG171" s="139"/>
-      <c r="AH171" s="139"/>
-      <c r="AI171" s="139"/>
-      <c r="AJ171" s="139"/>
-      <c r="AK171" s="140"/>
+      <c r="T171" s="141"/>
+      <c r="U171" s="142"/>
+      <c r="V171" s="142"/>
+      <c r="W171" s="142"/>
+      <c r="X171" s="142"/>
+      <c r="Y171" s="142"/>
+      <c r="Z171" s="142"/>
+      <c r="AA171" s="142"/>
+      <c r="AB171" s="142"/>
+      <c r="AC171" s="142"/>
+      <c r="AD171" s="142"/>
+      <c r="AE171" s="142"/>
+      <c r="AF171" s="142"/>
+      <c r="AG171" s="142"/>
+      <c r="AH171" s="142"/>
+      <c r="AI171" s="142"/>
+      <c r="AJ171" s="142"/>
+      <c r="AK171" s="143"/>
     </row>
     <row r="172" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="35"/>
@@ -8563,24 +8570,24 @@
       <c r="Q172" s="36"/>
       <c r="R172" s="36"/>
       <c r="S172" s="38"/>
-      <c r="T172" s="138"/>
-      <c r="U172" s="139"/>
-      <c r="V172" s="139"/>
-      <c r="W172" s="139"/>
-      <c r="X172" s="139"/>
-      <c r="Y172" s="139"/>
-      <c r="Z172" s="139"/>
-      <c r="AA172" s="139"/>
-      <c r="AB172" s="139"/>
-      <c r="AC172" s="139"/>
-      <c r="AD172" s="139"/>
-      <c r="AE172" s="139"/>
-      <c r="AF172" s="139"/>
-      <c r="AG172" s="139"/>
-      <c r="AH172" s="139"/>
-      <c r="AI172" s="139"/>
-      <c r="AJ172" s="139"/>
-      <c r="AK172" s="140"/>
+      <c r="T172" s="141"/>
+      <c r="U172" s="142"/>
+      <c r="V172" s="142"/>
+      <c r="W172" s="142"/>
+      <c r="X172" s="142"/>
+      <c r="Y172" s="142"/>
+      <c r="Z172" s="142"/>
+      <c r="AA172" s="142"/>
+      <c r="AB172" s="142"/>
+      <c r="AC172" s="142"/>
+      <c r="AD172" s="142"/>
+      <c r="AE172" s="142"/>
+      <c r="AF172" s="142"/>
+      <c r="AG172" s="142"/>
+      <c r="AH172" s="142"/>
+      <c r="AI172" s="142"/>
+      <c r="AJ172" s="142"/>
+      <c r="AK172" s="143"/>
     </row>
     <row r="173" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="35" t="s">
@@ -8603,24 +8610,24 @@
       <c r="Q173" s="36"/>
       <c r="R173" s="36"/>
       <c r="S173" s="38"/>
-      <c r="T173" s="138"/>
-      <c r="U173" s="139"/>
-      <c r="V173" s="139"/>
-      <c r="W173" s="139"/>
-      <c r="X173" s="139"/>
-      <c r="Y173" s="139"/>
-      <c r="Z173" s="139"/>
-      <c r="AA173" s="139"/>
-      <c r="AB173" s="139"/>
-      <c r="AC173" s="139"/>
-      <c r="AD173" s="139"/>
-      <c r="AE173" s="139"/>
-      <c r="AF173" s="139"/>
-      <c r="AG173" s="139"/>
-      <c r="AH173" s="139"/>
-      <c r="AI173" s="139"/>
-      <c r="AJ173" s="139"/>
-      <c r="AK173" s="140"/>
+      <c r="T173" s="141"/>
+      <c r="U173" s="142"/>
+      <c r="V173" s="142"/>
+      <c r="W173" s="142"/>
+      <c r="X173" s="142"/>
+      <c r="Y173" s="142"/>
+      <c r="Z173" s="142"/>
+      <c r="AA173" s="142"/>
+      <c r="AB173" s="142"/>
+      <c r="AC173" s="142"/>
+      <c r="AD173" s="142"/>
+      <c r="AE173" s="142"/>
+      <c r="AF173" s="142"/>
+      <c r="AG173" s="142"/>
+      <c r="AH173" s="142"/>
+      <c r="AI173" s="142"/>
+      <c r="AJ173" s="142"/>
+      <c r="AK173" s="143"/>
     </row>
     <row r="174" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="35"/>
@@ -8643,24 +8650,24 @@
       <c r="Q174" s="36"/>
       <c r="R174" s="36"/>
       <c r="S174" s="38"/>
-      <c r="T174" s="138"/>
-      <c r="U174" s="139"/>
-      <c r="V174" s="139"/>
-      <c r="W174" s="139"/>
-      <c r="X174" s="139"/>
-      <c r="Y174" s="139"/>
-      <c r="Z174" s="139"/>
-      <c r="AA174" s="139"/>
-      <c r="AB174" s="139"/>
-      <c r="AC174" s="139"/>
-      <c r="AD174" s="139"/>
-      <c r="AE174" s="139"/>
-      <c r="AF174" s="139"/>
-      <c r="AG174" s="139"/>
-      <c r="AH174" s="139"/>
-      <c r="AI174" s="139"/>
-      <c r="AJ174" s="139"/>
-      <c r="AK174" s="140"/>
+      <c r="T174" s="141"/>
+      <c r="U174" s="142"/>
+      <c r="V174" s="142"/>
+      <c r="W174" s="142"/>
+      <c r="X174" s="142"/>
+      <c r="Y174" s="142"/>
+      <c r="Z174" s="142"/>
+      <c r="AA174" s="142"/>
+      <c r="AB174" s="142"/>
+      <c r="AC174" s="142"/>
+      <c r="AD174" s="142"/>
+      <c r="AE174" s="142"/>
+      <c r="AF174" s="142"/>
+      <c r="AG174" s="142"/>
+      <c r="AH174" s="142"/>
+      <c r="AI174" s="142"/>
+      <c r="AJ174" s="142"/>
+      <c r="AK174" s="143"/>
       <c r="AL174" s="28"/>
     </row>
     <row r="175" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -8684,27 +8691,27 @@
       <c r="Q175" s="36"/>
       <c r="R175" s="36"/>
       <c r="S175" s="38"/>
-      <c r="T175" s="138"/>
-      <c r="U175" s="139"/>
-      <c r="V175" s="139"/>
-      <c r="W175" s="139"/>
-      <c r="X175" s="139"/>
-      <c r="Y175" s="139"/>
-      <c r="Z175" s="139"/>
-      <c r="AA175" s="139"/>
-      <c r="AB175" s="139"/>
-      <c r="AC175" s="139"/>
-      <c r="AD175" s="139"/>
-      <c r="AE175" s="139"/>
-      <c r="AF175" s="139"/>
-      <c r="AG175" s="139"/>
-      <c r="AH175" s="139"/>
-      <c r="AI175" s="139"/>
-      <c r="AJ175" s="139"/>
-      <c r="AK175" s="140"/>
+      <c r="T175" s="141"/>
+      <c r="U175" s="142"/>
+      <c r="V175" s="142"/>
+      <c r="W175" s="142"/>
+      <c r="X175" s="142"/>
+      <c r="Y175" s="142"/>
+      <c r="Z175" s="142"/>
+      <c r="AA175" s="142"/>
+      <c r="AB175" s="142"/>
+      <c r="AC175" s="142"/>
+      <c r="AD175" s="142"/>
+      <c r="AE175" s="142"/>
+      <c r="AF175" s="142"/>
+      <c r="AG175" s="142"/>
+      <c r="AH175" s="142"/>
+      <c r="AI175" s="142"/>
+      <c r="AJ175" s="142"/>
+      <c r="AK175" s="143"/>
     </row>
     <row r="176" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="145" t="s">
+      <c r="B176" s="148" t="s">
         <v>51</v>
       </c>
       <c r="C176" s="116"/>
@@ -8723,25 +8730,25 @@
       <c r="P176" s="116"/>
       <c r="Q176" s="116"/>
       <c r="R176" s="116"/>
-      <c r="S176" s="146"/>
-      <c r="T176" s="138"/>
-      <c r="U176" s="139"/>
-      <c r="V176" s="139"/>
-      <c r="W176" s="139"/>
-      <c r="X176" s="139"/>
-      <c r="Y176" s="139"/>
-      <c r="Z176" s="139"/>
-      <c r="AA176" s="139"/>
-      <c r="AB176" s="139"/>
-      <c r="AC176" s="139"/>
-      <c r="AD176" s="139"/>
-      <c r="AE176" s="139"/>
-      <c r="AF176" s="139"/>
-      <c r="AG176" s="139"/>
-      <c r="AH176" s="139"/>
-      <c r="AI176" s="139"/>
-      <c r="AJ176" s="139"/>
-      <c r="AK176" s="140"/>
+      <c r="S176" s="149"/>
+      <c r="T176" s="141"/>
+      <c r="U176" s="142"/>
+      <c r="V176" s="142"/>
+      <c r="W176" s="142"/>
+      <c r="X176" s="142"/>
+      <c r="Y176" s="142"/>
+      <c r="Z176" s="142"/>
+      <c r="AA176" s="142"/>
+      <c r="AB176" s="142"/>
+      <c r="AC176" s="142"/>
+      <c r="AD176" s="142"/>
+      <c r="AE176" s="142"/>
+      <c r="AF176" s="142"/>
+      <c r="AG176" s="142"/>
+      <c r="AH176" s="142"/>
+      <c r="AI176" s="142"/>
+      <c r="AJ176" s="142"/>
+      <c r="AK176" s="143"/>
     </row>
     <row r="177" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="35" t="s">
@@ -8764,24 +8771,24 @@
       <c r="Q177" s="36"/>
       <c r="R177" s="36"/>
       <c r="S177" s="38"/>
-      <c r="T177" s="138"/>
-      <c r="U177" s="139"/>
-      <c r="V177" s="139"/>
-      <c r="W177" s="139"/>
-      <c r="X177" s="139"/>
-      <c r="Y177" s="139"/>
-      <c r="Z177" s="139"/>
-      <c r="AA177" s="139"/>
-      <c r="AB177" s="139"/>
-      <c r="AC177" s="139"/>
-      <c r="AD177" s="139"/>
-      <c r="AE177" s="139"/>
-      <c r="AF177" s="139"/>
-      <c r="AG177" s="139"/>
-      <c r="AH177" s="139"/>
-      <c r="AI177" s="139"/>
-      <c r="AJ177" s="139"/>
-      <c r="AK177" s="140"/>
+      <c r="T177" s="141"/>
+      <c r="U177" s="142"/>
+      <c r="V177" s="142"/>
+      <c r="W177" s="142"/>
+      <c r="X177" s="142"/>
+      <c r="Y177" s="142"/>
+      <c r="Z177" s="142"/>
+      <c r="AA177" s="142"/>
+      <c r="AB177" s="142"/>
+      <c r="AC177" s="142"/>
+      <c r="AD177" s="142"/>
+      <c r="AE177" s="142"/>
+      <c r="AF177" s="142"/>
+      <c r="AG177" s="142"/>
+      <c r="AH177" s="142"/>
+      <c r="AI177" s="142"/>
+      <c r="AJ177" s="142"/>
+      <c r="AK177" s="143"/>
     </row>
     <row r="178" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="35"/>
@@ -8804,24 +8811,24 @@
       <c r="Q178" s="36"/>
       <c r="R178" s="36"/>
       <c r="S178" s="38"/>
-      <c r="T178" s="138"/>
-      <c r="U178" s="139"/>
-      <c r="V178" s="139"/>
-      <c r="W178" s="139"/>
-      <c r="X178" s="139"/>
-      <c r="Y178" s="139"/>
-      <c r="Z178" s="139"/>
-      <c r="AA178" s="139"/>
-      <c r="AB178" s="139"/>
-      <c r="AC178" s="139"/>
-      <c r="AD178" s="139"/>
-      <c r="AE178" s="139"/>
-      <c r="AF178" s="139"/>
-      <c r="AG178" s="139"/>
-      <c r="AH178" s="139"/>
-      <c r="AI178" s="139"/>
-      <c r="AJ178" s="139"/>
-      <c r="AK178" s="140"/>
+      <c r="T178" s="141"/>
+      <c r="U178" s="142"/>
+      <c r="V178" s="142"/>
+      <c r="W178" s="142"/>
+      <c r="X178" s="142"/>
+      <c r="Y178" s="142"/>
+      <c r="Z178" s="142"/>
+      <c r="AA178" s="142"/>
+      <c r="AB178" s="142"/>
+      <c r="AC178" s="142"/>
+      <c r="AD178" s="142"/>
+      <c r="AE178" s="142"/>
+      <c r="AF178" s="142"/>
+      <c r="AG178" s="142"/>
+      <c r="AH178" s="142"/>
+      <c r="AI178" s="142"/>
+      <c r="AJ178" s="142"/>
+      <c r="AK178" s="143"/>
     </row>
     <row r="179" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="35"/>
@@ -8844,24 +8851,24 @@
       <c r="Q179" s="36"/>
       <c r="R179" s="36"/>
       <c r="S179" s="38"/>
-      <c r="T179" s="138"/>
-      <c r="U179" s="139"/>
-      <c r="V179" s="139"/>
-      <c r="W179" s="139"/>
-      <c r="X179" s="139"/>
-      <c r="Y179" s="139"/>
-      <c r="Z179" s="139"/>
-      <c r="AA179" s="139"/>
-      <c r="AB179" s="139"/>
-      <c r="AC179" s="139"/>
-      <c r="AD179" s="139"/>
-      <c r="AE179" s="139"/>
-      <c r="AF179" s="139"/>
-      <c r="AG179" s="139"/>
-      <c r="AH179" s="139"/>
-      <c r="AI179" s="139"/>
-      <c r="AJ179" s="139"/>
-      <c r="AK179" s="140"/>
+      <c r="T179" s="141"/>
+      <c r="U179" s="142"/>
+      <c r="V179" s="142"/>
+      <c r="W179" s="142"/>
+      <c r="X179" s="142"/>
+      <c r="Y179" s="142"/>
+      <c r="Z179" s="142"/>
+      <c r="AA179" s="142"/>
+      <c r="AB179" s="142"/>
+      <c r="AC179" s="142"/>
+      <c r="AD179" s="142"/>
+      <c r="AE179" s="142"/>
+      <c r="AF179" s="142"/>
+      <c r="AG179" s="142"/>
+      <c r="AH179" s="142"/>
+      <c r="AI179" s="142"/>
+      <c r="AJ179" s="142"/>
+      <c r="AK179" s="143"/>
     </row>
     <row r="180" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="35" t="s">
@@ -8884,24 +8891,24 @@
       <c r="Q180" s="36"/>
       <c r="R180" s="36"/>
       <c r="S180" s="38"/>
-      <c r="T180" s="138"/>
-      <c r="U180" s="139"/>
-      <c r="V180" s="139"/>
-      <c r="W180" s="139"/>
-      <c r="X180" s="139"/>
-      <c r="Y180" s="139"/>
-      <c r="Z180" s="139"/>
-      <c r="AA180" s="139"/>
-      <c r="AB180" s="139"/>
-      <c r="AC180" s="139"/>
-      <c r="AD180" s="139"/>
-      <c r="AE180" s="139"/>
-      <c r="AF180" s="139"/>
-      <c r="AG180" s="139"/>
-      <c r="AH180" s="139"/>
-      <c r="AI180" s="139"/>
-      <c r="AJ180" s="139"/>
-      <c r="AK180" s="140"/>
+      <c r="T180" s="141"/>
+      <c r="U180" s="142"/>
+      <c r="V180" s="142"/>
+      <c r="W180" s="142"/>
+      <c r="X180" s="142"/>
+      <c r="Y180" s="142"/>
+      <c r="Z180" s="142"/>
+      <c r="AA180" s="142"/>
+      <c r="AB180" s="142"/>
+      <c r="AC180" s="142"/>
+      <c r="AD180" s="142"/>
+      <c r="AE180" s="142"/>
+      <c r="AF180" s="142"/>
+      <c r="AG180" s="142"/>
+      <c r="AH180" s="142"/>
+      <c r="AI180" s="142"/>
+      <c r="AJ180" s="142"/>
+      <c r="AK180" s="143"/>
     </row>
     <row r="181" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="31"/>
@@ -8922,24 +8929,24 @@
       <c r="Q181" s="32"/>
       <c r="R181" s="32"/>
       <c r="S181" s="33"/>
-      <c r="T181" s="138"/>
-      <c r="U181" s="139"/>
-      <c r="V181" s="139"/>
-      <c r="W181" s="139"/>
-      <c r="X181" s="139"/>
-      <c r="Y181" s="139"/>
-      <c r="Z181" s="139"/>
-      <c r="AA181" s="139"/>
-      <c r="AB181" s="139"/>
-      <c r="AC181" s="139"/>
-      <c r="AD181" s="139"/>
-      <c r="AE181" s="139"/>
-      <c r="AF181" s="139"/>
-      <c r="AG181" s="139"/>
-      <c r="AH181" s="139"/>
-      <c r="AI181" s="139"/>
-      <c r="AJ181" s="139"/>
-      <c r="AK181" s="140"/>
+      <c r="T181" s="141"/>
+      <c r="U181" s="142"/>
+      <c r="V181" s="142"/>
+      <c r="W181" s="142"/>
+      <c r="X181" s="142"/>
+      <c r="Y181" s="142"/>
+      <c r="Z181" s="142"/>
+      <c r="AA181" s="142"/>
+      <c r="AB181" s="142"/>
+      <c r="AC181" s="142"/>
+      <c r="AD181" s="142"/>
+      <c r="AE181" s="142"/>
+      <c r="AF181" s="142"/>
+      <c r="AG181" s="142"/>
+      <c r="AH181" s="142"/>
+      <c r="AI181" s="142"/>
+      <c r="AJ181" s="142"/>
+      <c r="AK181" s="143"/>
       <c r="AL181" s="28"/>
     </row>
     <row r="182" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8961,24 +8968,24 @@
       <c r="Q182" s="32"/>
       <c r="R182" s="32"/>
       <c r="S182" s="33"/>
-      <c r="T182" s="138"/>
-      <c r="U182" s="139"/>
-      <c r="V182" s="139"/>
-      <c r="W182" s="139"/>
-      <c r="X182" s="139"/>
-      <c r="Y182" s="139"/>
-      <c r="Z182" s="139"/>
-      <c r="AA182" s="139"/>
-      <c r="AB182" s="139"/>
-      <c r="AC182" s="139"/>
-      <c r="AD182" s="139"/>
-      <c r="AE182" s="139"/>
-      <c r="AF182" s="139"/>
-      <c r="AG182" s="139"/>
-      <c r="AH182" s="139"/>
-      <c r="AI182" s="139"/>
-      <c r="AJ182" s="139"/>
-      <c r="AK182" s="140"/>
+      <c r="T182" s="141"/>
+      <c r="U182" s="142"/>
+      <c r="V182" s="142"/>
+      <c r="W182" s="142"/>
+      <c r="X182" s="142"/>
+      <c r="Y182" s="142"/>
+      <c r="Z182" s="142"/>
+      <c r="AA182" s="142"/>
+      <c r="AB182" s="142"/>
+      <c r="AC182" s="142"/>
+      <c r="AD182" s="142"/>
+      <c r="AE182" s="142"/>
+      <c r="AF182" s="142"/>
+      <c r="AG182" s="142"/>
+      <c r="AH182" s="142"/>
+      <c r="AI182" s="142"/>
+      <c r="AJ182" s="142"/>
+      <c r="AK182" s="143"/>
     </row>
     <row r="183" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="31"/>
@@ -8999,24 +9006,24 @@
       <c r="Q183" s="32"/>
       <c r="R183" s="32"/>
       <c r="S183" s="33"/>
-      <c r="T183" s="138"/>
-      <c r="U183" s="139"/>
-      <c r="V183" s="139"/>
-      <c r="W183" s="139"/>
-      <c r="X183" s="139"/>
-      <c r="Y183" s="139"/>
-      <c r="Z183" s="139"/>
-      <c r="AA183" s="139"/>
-      <c r="AB183" s="139"/>
-      <c r="AC183" s="139"/>
-      <c r="AD183" s="139"/>
-      <c r="AE183" s="139"/>
-      <c r="AF183" s="139"/>
-      <c r="AG183" s="139"/>
-      <c r="AH183" s="139"/>
-      <c r="AI183" s="139"/>
-      <c r="AJ183" s="139"/>
-      <c r="AK183" s="140"/>
+      <c r="T183" s="141"/>
+      <c r="U183" s="142"/>
+      <c r="V183" s="142"/>
+      <c r="W183" s="142"/>
+      <c r="X183" s="142"/>
+      <c r="Y183" s="142"/>
+      <c r="Z183" s="142"/>
+      <c r="AA183" s="142"/>
+      <c r="AB183" s="142"/>
+      <c r="AC183" s="142"/>
+      <c r="AD183" s="142"/>
+      <c r="AE183" s="142"/>
+      <c r="AF183" s="142"/>
+      <c r="AG183" s="142"/>
+      <c r="AH183" s="142"/>
+      <c r="AI183" s="142"/>
+      <c r="AJ183" s="142"/>
+      <c r="AK183" s="143"/>
     </row>
     <row r="184" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="31"/>
@@ -9037,27 +9044,27 @@
       <c r="Q184" s="32"/>
       <c r="R184" s="32"/>
       <c r="S184" s="33"/>
-      <c r="T184" s="138"/>
-      <c r="U184" s="139"/>
-      <c r="V184" s="139"/>
-      <c r="W184" s="139"/>
-      <c r="X184" s="139"/>
-      <c r="Y184" s="139"/>
-      <c r="Z184" s="139"/>
-      <c r="AA184" s="139"/>
-      <c r="AB184" s="139"/>
-      <c r="AC184" s="139"/>
-      <c r="AD184" s="139"/>
-      <c r="AE184" s="139"/>
-      <c r="AF184" s="139"/>
-      <c r="AG184" s="139"/>
-      <c r="AH184" s="139"/>
-      <c r="AI184" s="139"/>
-      <c r="AJ184" s="139"/>
-      <c r="AK184" s="140"/>
+      <c r="T184" s="141"/>
+      <c r="U184" s="142"/>
+      <c r="V184" s="142"/>
+      <c r="W184" s="142"/>
+      <c r="X184" s="142"/>
+      <c r="Y184" s="142"/>
+      <c r="Z184" s="142"/>
+      <c r="AA184" s="142"/>
+      <c r="AB184" s="142"/>
+      <c r="AC184" s="142"/>
+      <c r="AD184" s="142"/>
+      <c r="AE184" s="142"/>
+      <c r="AF184" s="142"/>
+      <c r="AG184" s="142"/>
+      <c r="AH184" s="142"/>
+      <c r="AI184" s="142"/>
+      <c r="AJ184" s="142"/>
+      <c r="AK184" s="143"/>
     </row>
     <row r="185" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="147" t="s">
+      <c r="B185" s="150" t="s">
         <v>56</v>
       </c>
       <c r="C185" s="68"/>
@@ -9076,25 +9083,25 @@
       <c r="P185" s="68"/>
       <c r="Q185" s="68"/>
       <c r="R185" s="68"/>
-      <c r="S185" s="148"/>
-      <c r="T185" s="141"/>
-      <c r="U185" s="142"/>
-      <c r="V185" s="142"/>
-      <c r="W185" s="142"/>
-      <c r="X185" s="142"/>
-      <c r="Y185" s="142"/>
-      <c r="Z185" s="142"/>
-      <c r="AA185" s="142"/>
-      <c r="AB185" s="142"/>
-      <c r="AC185" s="142"/>
-      <c r="AD185" s="142"/>
-      <c r="AE185" s="142"/>
-      <c r="AF185" s="142"/>
-      <c r="AG185" s="142"/>
-      <c r="AH185" s="142"/>
-      <c r="AI185" s="142"/>
-      <c r="AJ185" s="142"/>
-      <c r="AK185" s="143"/>
+      <c r="S185" s="151"/>
+      <c r="T185" s="144"/>
+      <c r="U185" s="145"/>
+      <c r="V185" s="145"/>
+      <c r="W185" s="145"/>
+      <c r="X185" s="145"/>
+      <c r="Y185" s="145"/>
+      <c r="Z185" s="145"/>
+      <c r="AA185" s="145"/>
+      <c r="AB185" s="145"/>
+      <c r="AC185" s="145"/>
+      <c r="AD185" s="145"/>
+      <c r="AE185" s="145"/>
+      <c r="AF185" s="145"/>
+      <c r="AG185" s="145"/>
+      <c r="AH185" s="145"/>
+      <c r="AI185" s="145"/>
+      <c r="AJ185" s="145"/>
+      <c r="AK185" s="146"/>
     </row>
     <row r="198" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
@@ -9118,44 +9125,44 @@
       </c>
     </row>
     <row r="206" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="153" t="s">
+      <c r="B206" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C206" s="153"/>
-      <c r="D206" s="153"/>
-      <c r="E206" s="153"/>
-      <c r="F206" s="153"/>
-      <c r="G206" s="153"/>
-      <c r="H206" s="153"/>
-      <c r="I206" s="153"/>
-      <c r="J206" s="153"/>
-      <c r="K206" s="153"/>
-      <c r="L206" s="153"/>
-      <c r="M206" s="153"/>
-      <c r="N206" s="153"/>
-      <c r="O206" s="153"/>
-      <c r="P206" s="153"/>
-      <c r="Q206" s="153"/>
-      <c r="R206" s="153"/>
-      <c r="S206" s="153"/>
-      <c r="T206" s="153"/>
-      <c r="U206" s="153"/>
-      <c r="V206" s="153"/>
-      <c r="W206" s="153"/>
-      <c r="X206" s="153"/>
-      <c r="Y206" s="153"/>
-      <c r="Z206" s="153"/>
-      <c r="AA206" s="153"/>
-      <c r="AB206" s="153"/>
-      <c r="AC206" s="153"/>
-      <c r="AD206" s="153"/>
-      <c r="AE206" s="153"/>
-      <c r="AF206" s="153"/>
-      <c r="AG206" s="153"/>
-      <c r="AH206" s="153"/>
-      <c r="AI206" s="153"/>
-      <c r="AJ206" s="153"/>
-      <c r="AK206" s="153"/>
+      <c r="C206" s="156"/>
+      <c r="D206" s="156"/>
+      <c r="E206" s="156"/>
+      <c r="F206" s="156"/>
+      <c r="G206" s="156"/>
+      <c r="H206" s="156"/>
+      <c r="I206" s="156"/>
+      <c r="J206" s="156"/>
+      <c r="K206" s="156"/>
+      <c r="L206" s="156"/>
+      <c r="M206" s="156"/>
+      <c r="N206" s="156"/>
+      <c r="O206" s="156"/>
+      <c r="P206" s="156"/>
+      <c r="Q206" s="156"/>
+      <c r="R206" s="156"/>
+      <c r="S206" s="156"/>
+      <c r="T206" s="156"/>
+      <c r="U206" s="156"/>
+      <c r="V206" s="156"/>
+      <c r="W206" s="156"/>
+      <c r="X206" s="156"/>
+      <c r="Y206" s="156"/>
+      <c r="Z206" s="156"/>
+      <c r="AA206" s="156"/>
+      <c r="AB206" s="156"/>
+      <c r="AC206" s="156"/>
+      <c r="AD206" s="156"/>
+      <c r="AE206" s="156"/>
+      <c r="AF206" s="156"/>
+      <c r="AG206" s="156"/>
+      <c r="AH206" s="156"/>
+      <c r="AI206" s="156"/>
+      <c r="AJ206" s="156"/>
+      <c r="AK206" s="156"/>
     </row>
     <row r="207" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="71" t="s">
@@ -9243,1514 +9250,1514 @@
       <c r="B209" s="101">
         <v>1</v>
       </c>
-      <c r="C209" s="154"/>
-      <c r="D209" s="154"/>
-      <c r="E209" s="154"/>
-      <c r="F209" s="154"/>
-      <c r="G209" s="154"/>
-      <c r="H209" s="154"/>
-      <c r="I209" s="155"/>
+      <c r="C209" s="157"/>
+      <c r="D209" s="157"/>
+      <c r="E209" s="157"/>
+      <c r="F209" s="157"/>
+      <c r="G209" s="157"/>
+      <c r="H209" s="157"/>
+      <c r="I209" s="158"/>
       <c r="J209" s="101">
         <v>2</v>
       </c>
-      <c r="K209" s="154"/>
-      <c r="L209" s="154"/>
-      <c r="M209" s="154"/>
-      <c r="N209" s="154"/>
-      <c r="O209" s="154"/>
-      <c r="P209" s="154"/>
-      <c r="Q209" s="154"/>
-      <c r="R209" s="154"/>
-      <c r="S209" s="154"/>
-      <c r="T209" s="154"/>
-      <c r="U209" s="154"/>
-      <c r="V209" s="154"/>
-      <c r="W209" s="154"/>
-      <c r="X209" s="154"/>
-      <c r="Y209" s="154"/>
-      <c r="Z209" s="155"/>
+      <c r="K209" s="157"/>
+      <c r="L209" s="157"/>
+      <c r="M209" s="157"/>
+      <c r="N209" s="157"/>
+      <c r="O209" s="157"/>
+      <c r="P209" s="157"/>
+      <c r="Q209" s="157"/>
+      <c r="R209" s="157"/>
+      <c r="S209" s="157"/>
+      <c r="T209" s="157"/>
+      <c r="U209" s="157"/>
+      <c r="V209" s="157"/>
+      <c r="W209" s="157"/>
+      <c r="X209" s="157"/>
+      <c r="Y209" s="157"/>
+      <c r="Z209" s="158"/>
       <c r="AA209" s="101">
         <v>3</v>
       </c>
-      <c r="AB209" s="154"/>
-      <c r="AC209" s="154"/>
-      <c r="AD209" s="154"/>
-      <c r="AE209" s="154"/>
-      <c r="AF209" s="154"/>
-      <c r="AG209" s="154"/>
-      <c r="AH209" s="154"/>
-      <c r="AI209" s="154"/>
-      <c r="AJ209" s="154"/>
-      <c r="AK209" s="155"/>
+      <c r="AB209" s="157"/>
+      <c r="AC209" s="157"/>
+      <c r="AD209" s="157"/>
+      <c r="AE209" s="157"/>
+      <c r="AF209" s="157"/>
+      <c r="AG209" s="157"/>
+      <c r="AH209" s="157"/>
+      <c r="AI209" s="157"/>
+      <c r="AJ209" s="157"/>
+      <c r="AK209" s="158"/>
     </row>
     <row r="210" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="152"/>
-      <c r="C210" s="152"/>
-      <c r="D210" s="152"/>
-      <c r="E210" s="152"/>
-      <c r="F210" s="152"/>
-      <c r="G210" s="152"/>
-      <c r="H210" s="152"/>
-      <c r="I210" s="152"/>
-      <c r="J210" s="152"/>
-      <c r="K210" s="152"/>
-      <c r="L210" s="152"/>
-      <c r="M210" s="152"/>
-      <c r="N210" s="152"/>
-      <c r="O210" s="152"/>
-      <c r="P210" s="152"/>
-      <c r="Q210" s="152"/>
-      <c r="R210" s="152"/>
-      <c r="S210" s="152"/>
-      <c r="T210" s="152"/>
-      <c r="U210" s="152"/>
-      <c r="V210" s="152"/>
-      <c r="W210" s="152"/>
-      <c r="X210" s="152"/>
-      <c r="Y210" s="152"/>
-      <c r="Z210" s="152"/>
-      <c r="AA210" s="152"/>
-      <c r="AB210" s="152"/>
-      <c r="AC210" s="152"/>
-      <c r="AD210" s="152"/>
-      <c r="AE210" s="152"/>
-      <c r="AF210" s="152"/>
-      <c r="AG210" s="152"/>
-      <c r="AH210" s="152"/>
-      <c r="AI210" s="152"/>
-      <c r="AJ210" s="152"/>
-      <c r="AK210" s="152"/>
+      <c r="B210" s="155"/>
+      <c r="C210" s="155"/>
+      <c r="D210" s="155"/>
+      <c r="E210" s="155"/>
+      <c r="F210" s="155"/>
+      <c r="G210" s="155"/>
+      <c r="H210" s="155"/>
+      <c r="I210" s="155"/>
+      <c r="J210" s="155"/>
+      <c r="K210" s="155"/>
+      <c r="L210" s="155"/>
+      <c r="M210" s="155"/>
+      <c r="N210" s="155"/>
+      <c r="O210" s="155"/>
+      <c r="P210" s="155"/>
+      <c r="Q210" s="155"/>
+      <c r="R210" s="155"/>
+      <c r="S210" s="155"/>
+      <c r="T210" s="155"/>
+      <c r="U210" s="155"/>
+      <c r="V210" s="155"/>
+      <c r="W210" s="155"/>
+      <c r="X210" s="155"/>
+      <c r="Y210" s="155"/>
+      <c r="Z210" s="155"/>
+      <c r="AA210" s="155"/>
+      <c r="AB210" s="155"/>
+      <c r="AC210" s="155"/>
+      <c r="AD210" s="155"/>
+      <c r="AE210" s="155"/>
+      <c r="AF210" s="155"/>
+      <c r="AG210" s="155"/>
+      <c r="AH210" s="155"/>
+      <c r="AI210" s="155"/>
+      <c r="AJ210" s="155"/>
+      <c r="AK210" s="155"/>
     </row>
     <row r="211" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="152"/>
-      <c r="C211" s="152"/>
-      <c r="D211" s="152"/>
-      <c r="E211" s="152"/>
-      <c r="F211" s="152"/>
-      <c r="G211" s="152"/>
-      <c r="H211" s="152"/>
-      <c r="I211" s="152"/>
-      <c r="J211" s="152"/>
-      <c r="K211" s="152"/>
-      <c r="L211" s="152"/>
-      <c r="M211" s="152"/>
-      <c r="N211" s="152"/>
-      <c r="O211" s="152"/>
-      <c r="P211" s="152"/>
-      <c r="Q211" s="152"/>
-      <c r="R211" s="152"/>
-      <c r="S211" s="152"/>
-      <c r="T211" s="152"/>
-      <c r="U211" s="152"/>
-      <c r="V211" s="152"/>
-      <c r="W211" s="152"/>
-      <c r="X211" s="152"/>
-      <c r="Y211" s="152"/>
-      <c r="Z211" s="152"/>
-      <c r="AA211" s="152"/>
-      <c r="AB211" s="152"/>
-      <c r="AC211" s="152"/>
-      <c r="AD211" s="152"/>
-      <c r="AE211" s="152"/>
-      <c r="AF211" s="152"/>
-      <c r="AG211" s="152"/>
-      <c r="AH211" s="152"/>
-      <c r="AI211" s="152"/>
-      <c r="AJ211" s="152"/>
-      <c r="AK211" s="152"/>
+      <c r="B211" s="155"/>
+      <c r="C211" s="155"/>
+      <c r="D211" s="155"/>
+      <c r="E211" s="155"/>
+      <c r="F211" s="155"/>
+      <c r="G211" s="155"/>
+      <c r="H211" s="155"/>
+      <c r="I211" s="155"/>
+      <c r="J211" s="155"/>
+      <c r="K211" s="155"/>
+      <c r="L211" s="155"/>
+      <c r="M211" s="155"/>
+      <c r="N211" s="155"/>
+      <c r="O211" s="155"/>
+      <c r="P211" s="155"/>
+      <c r="Q211" s="155"/>
+      <c r="R211" s="155"/>
+      <c r="S211" s="155"/>
+      <c r="T211" s="155"/>
+      <c r="U211" s="155"/>
+      <c r="V211" s="155"/>
+      <c r="W211" s="155"/>
+      <c r="X211" s="155"/>
+      <c r="Y211" s="155"/>
+      <c r="Z211" s="155"/>
+      <c r="AA211" s="155"/>
+      <c r="AB211" s="155"/>
+      <c r="AC211" s="155"/>
+      <c r="AD211" s="155"/>
+      <c r="AE211" s="155"/>
+      <c r="AF211" s="155"/>
+      <c r="AG211" s="155"/>
+      <c r="AH211" s="155"/>
+      <c r="AI211" s="155"/>
+      <c r="AJ211" s="155"/>
+      <c r="AK211" s="155"/>
     </row>
     <row r="212" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="152"/>
-      <c r="C212" s="152"/>
-      <c r="D212" s="152"/>
-      <c r="E212" s="152"/>
-      <c r="F212" s="152"/>
-      <c r="G212" s="152"/>
-      <c r="H212" s="152"/>
-      <c r="I212" s="152"/>
-      <c r="J212" s="152"/>
-      <c r="K212" s="152"/>
-      <c r="L212" s="152"/>
-      <c r="M212" s="152"/>
-      <c r="N212" s="152"/>
-      <c r="O212" s="152"/>
-      <c r="P212" s="152"/>
-      <c r="Q212" s="152"/>
-      <c r="R212" s="152"/>
-      <c r="S212" s="152"/>
-      <c r="T212" s="152"/>
-      <c r="U212" s="152"/>
-      <c r="V212" s="152"/>
-      <c r="W212" s="152"/>
-      <c r="X212" s="152"/>
-      <c r="Y212" s="152"/>
-      <c r="Z212" s="152"/>
-      <c r="AA212" s="152"/>
-      <c r="AB212" s="152"/>
-      <c r="AC212" s="152"/>
-      <c r="AD212" s="152"/>
-      <c r="AE212" s="152"/>
-      <c r="AF212" s="152"/>
-      <c r="AG212" s="152"/>
-      <c r="AH212" s="152"/>
-      <c r="AI212" s="152"/>
-      <c r="AJ212" s="152"/>
-      <c r="AK212" s="152"/>
+      <c r="B212" s="155"/>
+      <c r="C212" s="155"/>
+      <c r="D212" s="155"/>
+      <c r="E212" s="155"/>
+      <c r="F212" s="155"/>
+      <c r="G212" s="155"/>
+      <c r="H212" s="155"/>
+      <c r="I212" s="155"/>
+      <c r="J212" s="155"/>
+      <c r="K212" s="155"/>
+      <c r="L212" s="155"/>
+      <c r="M212" s="155"/>
+      <c r="N212" s="155"/>
+      <c r="O212" s="155"/>
+      <c r="P212" s="155"/>
+      <c r="Q212" s="155"/>
+      <c r="R212" s="155"/>
+      <c r="S212" s="155"/>
+      <c r="T212" s="155"/>
+      <c r="U212" s="155"/>
+      <c r="V212" s="155"/>
+      <c r="W212" s="155"/>
+      <c r="X212" s="155"/>
+      <c r="Y212" s="155"/>
+      <c r="Z212" s="155"/>
+      <c r="AA212" s="155"/>
+      <c r="AB212" s="155"/>
+      <c r="AC212" s="155"/>
+      <c r="AD212" s="155"/>
+      <c r="AE212" s="155"/>
+      <c r="AF212" s="155"/>
+      <c r="AG212" s="155"/>
+      <c r="AH212" s="155"/>
+      <c r="AI212" s="155"/>
+      <c r="AJ212" s="155"/>
+      <c r="AK212" s="155"/>
     </row>
     <row r="213" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="152"/>
-      <c r="C213" s="152"/>
-      <c r="D213" s="152"/>
-      <c r="E213" s="152"/>
-      <c r="F213" s="152"/>
-      <c r="G213" s="152"/>
-      <c r="H213" s="152"/>
-      <c r="I213" s="152"/>
-      <c r="J213" s="152"/>
-      <c r="K213" s="152"/>
-      <c r="L213" s="152"/>
-      <c r="M213" s="152"/>
-      <c r="N213" s="152"/>
-      <c r="O213" s="152"/>
-      <c r="P213" s="152"/>
-      <c r="Q213" s="152"/>
-      <c r="R213" s="152"/>
-      <c r="S213" s="152"/>
-      <c r="T213" s="152"/>
-      <c r="U213" s="152"/>
-      <c r="V213" s="152"/>
-      <c r="W213" s="152"/>
-      <c r="X213" s="152"/>
-      <c r="Y213" s="152"/>
-      <c r="Z213" s="152"/>
-      <c r="AA213" s="152"/>
-      <c r="AB213" s="152"/>
-      <c r="AC213" s="152"/>
-      <c r="AD213" s="152"/>
-      <c r="AE213" s="152"/>
-      <c r="AF213" s="152"/>
-      <c r="AG213" s="152"/>
-      <c r="AH213" s="152"/>
-      <c r="AI213" s="152"/>
-      <c r="AJ213" s="152"/>
-      <c r="AK213" s="152"/>
+      <c r="B213" s="155"/>
+      <c r="C213" s="155"/>
+      <c r="D213" s="155"/>
+      <c r="E213" s="155"/>
+      <c r="F213" s="155"/>
+      <c r="G213" s="155"/>
+      <c r="H213" s="155"/>
+      <c r="I213" s="155"/>
+      <c r="J213" s="155"/>
+      <c r="K213" s="155"/>
+      <c r="L213" s="155"/>
+      <c r="M213" s="155"/>
+      <c r="N213" s="155"/>
+      <c r="O213" s="155"/>
+      <c r="P213" s="155"/>
+      <c r="Q213" s="155"/>
+      <c r="R213" s="155"/>
+      <c r="S213" s="155"/>
+      <c r="T213" s="155"/>
+      <c r="U213" s="155"/>
+      <c r="V213" s="155"/>
+      <c r="W213" s="155"/>
+      <c r="X213" s="155"/>
+      <c r="Y213" s="155"/>
+      <c r="Z213" s="155"/>
+      <c r="AA213" s="155"/>
+      <c r="AB213" s="155"/>
+      <c r="AC213" s="155"/>
+      <c r="AD213" s="155"/>
+      <c r="AE213" s="155"/>
+      <c r="AF213" s="155"/>
+      <c r="AG213" s="155"/>
+      <c r="AH213" s="155"/>
+      <c r="AI213" s="155"/>
+      <c r="AJ213" s="155"/>
+      <c r="AK213" s="155"/>
     </row>
     <row r="214" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="152"/>
-      <c r="C214" s="152"/>
-      <c r="D214" s="152"/>
-      <c r="E214" s="152"/>
-      <c r="F214" s="152"/>
-      <c r="G214" s="152"/>
-      <c r="H214" s="152"/>
-      <c r="I214" s="152"/>
-      <c r="J214" s="152"/>
-      <c r="K214" s="152"/>
-      <c r="L214" s="152"/>
-      <c r="M214" s="152"/>
-      <c r="N214" s="152"/>
-      <c r="O214" s="152"/>
-      <c r="P214" s="152"/>
-      <c r="Q214" s="152"/>
-      <c r="R214" s="152"/>
-      <c r="S214" s="152"/>
-      <c r="T214" s="152"/>
-      <c r="U214" s="152"/>
-      <c r="V214" s="152"/>
-      <c r="W214" s="152"/>
-      <c r="X214" s="152"/>
-      <c r="Y214" s="152"/>
-      <c r="Z214" s="152"/>
-      <c r="AA214" s="152">
+      <c r="B214" s="155"/>
+      <c r="C214" s="155"/>
+      <c r="D214" s="155"/>
+      <c r="E214" s="155"/>
+      <c r="F214" s="155"/>
+      <c r="G214" s="155"/>
+      <c r="H214" s="155"/>
+      <c r="I214" s="155"/>
+      <c r="J214" s="155"/>
+      <c r="K214" s="155"/>
+      <c r="L214" s="155"/>
+      <c r="M214" s="155"/>
+      <c r="N214" s="155"/>
+      <c r="O214" s="155"/>
+      <c r="P214" s="155"/>
+      <c r="Q214" s="155"/>
+      <c r="R214" s="155"/>
+      <c r="S214" s="155"/>
+      <c r="T214" s="155"/>
+      <c r="U214" s="155"/>
+      <c r="V214" s="155"/>
+      <c r="W214" s="155"/>
+      <c r="X214" s="155"/>
+      <c r="Y214" s="155"/>
+      <c r="Z214" s="155"/>
+      <c r="AA214" s="155">
         <f t="shared" ref="AA214" si="0">B214*J214</f>
         <v>0</v>
       </c>
-      <c r="AB214" s="152"/>
-      <c r="AC214" s="152"/>
-      <c r="AD214" s="152"/>
-      <c r="AE214" s="152"/>
-      <c r="AF214" s="152"/>
-      <c r="AG214" s="152"/>
-      <c r="AH214" s="152"/>
-      <c r="AI214" s="152"/>
-      <c r="AJ214" s="152"/>
-      <c r="AK214" s="152"/>
+      <c r="AB214" s="155"/>
+      <c r="AC214" s="155"/>
+      <c r="AD214" s="155"/>
+      <c r="AE214" s="155"/>
+      <c r="AF214" s="155"/>
+      <c r="AG214" s="155"/>
+      <c r="AH214" s="155"/>
+      <c r="AI214" s="155"/>
+      <c r="AJ214" s="155"/>
+      <c r="AK214" s="155"/>
     </row>
     <row r="215" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="152"/>
-      <c r="C215" s="152"/>
-      <c r="D215" s="152"/>
-      <c r="E215" s="152"/>
-      <c r="F215" s="152"/>
-      <c r="G215" s="152"/>
-      <c r="H215" s="152"/>
-      <c r="I215" s="152"/>
-      <c r="J215" s="152"/>
-      <c r="K215" s="152"/>
-      <c r="L215" s="152"/>
-      <c r="M215" s="152"/>
-      <c r="N215" s="152"/>
-      <c r="O215" s="152"/>
-      <c r="P215" s="152"/>
-      <c r="Q215" s="152"/>
-      <c r="R215" s="152"/>
-      <c r="S215" s="152"/>
-      <c r="T215" s="152"/>
-      <c r="U215" s="152"/>
-      <c r="V215" s="152"/>
-      <c r="W215" s="152"/>
-      <c r="X215" s="152"/>
-      <c r="Y215" s="152"/>
-      <c r="Z215" s="152"/>
-      <c r="AA215" s="152"/>
-      <c r="AB215" s="152"/>
-      <c r="AC215" s="152"/>
-      <c r="AD215" s="152"/>
-      <c r="AE215" s="152"/>
-      <c r="AF215" s="152"/>
-      <c r="AG215" s="152"/>
-      <c r="AH215" s="152"/>
-      <c r="AI215" s="152"/>
-      <c r="AJ215" s="152"/>
-      <c r="AK215" s="152"/>
+      <c r="B215" s="155"/>
+      <c r="C215" s="155"/>
+      <c r="D215" s="155"/>
+      <c r="E215" s="155"/>
+      <c r="F215" s="155"/>
+      <c r="G215" s="155"/>
+      <c r="H215" s="155"/>
+      <c r="I215" s="155"/>
+      <c r="J215" s="155"/>
+      <c r="K215" s="155"/>
+      <c r="L215" s="155"/>
+      <c r="M215" s="155"/>
+      <c r="N215" s="155"/>
+      <c r="O215" s="155"/>
+      <c r="P215" s="155"/>
+      <c r="Q215" s="155"/>
+      <c r="R215" s="155"/>
+      <c r="S215" s="155"/>
+      <c r="T215" s="155"/>
+      <c r="U215" s="155"/>
+      <c r="V215" s="155"/>
+      <c r="W215" s="155"/>
+      <c r="X215" s="155"/>
+      <c r="Y215" s="155"/>
+      <c r="Z215" s="155"/>
+      <c r="AA215" s="155"/>
+      <c r="AB215" s="155"/>
+      <c r="AC215" s="155"/>
+      <c r="AD215" s="155"/>
+      <c r="AE215" s="155"/>
+      <c r="AF215" s="155"/>
+      <c r="AG215" s="155"/>
+      <c r="AH215" s="155"/>
+      <c r="AI215" s="155"/>
+      <c r="AJ215" s="155"/>
+      <c r="AK215" s="155"/>
     </row>
     <row r="216" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="152"/>
-      <c r="C216" s="152"/>
-      <c r="D216" s="152"/>
-      <c r="E216" s="152"/>
-      <c r="F216" s="152"/>
-      <c r="G216" s="152"/>
-      <c r="H216" s="152"/>
-      <c r="I216" s="152"/>
-      <c r="J216" s="152"/>
-      <c r="K216" s="152"/>
-      <c r="L216" s="152"/>
-      <c r="M216" s="152"/>
-      <c r="N216" s="152"/>
-      <c r="O216" s="152"/>
-      <c r="P216" s="152"/>
-      <c r="Q216" s="152"/>
-      <c r="R216" s="152"/>
-      <c r="S216" s="152"/>
-      <c r="T216" s="152"/>
-      <c r="U216" s="152"/>
-      <c r="V216" s="152"/>
-      <c r="W216" s="152"/>
-      <c r="X216" s="152"/>
-      <c r="Y216" s="152"/>
-      <c r="Z216" s="152"/>
-      <c r="AA216" s="152">
+      <c r="B216" s="155"/>
+      <c r="C216" s="155"/>
+      <c r="D216" s="155"/>
+      <c r="E216" s="155"/>
+      <c r="F216" s="155"/>
+      <c r="G216" s="155"/>
+      <c r="H216" s="155"/>
+      <c r="I216" s="155"/>
+      <c r="J216" s="155"/>
+      <c r="K216" s="155"/>
+      <c r="L216" s="155"/>
+      <c r="M216" s="155"/>
+      <c r="N216" s="155"/>
+      <c r="O216" s="155"/>
+      <c r="P216" s="155"/>
+      <c r="Q216" s="155"/>
+      <c r="R216" s="155"/>
+      <c r="S216" s="155"/>
+      <c r="T216" s="155"/>
+      <c r="U216" s="155"/>
+      <c r="V216" s="155"/>
+      <c r="W216" s="155"/>
+      <c r="X216" s="155"/>
+      <c r="Y216" s="155"/>
+      <c r="Z216" s="155"/>
+      <c r="AA216" s="155">
         <f t="shared" ref="AA216" si="1">B216*J216</f>
         <v>0</v>
       </c>
-      <c r="AB216" s="152"/>
-      <c r="AC216" s="152"/>
-      <c r="AD216" s="152"/>
-      <c r="AE216" s="152"/>
-      <c r="AF216" s="152"/>
-      <c r="AG216" s="152"/>
-      <c r="AH216" s="152"/>
-      <c r="AI216" s="152"/>
-      <c r="AJ216" s="152"/>
-      <c r="AK216" s="152"/>
+      <c r="AB216" s="155"/>
+      <c r="AC216" s="155"/>
+      <c r="AD216" s="155"/>
+      <c r="AE216" s="155"/>
+      <c r="AF216" s="155"/>
+      <c r="AG216" s="155"/>
+      <c r="AH216" s="155"/>
+      <c r="AI216" s="155"/>
+      <c r="AJ216" s="155"/>
+      <c r="AK216" s="155"/>
     </row>
     <row r="217" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="152"/>
-      <c r="C217" s="152"/>
-      <c r="D217" s="152"/>
-      <c r="E217" s="152"/>
-      <c r="F217" s="152"/>
-      <c r="G217" s="152"/>
-      <c r="H217" s="152"/>
-      <c r="I217" s="152"/>
-      <c r="J217" s="152"/>
-      <c r="K217" s="152"/>
-      <c r="L217" s="152"/>
-      <c r="M217" s="152"/>
-      <c r="N217" s="152"/>
-      <c r="O217" s="152"/>
-      <c r="P217" s="152"/>
-      <c r="Q217" s="152"/>
-      <c r="R217" s="152"/>
-      <c r="S217" s="152"/>
-      <c r="T217" s="152"/>
-      <c r="U217" s="152"/>
-      <c r="V217" s="152"/>
-      <c r="W217" s="152"/>
-      <c r="X217" s="152"/>
-      <c r="Y217" s="152"/>
-      <c r="Z217" s="152"/>
-      <c r="AA217" s="152"/>
-      <c r="AB217" s="152"/>
-      <c r="AC217" s="152"/>
-      <c r="AD217" s="152"/>
-      <c r="AE217" s="152"/>
-      <c r="AF217" s="152"/>
-      <c r="AG217" s="152"/>
-      <c r="AH217" s="152"/>
-      <c r="AI217" s="152"/>
-      <c r="AJ217" s="152"/>
-      <c r="AK217" s="152"/>
+      <c r="B217" s="155"/>
+      <c r="C217" s="155"/>
+      <c r="D217" s="155"/>
+      <c r="E217" s="155"/>
+      <c r="F217" s="155"/>
+      <c r="G217" s="155"/>
+      <c r="H217" s="155"/>
+      <c r="I217" s="155"/>
+      <c r="J217" s="155"/>
+      <c r="K217" s="155"/>
+      <c r="L217" s="155"/>
+      <c r="M217" s="155"/>
+      <c r="N217" s="155"/>
+      <c r="O217" s="155"/>
+      <c r="P217" s="155"/>
+      <c r="Q217" s="155"/>
+      <c r="R217" s="155"/>
+      <c r="S217" s="155"/>
+      <c r="T217" s="155"/>
+      <c r="U217" s="155"/>
+      <c r="V217" s="155"/>
+      <c r="W217" s="155"/>
+      <c r="X217" s="155"/>
+      <c r="Y217" s="155"/>
+      <c r="Z217" s="155"/>
+      <c r="AA217" s="155"/>
+      <c r="AB217" s="155"/>
+      <c r="AC217" s="155"/>
+      <c r="AD217" s="155"/>
+      <c r="AE217" s="155"/>
+      <c r="AF217" s="155"/>
+      <c r="AG217" s="155"/>
+      <c r="AH217" s="155"/>
+      <c r="AI217" s="155"/>
+      <c r="AJ217" s="155"/>
+      <c r="AK217" s="155"/>
     </row>
     <row r="218" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="152"/>
-      <c r="C218" s="152"/>
-      <c r="D218" s="152"/>
-      <c r="E218" s="152"/>
-      <c r="F218" s="152"/>
-      <c r="G218" s="152"/>
-      <c r="H218" s="152"/>
-      <c r="I218" s="152"/>
-      <c r="J218" s="152"/>
-      <c r="K218" s="152"/>
-      <c r="L218" s="152"/>
-      <c r="M218" s="152"/>
-      <c r="N218" s="152"/>
-      <c r="O218" s="152"/>
-      <c r="P218" s="152"/>
-      <c r="Q218" s="152"/>
-      <c r="R218" s="152"/>
-      <c r="S218" s="152"/>
-      <c r="T218" s="152"/>
-      <c r="U218" s="152"/>
-      <c r="V218" s="152"/>
-      <c r="W218" s="152"/>
-      <c r="X218" s="152"/>
-      <c r="Y218" s="152"/>
-      <c r="Z218" s="152"/>
-      <c r="AA218" s="152">
+      <c r="B218" s="155"/>
+      <c r="C218" s="155"/>
+      <c r="D218" s="155"/>
+      <c r="E218" s="155"/>
+      <c r="F218" s="155"/>
+      <c r="G218" s="155"/>
+      <c r="H218" s="155"/>
+      <c r="I218" s="155"/>
+      <c r="J218" s="155"/>
+      <c r="K218" s="155"/>
+      <c r="L218" s="155"/>
+      <c r="M218" s="155"/>
+      <c r="N218" s="155"/>
+      <c r="O218" s="155"/>
+      <c r="P218" s="155"/>
+      <c r="Q218" s="155"/>
+      <c r="R218" s="155"/>
+      <c r="S218" s="155"/>
+      <c r="T218" s="155"/>
+      <c r="U218" s="155"/>
+      <c r="V218" s="155"/>
+      <c r="W218" s="155"/>
+      <c r="X218" s="155"/>
+      <c r="Y218" s="155"/>
+      <c r="Z218" s="155"/>
+      <c r="AA218" s="155">
         <f t="shared" ref="AA218" si="2">B218*J218</f>
         <v>0</v>
       </c>
-      <c r="AB218" s="152"/>
-      <c r="AC218" s="152"/>
-      <c r="AD218" s="152"/>
-      <c r="AE218" s="152"/>
-      <c r="AF218" s="152"/>
-      <c r="AG218" s="152"/>
-      <c r="AH218" s="152"/>
-      <c r="AI218" s="152"/>
-      <c r="AJ218" s="152"/>
-      <c r="AK218" s="152"/>
+      <c r="AB218" s="155"/>
+      <c r="AC218" s="155"/>
+      <c r="AD218" s="155"/>
+      <c r="AE218" s="155"/>
+      <c r="AF218" s="155"/>
+      <c r="AG218" s="155"/>
+      <c r="AH218" s="155"/>
+      <c r="AI218" s="155"/>
+      <c r="AJ218" s="155"/>
+      <c r="AK218" s="155"/>
     </row>
     <row r="219" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="152"/>
-      <c r="C219" s="152"/>
-      <c r="D219" s="152"/>
-      <c r="E219" s="152"/>
-      <c r="F219" s="152"/>
-      <c r="G219" s="152"/>
-      <c r="H219" s="152"/>
-      <c r="I219" s="152"/>
-      <c r="J219" s="152"/>
-      <c r="K219" s="152"/>
-      <c r="L219" s="152"/>
-      <c r="M219" s="152"/>
-      <c r="N219" s="152"/>
-      <c r="O219" s="152"/>
-      <c r="P219" s="152"/>
-      <c r="Q219" s="152"/>
-      <c r="R219" s="152"/>
-      <c r="S219" s="152"/>
-      <c r="T219" s="152"/>
-      <c r="U219" s="152"/>
-      <c r="V219" s="152"/>
-      <c r="W219" s="152"/>
-      <c r="X219" s="152"/>
-      <c r="Y219" s="152"/>
-      <c r="Z219" s="152"/>
-      <c r="AA219" s="152"/>
-      <c r="AB219" s="152"/>
-      <c r="AC219" s="152"/>
-      <c r="AD219" s="152"/>
-      <c r="AE219" s="152"/>
-      <c r="AF219" s="152"/>
-      <c r="AG219" s="152"/>
-      <c r="AH219" s="152"/>
-      <c r="AI219" s="152"/>
-      <c r="AJ219" s="152"/>
-      <c r="AK219" s="152"/>
+      <c r="B219" s="155"/>
+      <c r="C219" s="155"/>
+      <c r="D219" s="155"/>
+      <c r="E219" s="155"/>
+      <c r="F219" s="155"/>
+      <c r="G219" s="155"/>
+      <c r="H219" s="155"/>
+      <c r="I219" s="155"/>
+      <c r="J219" s="155"/>
+      <c r="K219" s="155"/>
+      <c r="L219" s="155"/>
+      <c r="M219" s="155"/>
+      <c r="N219" s="155"/>
+      <c r="O219" s="155"/>
+      <c r="P219" s="155"/>
+      <c r="Q219" s="155"/>
+      <c r="R219" s="155"/>
+      <c r="S219" s="155"/>
+      <c r="T219" s="155"/>
+      <c r="U219" s="155"/>
+      <c r="V219" s="155"/>
+      <c r="W219" s="155"/>
+      <c r="X219" s="155"/>
+      <c r="Y219" s="155"/>
+      <c r="Z219" s="155"/>
+      <c r="AA219" s="155"/>
+      <c r="AB219" s="155"/>
+      <c r="AC219" s="155"/>
+      <c r="AD219" s="155"/>
+      <c r="AE219" s="155"/>
+      <c r="AF219" s="155"/>
+      <c r="AG219" s="155"/>
+      <c r="AH219" s="155"/>
+      <c r="AI219" s="155"/>
+      <c r="AJ219" s="155"/>
+      <c r="AK219" s="155"/>
     </row>
     <row r="220" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="152"/>
-      <c r="C220" s="152"/>
-      <c r="D220" s="152"/>
-      <c r="E220" s="152"/>
-      <c r="F220" s="152"/>
-      <c r="G220" s="152"/>
-      <c r="H220" s="152"/>
-      <c r="I220" s="152"/>
-      <c r="J220" s="152"/>
-      <c r="K220" s="152"/>
-      <c r="L220" s="152"/>
-      <c r="M220" s="152"/>
-      <c r="N220" s="152"/>
-      <c r="O220" s="152"/>
-      <c r="P220" s="152"/>
-      <c r="Q220" s="152"/>
-      <c r="R220" s="152"/>
-      <c r="S220" s="152"/>
-      <c r="T220" s="152"/>
-      <c r="U220" s="152"/>
-      <c r="V220" s="152"/>
-      <c r="W220" s="152"/>
-      <c r="X220" s="152"/>
-      <c r="Y220" s="152"/>
-      <c r="Z220" s="152"/>
-      <c r="AA220" s="152">
+      <c r="B220" s="155"/>
+      <c r="C220" s="155"/>
+      <c r="D220" s="155"/>
+      <c r="E220" s="155"/>
+      <c r="F220" s="155"/>
+      <c r="G220" s="155"/>
+      <c r="H220" s="155"/>
+      <c r="I220" s="155"/>
+      <c r="J220" s="155"/>
+      <c r="K220" s="155"/>
+      <c r="L220" s="155"/>
+      <c r="M220" s="155"/>
+      <c r="N220" s="155"/>
+      <c r="O220" s="155"/>
+      <c r="P220" s="155"/>
+      <c r="Q220" s="155"/>
+      <c r="R220" s="155"/>
+      <c r="S220" s="155"/>
+      <c r="T220" s="155"/>
+      <c r="U220" s="155"/>
+      <c r="V220" s="155"/>
+      <c r="W220" s="155"/>
+      <c r="X220" s="155"/>
+      <c r="Y220" s="155"/>
+      <c r="Z220" s="155"/>
+      <c r="AA220" s="155">
         <f t="shared" ref="AA220" si="3">B220*J220</f>
         <v>0</v>
       </c>
-      <c r="AB220" s="152"/>
-      <c r="AC220" s="152"/>
-      <c r="AD220" s="152"/>
-      <c r="AE220" s="152"/>
-      <c r="AF220" s="152"/>
-      <c r="AG220" s="152"/>
-      <c r="AH220" s="152"/>
-      <c r="AI220" s="152"/>
-      <c r="AJ220" s="152"/>
-      <c r="AK220" s="152"/>
+      <c r="AB220" s="155"/>
+      <c r="AC220" s="155"/>
+      <c r="AD220" s="155"/>
+      <c r="AE220" s="155"/>
+      <c r="AF220" s="155"/>
+      <c r="AG220" s="155"/>
+      <c r="AH220" s="155"/>
+      <c r="AI220" s="155"/>
+      <c r="AJ220" s="155"/>
+      <c r="AK220" s="155"/>
     </row>
     <row r="221" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="152"/>
-      <c r="C221" s="152"/>
-      <c r="D221" s="152"/>
-      <c r="E221" s="152"/>
-      <c r="F221" s="152"/>
-      <c r="G221" s="152"/>
-      <c r="H221" s="152"/>
-      <c r="I221" s="152"/>
-      <c r="J221" s="152"/>
-      <c r="K221" s="152"/>
-      <c r="L221" s="152"/>
-      <c r="M221" s="152"/>
-      <c r="N221" s="152"/>
-      <c r="O221" s="152"/>
-      <c r="P221" s="152"/>
-      <c r="Q221" s="152"/>
-      <c r="R221" s="152"/>
-      <c r="S221" s="152"/>
-      <c r="T221" s="152"/>
-      <c r="U221" s="152"/>
-      <c r="V221" s="152"/>
-      <c r="W221" s="152"/>
-      <c r="X221" s="152"/>
-      <c r="Y221" s="152"/>
-      <c r="Z221" s="152"/>
-      <c r="AA221" s="152"/>
-      <c r="AB221" s="152"/>
-      <c r="AC221" s="152"/>
-      <c r="AD221" s="152"/>
-      <c r="AE221" s="152"/>
-      <c r="AF221" s="152"/>
-      <c r="AG221" s="152"/>
-      <c r="AH221" s="152"/>
-      <c r="AI221" s="152"/>
-      <c r="AJ221" s="152"/>
-      <c r="AK221" s="152"/>
+      <c r="B221" s="155"/>
+      <c r="C221" s="155"/>
+      <c r="D221" s="155"/>
+      <c r="E221" s="155"/>
+      <c r="F221" s="155"/>
+      <c r="G221" s="155"/>
+      <c r="H221" s="155"/>
+      <c r="I221" s="155"/>
+      <c r="J221" s="155"/>
+      <c r="K221" s="155"/>
+      <c r="L221" s="155"/>
+      <c r="M221" s="155"/>
+      <c r="N221" s="155"/>
+      <c r="O221" s="155"/>
+      <c r="P221" s="155"/>
+      <c r="Q221" s="155"/>
+      <c r="R221" s="155"/>
+      <c r="S221" s="155"/>
+      <c r="T221" s="155"/>
+      <c r="U221" s="155"/>
+      <c r="V221" s="155"/>
+      <c r="W221" s="155"/>
+      <c r="X221" s="155"/>
+      <c r="Y221" s="155"/>
+      <c r="Z221" s="155"/>
+      <c r="AA221" s="155"/>
+      <c r="AB221" s="155"/>
+      <c r="AC221" s="155"/>
+      <c r="AD221" s="155"/>
+      <c r="AE221" s="155"/>
+      <c r="AF221" s="155"/>
+      <c r="AG221" s="155"/>
+      <c r="AH221" s="155"/>
+      <c r="AI221" s="155"/>
+      <c r="AJ221" s="155"/>
+      <c r="AK221" s="155"/>
     </row>
     <row r="222" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="152"/>
-      <c r="C222" s="152"/>
-      <c r="D222" s="152"/>
-      <c r="E222" s="152"/>
-      <c r="F222" s="152"/>
-      <c r="G222" s="152"/>
-      <c r="H222" s="152"/>
-      <c r="I222" s="152"/>
-      <c r="J222" s="152"/>
-      <c r="K222" s="152"/>
-      <c r="L222" s="152"/>
-      <c r="M222" s="152"/>
-      <c r="N222" s="152"/>
-      <c r="O222" s="152"/>
-      <c r="P222" s="152"/>
-      <c r="Q222" s="152"/>
-      <c r="R222" s="152"/>
-      <c r="S222" s="152"/>
-      <c r="T222" s="152"/>
-      <c r="U222" s="152"/>
-      <c r="V222" s="152"/>
-      <c r="W222" s="152"/>
-      <c r="X222" s="152"/>
-      <c r="Y222" s="152"/>
-      <c r="Z222" s="152"/>
-      <c r="AA222" s="152">
+      <c r="B222" s="155"/>
+      <c r="C222" s="155"/>
+      <c r="D222" s="155"/>
+      <c r="E222" s="155"/>
+      <c r="F222" s="155"/>
+      <c r="G222" s="155"/>
+      <c r="H222" s="155"/>
+      <c r="I222" s="155"/>
+      <c r="J222" s="155"/>
+      <c r="K222" s="155"/>
+      <c r="L222" s="155"/>
+      <c r="M222" s="155"/>
+      <c r="N222" s="155"/>
+      <c r="O222" s="155"/>
+      <c r="P222" s="155"/>
+      <c r="Q222" s="155"/>
+      <c r="R222" s="155"/>
+      <c r="S222" s="155"/>
+      <c r="T222" s="155"/>
+      <c r="U222" s="155"/>
+      <c r="V222" s="155"/>
+      <c r="W222" s="155"/>
+      <c r="X222" s="155"/>
+      <c r="Y222" s="155"/>
+      <c r="Z222" s="155"/>
+      <c r="AA222" s="155">
         <f t="shared" ref="AA222" si="4">B222*J222</f>
         <v>0</v>
       </c>
-      <c r="AB222" s="152"/>
-      <c r="AC222" s="152"/>
-      <c r="AD222" s="152"/>
-      <c r="AE222" s="152"/>
-      <c r="AF222" s="152"/>
-      <c r="AG222" s="152"/>
-      <c r="AH222" s="152"/>
-      <c r="AI222" s="152"/>
-      <c r="AJ222" s="152"/>
-      <c r="AK222" s="152"/>
+      <c r="AB222" s="155"/>
+      <c r="AC222" s="155"/>
+      <c r="AD222" s="155"/>
+      <c r="AE222" s="155"/>
+      <c r="AF222" s="155"/>
+      <c r="AG222" s="155"/>
+      <c r="AH222" s="155"/>
+      <c r="AI222" s="155"/>
+      <c r="AJ222" s="155"/>
+      <c r="AK222" s="155"/>
     </row>
     <row r="223" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="152"/>
-      <c r="C223" s="152"/>
-      <c r="D223" s="152"/>
-      <c r="E223" s="152"/>
-      <c r="F223" s="152"/>
-      <c r="G223" s="152"/>
-      <c r="H223" s="152"/>
-      <c r="I223" s="152"/>
-      <c r="J223" s="152"/>
-      <c r="K223" s="152"/>
-      <c r="L223" s="152"/>
-      <c r="M223" s="152"/>
-      <c r="N223" s="152"/>
-      <c r="O223" s="152"/>
-      <c r="P223" s="152"/>
-      <c r="Q223" s="152"/>
-      <c r="R223" s="152"/>
-      <c r="S223" s="152"/>
-      <c r="T223" s="152"/>
-      <c r="U223" s="152"/>
-      <c r="V223" s="152"/>
-      <c r="W223" s="152"/>
-      <c r="X223" s="152"/>
-      <c r="Y223" s="152"/>
-      <c r="Z223" s="152"/>
-      <c r="AA223" s="152"/>
-      <c r="AB223" s="152"/>
-      <c r="AC223" s="152"/>
-      <c r="AD223" s="152"/>
-      <c r="AE223" s="152"/>
-      <c r="AF223" s="152"/>
-      <c r="AG223" s="152"/>
-      <c r="AH223" s="152"/>
-      <c r="AI223" s="152"/>
-      <c r="AJ223" s="152"/>
-      <c r="AK223" s="152"/>
+      <c r="B223" s="155"/>
+      <c r="C223" s="155"/>
+      <c r="D223" s="155"/>
+      <c r="E223" s="155"/>
+      <c r="F223" s="155"/>
+      <c r="G223" s="155"/>
+      <c r="H223" s="155"/>
+      <c r="I223" s="155"/>
+      <c r="J223" s="155"/>
+      <c r="K223" s="155"/>
+      <c r="L223" s="155"/>
+      <c r="M223" s="155"/>
+      <c r="N223" s="155"/>
+      <c r="O223" s="155"/>
+      <c r="P223" s="155"/>
+      <c r="Q223" s="155"/>
+      <c r="R223" s="155"/>
+      <c r="S223" s="155"/>
+      <c r="T223" s="155"/>
+      <c r="U223" s="155"/>
+      <c r="V223" s="155"/>
+      <c r="W223" s="155"/>
+      <c r="X223" s="155"/>
+      <c r="Y223" s="155"/>
+      <c r="Z223" s="155"/>
+      <c r="AA223" s="155"/>
+      <c r="AB223" s="155"/>
+      <c r="AC223" s="155"/>
+      <c r="AD223" s="155"/>
+      <c r="AE223" s="155"/>
+      <c r="AF223" s="155"/>
+      <c r="AG223" s="155"/>
+      <c r="AH223" s="155"/>
+      <c r="AI223" s="155"/>
+      <c r="AJ223" s="155"/>
+      <c r="AK223" s="155"/>
     </row>
     <row r="224" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="152"/>
-      <c r="C224" s="152"/>
-      <c r="D224" s="152"/>
-      <c r="E224" s="152"/>
-      <c r="F224" s="152"/>
-      <c r="G224" s="152"/>
-      <c r="H224" s="152"/>
-      <c r="I224" s="152"/>
-      <c r="J224" s="152"/>
-      <c r="K224" s="152"/>
-      <c r="L224" s="152"/>
-      <c r="M224" s="152"/>
-      <c r="N224" s="152"/>
-      <c r="O224" s="152"/>
-      <c r="P224" s="152"/>
-      <c r="Q224" s="152"/>
-      <c r="R224" s="152"/>
-      <c r="S224" s="152"/>
-      <c r="T224" s="152"/>
-      <c r="U224" s="152"/>
-      <c r="V224" s="152"/>
-      <c r="W224" s="152"/>
-      <c r="X224" s="152"/>
-      <c r="Y224" s="152"/>
-      <c r="Z224" s="152"/>
-      <c r="AA224" s="152">
+      <c r="B224" s="155"/>
+      <c r="C224" s="155"/>
+      <c r="D224" s="155"/>
+      <c r="E224" s="155"/>
+      <c r="F224" s="155"/>
+      <c r="G224" s="155"/>
+      <c r="H224" s="155"/>
+      <c r="I224" s="155"/>
+      <c r="J224" s="155"/>
+      <c r="K224" s="155"/>
+      <c r="L224" s="155"/>
+      <c r="M224" s="155"/>
+      <c r="N224" s="155"/>
+      <c r="O224" s="155"/>
+      <c r="P224" s="155"/>
+      <c r="Q224" s="155"/>
+      <c r="R224" s="155"/>
+      <c r="S224" s="155"/>
+      <c r="T224" s="155"/>
+      <c r="U224" s="155"/>
+      <c r="V224" s="155"/>
+      <c r="W224" s="155"/>
+      <c r="X224" s="155"/>
+      <c r="Y224" s="155"/>
+      <c r="Z224" s="155"/>
+      <c r="AA224" s="155">
         <f t="shared" ref="AA224" si="5">B224*J224</f>
         <v>0</v>
       </c>
-      <c r="AB224" s="152"/>
-      <c r="AC224" s="152"/>
-      <c r="AD224" s="152"/>
-      <c r="AE224" s="152"/>
-      <c r="AF224" s="152"/>
-      <c r="AG224" s="152"/>
-      <c r="AH224" s="152"/>
-      <c r="AI224" s="152"/>
-      <c r="AJ224" s="152"/>
-      <c r="AK224" s="152"/>
+      <c r="AB224" s="155"/>
+      <c r="AC224" s="155"/>
+      <c r="AD224" s="155"/>
+      <c r="AE224" s="155"/>
+      <c r="AF224" s="155"/>
+      <c r="AG224" s="155"/>
+      <c r="AH224" s="155"/>
+      <c r="AI224" s="155"/>
+      <c r="AJ224" s="155"/>
+      <c r="AK224" s="155"/>
     </row>
     <row r="225" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="152"/>
-      <c r="C225" s="152"/>
-      <c r="D225" s="152"/>
-      <c r="E225" s="152"/>
-      <c r="F225" s="152"/>
-      <c r="G225" s="152"/>
-      <c r="H225" s="152"/>
-      <c r="I225" s="152"/>
-      <c r="J225" s="152"/>
-      <c r="K225" s="152"/>
-      <c r="L225" s="152"/>
-      <c r="M225" s="152"/>
-      <c r="N225" s="152"/>
-      <c r="O225" s="152"/>
-      <c r="P225" s="152"/>
-      <c r="Q225" s="152"/>
-      <c r="R225" s="152"/>
-      <c r="S225" s="152"/>
-      <c r="T225" s="152"/>
-      <c r="U225" s="152"/>
-      <c r="V225" s="152"/>
-      <c r="W225" s="152"/>
-      <c r="X225" s="152"/>
-      <c r="Y225" s="152"/>
-      <c r="Z225" s="152"/>
-      <c r="AA225" s="152"/>
-      <c r="AB225" s="152"/>
-      <c r="AC225" s="152"/>
-      <c r="AD225" s="152"/>
-      <c r="AE225" s="152"/>
-      <c r="AF225" s="152"/>
-      <c r="AG225" s="152"/>
-      <c r="AH225" s="152"/>
-      <c r="AI225" s="152"/>
-      <c r="AJ225" s="152"/>
-      <c r="AK225" s="152"/>
+      <c r="B225" s="155"/>
+      <c r="C225" s="155"/>
+      <c r="D225" s="155"/>
+      <c r="E225" s="155"/>
+      <c r="F225" s="155"/>
+      <c r="G225" s="155"/>
+      <c r="H225" s="155"/>
+      <c r="I225" s="155"/>
+      <c r="J225" s="155"/>
+      <c r="K225" s="155"/>
+      <c r="L225" s="155"/>
+      <c r="M225" s="155"/>
+      <c r="N225" s="155"/>
+      <c r="O225" s="155"/>
+      <c r="P225" s="155"/>
+      <c r="Q225" s="155"/>
+      <c r="R225" s="155"/>
+      <c r="S225" s="155"/>
+      <c r="T225" s="155"/>
+      <c r="U225" s="155"/>
+      <c r="V225" s="155"/>
+      <c r="W225" s="155"/>
+      <c r="X225" s="155"/>
+      <c r="Y225" s="155"/>
+      <c r="Z225" s="155"/>
+      <c r="AA225" s="155"/>
+      <c r="AB225" s="155"/>
+      <c r="AC225" s="155"/>
+      <c r="AD225" s="155"/>
+      <c r="AE225" s="155"/>
+      <c r="AF225" s="155"/>
+      <c r="AG225" s="155"/>
+      <c r="AH225" s="155"/>
+      <c r="AI225" s="155"/>
+      <c r="AJ225" s="155"/>
+      <c r="AK225" s="155"/>
     </row>
     <row r="226" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="152"/>
-      <c r="C226" s="152"/>
-      <c r="D226" s="152"/>
-      <c r="E226" s="152"/>
-      <c r="F226" s="152"/>
-      <c r="G226" s="152"/>
-      <c r="H226" s="152"/>
-      <c r="I226" s="152"/>
-      <c r="J226" s="152"/>
-      <c r="K226" s="152"/>
-      <c r="L226" s="152"/>
-      <c r="M226" s="152"/>
-      <c r="N226" s="152"/>
-      <c r="O226" s="152"/>
-      <c r="P226" s="152"/>
-      <c r="Q226" s="152"/>
-      <c r="R226" s="152"/>
-      <c r="S226" s="152"/>
-      <c r="T226" s="152"/>
-      <c r="U226" s="152"/>
-      <c r="V226" s="152"/>
-      <c r="W226" s="152"/>
-      <c r="X226" s="152"/>
-      <c r="Y226" s="152"/>
-      <c r="Z226" s="152"/>
-      <c r="AA226" s="152">
+      <c r="B226" s="155"/>
+      <c r="C226" s="155"/>
+      <c r="D226" s="155"/>
+      <c r="E226" s="155"/>
+      <c r="F226" s="155"/>
+      <c r="G226" s="155"/>
+      <c r="H226" s="155"/>
+      <c r="I226" s="155"/>
+      <c r="J226" s="155"/>
+      <c r="K226" s="155"/>
+      <c r="L226" s="155"/>
+      <c r="M226" s="155"/>
+      <c r="N226" s="155"/>
+      <c r="O226" s="155"/>
+      <c r="P226" s="155"/>
+      <c r="Q226" s="155"/>
+      <c r="R226" s="155"/>
+      <c r="S226" s="155"/>
+      <c r="T226" s="155"/>
+      <c r="U226" s="155"/>
+      <c r="V226" s="155"/>
+      <c r="W226" s="155"/>
+      <c r="X226" s="155"/>
+      <c r="Y226" s="155"/>
+      <c r="Z226" s="155"/>
+      <c r="AA226" s="155">
         <f t="shared" ref="AA226" si="6">B226*J226</f>
         <v>0</v>
       </c>
-      <c r="AB226" s="152"/>
-      <c r="AC226" s="152"/>
-      <c r="AD226" s="152"/>
-      <c r="AE226" s="152"/>
-      <c r="AF226" s="152"/>
-      <c r="AG226" s="152"/>
-      <c r="AH226" s="152"/>
-      <c r="AI226" s="152"/>
-      <c r="AJ226" s="152"/>
-      <c r="AK226" s="152"/>
+      <c r="AB226" s="155"/>
+      <c r="AC226" s="155"/>
+      <c r="AD226" s="155"/>
+      <c r="AE226" s="155"/>
+      <c r="AF226" s="155"/>
+      <c r="AG226" s="155"/>
+      <c r="AH226" s="155"/>
+      <c r="AI226" s="155"/>
+      <c r="AJ226" s="155"/>
+      <c r="AK226" s="155"/>
     </row>
     <row r="227" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="152"/>
-      <c r="C227" s="152"/>
-      <c r="D227" s="152"/>
-      <c r="E227" s="152"/>
-      <c r="F227" s="152"/>
-      <c r="G227" s="152"/>
-      <c r="H227" s="152"/>
-      <c r="I227" s="152"/>
-      <c r="J227" s="152"/>
-      <c r="K227" s="152"/>
-      <c r="L227" s="152"/>
-      <c r="M227" s="152"/>
-      <c r="N227" s="152"/>
-      <c r="O227" s="152"/>
-      <c r="P227" s="152"/>
-      <c r="Q227" s="152"/>
-      <c r="R227" s="152"/>
-      <c r="S227" s="152"/>
-      <c r="T227" s="152"/>
-      <c r="U227" s="152"/>
-      <c r="V227" s="152"/>
-      <c r="W227" s="152"/>
-      <c r="X227" s="152"/>
-      <c r="Y227" s="152"/>
-      <c r="Z227" s="152"/>
-      <c r="AA227" s="152"/>
-      <c r="AB227" s="152"/>
-      <c r="AC227" s="152"/>
-      <c r="AD227" s="152"/>
-      <c r="AE227" s="152"/>
-      <c r="AF227" s="152"/>
-      <c r="AG227" s="152"/>
-      <c r="AH227" s="152"/>
-      <c r="AI227" s="152"/>
-      <c r="AJ227" s="152"/>
-      <c r="AK227" s="152"/>
+      <c r="B227" s="155"/>
+      <c r="C227" s="155"/>
+      <c r="D227" s="155"/>
+      <c r="E227" s="155"/>
+      <c r="F227" s="155"/>
+      <c r="G227" s="155"/>
+      <c r="H227" s="155"/>
+      <c r="I227" s="155"/>
+      <c r="J227" s="155"/>
+      <c r="K227" s="155"/>
+      <c r="L227" s="155"/>
+      <c r="M227" s="155"/>
+      <c r="N227" s="155"/>
+      <c r="O227" s="155"/>
+      <c r="P227" s="155"/>
+      <c r="Q227" s="155"/>
+      <c r="R227" s="155"/>
+      <c r="S227" s="155"/>
+      <c r="T227" s="155"/>
+      <c r="U227" s="155"/>
+      <c r="V227" s="155"/>
+      <c r="W227" s="155"/>
+      <c r="X227" s="155"/>
+      <c r="Y227" s="155"/>
+      <c r="Z227" s="155"/>
+      <c r="AA227" s="155"/>
+      <c r="AB227" s="155"/>
+      <c r="AC227" s="155"/>
+      <c r="AD227" s="155"/>
+      <c r="AE227" s="155"/>
+      <c r="AF227" s="155"/>
+      <c r="AG227" s="155"/>
+      <c r="AH227" s="155"/>
+      <c r="AI227" s="155"/>
+      <c r="AJ227" s="155"/>
+      <c r="AK227" s="155"/>
     </row>
     <row r="228" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="152"/>
-      <c r="C228" s="152"/>
-      <c r="D228" s="152"/>
-      <c r="E228" s="152"/>
-      <c r="F228" s="152"/>
-      <c r="G228" s="152"/>
-      <c r="H228" s="152"/>
-      <c r="I228" s="152"/>
-      <c r="J228" s="152"/>
-      <c r="K228" s="152"/>
-      <c r="L228" s="152"/>
-      <c r="M228" s="152"/>
-      <c r="N228" s="152"/>
-      <c r="O228" s="152"/>
-      <c r="P228" s="152"/>
-      <c r="Q228" s="152"/>
-      <c r="R228" s="152"/>
-      <c r="S228" s="152"/>
-      <c r="T228" s="152"/>
-      <c r="U228" s="152"/>
-      <c r="V228" s="152"/>
-      <c r="W228" s="152"/>
-      <c r="X228" s="152"/>
-      <c r="Y228" s="152"/>
-      <c r="Z228" s="152"/>
-      <c r="AA228" s="152">
+      <c r="B228" s="155"/>
+      <c r="C228" s="155"/>
+      <c r="D228" s="155"/>
+      <c r="E228" s="155"/>
+      <c r="F228" s="155"/>
+      <c r="G228" s="155"/>
+      <c r="H228" s="155"/>
+      <c r="I228" s="155"/>
+      <c r="J228" s="155"/>
+      <c r="K228" s="155"/>
+      <c r="L228" s="155"/>
+      <c r="M228" s="155"/>
+      <c r="N228" s="155"/>
+      <c r="O228" s="155"/>
+      <c r="P228" s="155"/>
+      <c r="Q228" s="155"/>
+      <c r="R228" s="155"/>
+      <c r="S228" s="155"/>
+      <c r="T228" s="155"/>
+      <c r="U228" s="155"/>
+      <c r="V228" s="155"/>
+      <c r="W228" s="155"/>
+      <c r="X228" s="155"/>
+      <c r="Y228" s="155"/>
+      <c r="Z228" s="155"/>
+      <c r="AA228" s="155">
         <f t="shared" ref="AA228" si="7">B228*J228</f>
         <v>0</v>
       </c>
-      <c r="AB228" s="152"/>
-      <c r="AC228" s="152"/>
-      <c r="AD228" s="152"/>
-      <c r="AE228" s="152"/>
-      <c r="AF228" s="152"/>
-      <c r="AG228" s="152"/>
-      <c r="AH228" s="152"/>
-      <c r="AI228" s="152"/>
-      <c r="AJ228" s="152"/>
-      <c r="AK228" s="152"/>
+      <c r="AB228" s="155"/>
+      <c r="AC228" s="155"/>
+      <c r="AD228" s="155"/>
+      <c r="AE228" s="155"/>
+      <c r="AF228" s="155"/>
+      <c r="AG228" s="155"/>
+      <c r="AH228" s="155"/>
+      <c r="AI228" s="155"/>
+      <c r="AJ228" s="155"/>
+      <c r="AK228" s="155"/>
     </row>
     <row r="229" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="152"/>
-      <c r="C229" s="152"/>
-      <c r="D229" s="152"/>
-      <c r="E229" s="152"/>
-      <c r="F229" s="152"/>
-      <c r="G229" s="152"/>
-      <c r="H229" s="152"/>
-      <c r="I229" s="152"/>
-      <c r="J229" s="152"/>
-      <c r="K229" s="152"/>
-      <c r="L229" s="152"/>
-      <c r="M229" s="152"/>
-      <c r="N229" s="152"/>
-      <c r="O229" s="152"/>
-      <c r="P229" s="152"/>
-      <c r="Q229" s="152"/>
-      <c r="R229" s="152"/>
-      <c r="S229" s="152"/>
-      <c r="T229" s="152"/>
-      <c r="U229" s="152"/>
-      <c r="V229" s="152"/>
-      <c r="W229" s="152"/>
-      <c r="X229" s="152"/>
-      <c r="Y229" s="152"/>
-      <c r="Z229" s="152"/>
-      <c r="AA229" s="152"/>
-      <c r="AB229" s="152"/>
-      <c r="AC229" s="152"/>
-      <c r="AD229" s="152"/>
-      <c r="AE229" s="152"/>
-      <c r="AF229" s="152"/>
-      <c r="AG229" s="152"/>
-      <c r="AH229" s="152"/>
-      <c r="AI229" s="152"/>
-      <c r="AJ229" s="152"/>
-      <c r="AK229" s="152"/>
+      <c r="B229" s="155"/>
+      <c r="C229" s="155"/>
+      <c r="D229" s="155"/>
+      <c r="E229" s="155"/>
+      <c r="F229" s="155"/>
+      <c r="G229" s="155"/>
+      <c r="H229" s="155"/>
+      <c r="I229" s="155"/>
+      <c r="J229" s="155"/>
+      <c r="K229" s="155"/>
+      <c r="L229" s="155"/>
+      <c r="M229" s="155"/>
+      <c r="N229" s="155"/>
+      <c r="O229" s="155"/>
+      <c r="P229" s="155"/>
+      <c r="Q229" s="155"/>
+      <c r="R229" s="155"/>
+      <c r="S229" s="155"/>
+      <c r="T229" s="155"/>
+      <c r="U229" s="155"/>
+      <c r="V229" s="155"/>
+      <c r="W229" s="155"/>
+      <c r="X229" s="155"/>
+      <c r="Y229" s="155"/>
+      <c r="Z229" s="155"/>
+      <c r="AA229" s="155"/>
+      <c r="AB229" s="155"/>
+      <c r="AC229" s="155"/>
+      <c r="AD229" s="155"/>
+      <c r="AE229" s="155"/>
+      <c r="AF229" s="155"/>
+      <c r="AG229" s="155"/>
+      <c r="AH229" s="155"/>
+      <c r="AI229" s="155"/>
+      <c r="AJ229" s="155"/>
+      <c r="AK229" s="155"/>
     </row>
     <row r="230" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="152"/>
-      <c r="C230" s="152"/>
-      <c r="D230" s="152"/>
-      <c r="E230" s="152"/>
-      <c r="F230" s="152"/>
-      <c r="G230" s="152"/>
-      <c r="H230" s="152"/>
-      <c r="I230" s="152"/>
-      <c r="J230" s="152"/>
-      <c r="K230" s="152"/>
-      <c r="L230" s="152"/>
-      <c r="M230" s="152"/>
-      <c r="N230" s="152"/>
-      <c r="O230" s="152"/>
-      <c r="P230" s="152"/>
-      <c r="Q230" s="152"/>
-      <c r="R230" s="152"/>
-      <c r="S230" s="152"/>
-      <c r="T230" s="152"/>
-      <c r="U230" s="152"/>
-      <c r="V230" s="152"/>
-      <c r="W230" s="152"/>
-      <c r="X230" s="152"/>
-      <c r="Y230" s="152"/>
-      <c r="Z230" s="152"/>
-      <c r="AA230" s="152">
+      <c r="B230" s="155"/>
+      <c r="C230" s="155"/>
+      <c r="D230" s="155"/>
+      <c r="E230" s="155"/>
+      <c r="F230" s="155"/>
+      <c r="G230" s="155"/>
+      <c r="H230" s="155"/>
+      <c r="I230" s="155"/>
+      <c r="J230" s="155"/>
+      <c r="K230" s="155"/>
+      <c r="L230" s="155"/>
+      <c r="M230" s="155"/>
+      <c r="N230" s="155"/>
+      <c r="O230" s="155"/>
+      <c r="P230" s="155"/>
+      <c r="Q230" s="155"/>
+      <c r="R230" s="155"/>
+      <c r="S230" s="155"/>
+      <c r="T230" s="155"/>
+      <c r="U230" s="155"/>
+      <c r="V230" s="155"/>
+      <c r="W230" s="155"/>
+      <c r="X230" s="155"/>
+      <c r="Y230" s="155"/>
+      <c r="Z230" s="155"/>
+      <c r="AA230" s="155">
         <f t="shared" ref="AA230" si="8">B230*J230</f>
         <v>0</v>
       </c>
-      <c r="AB230" s="152"/>
-      <c r="AC230" s="152"/>
-      <c r="AD230" s="152"/>
-      <c r="AE230" s="152"/>
-      <c r="AF230" s="152"/>
-      <c r="AG230" s="152"/>
-      <c r="AH230" s="152"/>
-      <c r="AI230" s="152"/>
-      <c r="AJ230" s="152"/>
-      <c r="AK230" s="152"/>
+      <c r="AB230" s="155"/>
+      <c r="AC230" s="155"/>
+      <c r="AD230" s="155"/>
+      <c r="AE230" s="155"/>
+      <c r="AF230" s="155"/>
+      <c r="AG230" s="155"/>
+      <c r="AH230" s="155"/>
+      <c r="AI230" s="155"/>
+      <c r="AJ230" s="155"/>
+      <c r="AK230" s="155"/>
     </row>
     <row r="231" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="152"/>
-      <c r="C231" s="152"/>
-      <c r="D231" s="152"/>
-      <c r="E231" s="152"/>
-      <c r="F231" s="152"/>
-      <c r="G231" s="152"/>
-      <c r="H231" s="152"/>
-      <c r="I231" s="152"/>
-      <c r="J231" s="152"/>
-      <c r="K231" s="152"/>
-      <c r="L231" s="152"/>
-      <c r="M231" s="152"/>
-      <c r="N231" s="152"/>
-      <c r="O231" s="152"/>
-      <c r="P231" s="152"/>
-      <c r="Q231" s="152"/>
-      <c r="R231" s="152"/>
-      <c r="S231" s="152"/>
-      <c r="T231" s="152"/>
-      <c r="U231" s="152"/>
-      <c r="V231" s="152"/>
-      <c r="W231" s="152"/>
-      <c r="X231" s="152"/>
-      <c r="Y231" s="152"/>
-      <c r="Z231" s="152"/>
-      <c r="AA231" s="152"/>
-      <c r="AB231" s="152"/>
-      <c r="AC231" s="152"/>
-      <c r="AD231" s="152"/>
-      <c r="AE231" s="152"/>
-      <c r="AF231" s="152"/>
-      <c r="AG231" s="152"/>
-      <c r="AH231" s="152"/>
-      <c r="AI231" s="152"/>
-      <c r="AJ231" s="152"/>
-      <c r="AK231" s="152"/>
+      <c r="B231" s="155"/>
+      <c r="C231" s="155"/>
+      <c r="D231" s="155"/>
+      <c r="E231" s="155"/>
+      <c r="F231" s="155"/>
+      <c r="G231" s="155"/>
+      <c r="H231" s="155"/>
+      <c r="I231" s="155"/>
+      <c r="J231" s="155"/>
+      <c r="K231" s="155"/>
+      <c r="L231" s="155"/>
+      <c r="M231" s="155"/>
+      <c r="N231" s="155"/>
+      <c r="O231" s="155"/>
+      <c r="P231" s="155"/>
+      <c r="Q231" s="155"/>
+      <c r="R231" s="155"/>
+      <c r="S231" s="155"/>
+      <c r="T231" s="155"/>
+      <c r="U231" s="155"/>
+      <c r="V231" s="155"/>
+      <c r="W231" s="155"/>
+      <c r="X231" s="155"/>
+      <c r="Y231" s="155"/>
+      <c r="Z231" s="155"/>
+      <c r="AA231" s="155"/>
+      <c r="AB231" s="155"/>
+      <c r="AC231" s="155"/>
+      <c r="AD231" s="155"/>
+      <c r="AE231" s="155"/>
+      <c r="AF231" s="155"/>
+      <c r="AG231" s="155"/>
+      <c r="AH231" s="155"/>
+      <c r="AI231" s="155"/>
+      <c r="AJ231" s="155"/>
+      <c r="AK231" s="155"/>
     </row>
     <row r="232" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="152"/>
-      <c r="C232" s="152"/>
-      <c r="D232" s="152"/>
-      <c r="E232" s="152"/>
-      <c r="F232" s="152"/>
-      <c r="G232" s="152"/>
-      <c r="H232" s="152"/>
-      <c r="I232" s="152"/>
-      <c r="J232" s="152"/>
-      <c r="K232" s="152"/>
-      <c r="L232" s="152"/>
-      <c r="M232" s="152"/>
-      <c r="N232" s="152"/>
-      <c r="O232" s="152"/>
-      <c r="P232" s="152"/>
-      <c r="Q232" s="152"/>
-      <c r="R232" s="152"/>
-      <c r="S232" s="152"/>
-      <c r="T232" s="152"/>
-      <c r="U232" s="152"/>
-      <c r="V232" s="152"/>
-      <c r="W232" s="152"/>
-      <c r="X232" s="152"/>
-      <c r="Y232" s="152"/>
-      <c r="Z232" s="152"/>
-      <c r="AA232" s="152">
+      <c r="B232" s="155"/>
+      <c r="C232" s="155"/>
+      <c r="D232" s="155"/>
+      <c r="E232" s="155"/>
+      <c r="F232" s="155"/>
+      <c r="G232" s="155"/>
+      <c r="H232" s="155"/>
+      <c r="I232" s="155"/>
+      <c r="J232" s="155"/>
+      <c r="K232" s="155"/>
+      <c r="L232" s="155"/>
+      <c r="M232" s="155"/>
+      <c r="N232" s="155"/>
+      <c r="O232" s="155"/>
+      <c r="P232" s="155"/>
+      <c r="Q232" s="155"/>
+      <c r="R232" s="155"/>
+      <c r="S232" s="155"/>
+      <c r="T232" s="155"/>
+      <c r="U232" s="155"/>
+      <c r="V232" s="155"/>
+      <c r="W232" s="155"/>
+      <c r="X232" s="155"/>
+      <c r="Y232" s="155"/>
+      <c r="Z232" s="155"/>
+      <c r="AA232" s="155">
         <f t="shared" ref="AA232" si="9">B232*J232</f>
         <v>0</v>
       </c>
-      <c r="AB232" s="152"/>
-      <c r="AC232" s="152"/>
-      <c r="AD232" s="152"/>
-      <c r="AE232" s="152"/>
-      <c r="AF232" s="152"/>
-      <c r="AG232" s="152"/>
-      <c r="AH232" s="152"/>
-      <c r="AI232" s="152"/>
-      <c r="AJ232" s="152"/>
-      <c r="AK232" s="152"/>
+      <c r="AB232" s="155"/>
+      <c r="AC232" s="155"/>
+      <c r="AD232" s="155"/>
+      <c r="AE232" s="155"/>
+      <c r="AF232" s="155"/>
+      <c r="AG232" s="155"/>
+      <c r="AH232" s="155"/>
+      <c r="AI232" s="155"/>
+      <c r="AJ232" s="155"/>
+      <c r="AK232" s="155"/>
     </row>
     <row r="233" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="152"/>
-      <c r="C233" s="152"/>
-      <c r="D233" s="152"/>
-      <c r="E233" s="152"/>
-      <c r="F233" s="152"/>
-      <c r="G233" s="152"/>
-      <c r="H233" s="152"/>
-      <c r="I233" s="152"/>
-      <c r="J233" s="152"/>
-      <c r="K233" s="152"/>
-      <c r="L233" s="152"/>
-      <c r="M233" s="152"/>
-      <c r="N233" s="152"/>
-      <c r="O233" s="152"/>
-      <c r="P233" s="152"/>
-      <c r="Q233" s="152"/>
-      <c r="R233" s="152"/>
-      <c r="S233" s="152"/>
-      <c r="T233" s="152"/>
-      <c r="U233" s="152"/>
-      <c r="V233" s="152"/>
-      <c r="W233" s="152"/>
-      <c r="X233" s="152"/>
-      <c r="Y233" s="152"/>
-      <c r="Z233" s="152"/>
-      <c r="AA233" s="152"/>
-      <c r="AB233" s="152"/>
-      <c r="AC233" s="152"/>
-      <c r="AD233" s="152"/>
-      <c r="AE233" s="152"/>
-      <c r="AF233" s="152"/>
-      <c r="AG233" s="152"/>
-      <c r="AH233" s="152"/>
-      <c r="AI233" s="152"/>
-      <c r="AJ233" s="152"/>
-      <c r="AK233" s="152"/>
+      <c r="B233" s="155"/>
+      <c r="C233" s="155"/>
+      <c r="D233" s="155"/>
+      <c r="E233" s="155"/>
+      <c r="F233" s="155"/>
+      <c r="G233" s="155"/>
+      <c r="H233" s="155"/>
+      <c r="I233" s="155"/>
+      <c r="J233" s="155"/>
+      <c r="K233" s="155"/>
+      <c r="L233" s="155"/>
+      <c r="M233" s="155"/>
+      <c r="N233" s="155"/>
+      <c r="O233" s="155"/>
+      <c r="P233" s="155"/>
+      <c r="Q233" s="155"/>
+      <c r="R233" s="155"/>
+      <c r="S233" s="155"/>
+      <c r="T233" s="155"/>
+      <c r="U233" s="155"/>
+      <c r="V233" s="155"/>
+      <c r="W233" s="155"/>
+      <c r="X233" s="155"/>
+      <c r="Y233" s="155"/>
+      <c r="Z233" s="155"/>
+      <c r="AA233" s="155"/>
+      <c r="AB233" s="155"/>
+      <c r="AC233" s="155"/>
+      <c r="AD233" s="155"/>
+      <c r="AE233" s="155"/>
+      <c r="AF233" s="155"/>
+      <c r="AG233" s="155"/>
+      <c r="AH233" s="155"/>
+      <c r="AI233" s="155"/>
+      <c r="AJ233" s="155"/>
+      <c r="AK233" s="155"/>
     </row>
     <row r="234" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="152"/>
-      <c r="C234" s="152"/>
-      <c r="D234" s="152"/>
-      <c r="E234" s="152"/>
-      <c r="F234" s="152"/>
-      <c r="G234" s="152"/>
-      <c r="H234" s="152"/>
-      <c r="I234" s="152"/>
-      <c r="J234" s="152"/>
-      <c r="K234" s="152"/>
-      <c r="L234" s="152"/>
-      <c r="M234" s="152"/>
-      <c r="N234" s="152"/>
-      <c r="O234" s="152"/>
-      <c r="P234" s="152"/>
-      <c r="Q234" s="152"/>
-      <c r="R234" s="152"/>
-      <c r="S234" s="152"/>
-      <c r="T234" s="152"/>
-      <c r="U234" s="152"/>
-      <c r="V234" s="152"/>
-      <c r="W234" s="152"/>
-      <c r="X234" s="152"/>
-      <c r="Y234" s="152"/>
-      <c r="Z234" s="152"/>
-      <c r="AA234" s="152">
+      <c r="B234" s="155"/>
+      <c r="C234" s="155"/>
+      <c r="D234" s="155"/>
+      <c r="E234" s="155"/>
+      <c r="F234" s="155"/>
+      <c r="G234" s="155"/>
+      <c r="H234" s="155"/>
+      <c r="I234" s="155"/>
+      <c r="J234" s="155"/>
+      <c r="K234" s="155"/>
+      <c r="L234" s="155"/>
+      <c r="M234" s="155"/>
+      <c r="N234" s="155"/>
+      <c r="O234" s="155"/>
+      <c r="P234" s="155"/>
+      <c r="Q234" s="155"/>
+      <c r="R234" s="155"/>
+      <c r="S234" s="155"/>
+      <c r="T234" s="155"/>
+      <c r="U234" s="155"/>
+      <c r="V234" s="155"/>
+      <c r="W234" s="155"/>
+      <c r="X234" s="155"/>
+      <c r="Y234" s="155"/>
+      <c r="Z234" s="155"/>
+      <c r="AA234" s="155">
         <f t="shared" ref="AA234" si="10">B234*J234</f>
         <v>0</v>
       </c>
-      <c r="AB234" s="152"/>
-      <c r="AC234" s="152"/>
-      <c r="AD234" s="152"/>
-      <c r="AE234" s="152"/>
-      <c r="AF234" s="152"/>
-      <c r="AG234" s="152"/>
-      <c r="AH234" s="152"/>
-      <c r="AI234" s="152"/>
-      <c r="AJ234" s="152"/>
-      <c r="AK234" s="152"/>
+      <c r="AB234" s="155"/>
+      <c r="AC234" s="155"/>
+      <c r="AD234" s="155"/>
+      <c r="AE234" s="155"/>
+      <c r="AF234" s="155"/>
+      <c r="AG234" s="155"/>
+      <c r="AH234" s="155"/>
+      <c r="AI234" s="155"/>
+      <c r="AJ234" s="155"/>
+      <c r="AK234" s="155"/>
     </row>
     <row r="235" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="152"/>
-      <c r="C235" s="152"/>
-      <c r="D235" s="152"/>
-      <c r="E235" s="152"/>
-      <c r="F235" s="152"/>
-      <c r="G235" s="152"/>
-      <c r="H235" s="152"/>
-      <c r="I235" s="152"/>
-      <c r="J235" s="152"/>
-      <c r="K235" s="152"/>
-      <c r="L235" s="152"/>
-      <c r="M235" s="152"/>
-      <c r="N235" s="152"/>
-      <c r="O235" s="152"/>
-      <c r="P235" s="152"/>
-      <c r="Q235" s="152"/>
-      <c r="R235" s="152"/>
-      <c r="S235" s="152"/>
-      <c r="T235" s="152"/>
-      <c r="U235" s="152"/>
-      <c r="V235" s="152"/>
-      <c r="W235" s="152"/>
-      <c r="X235" s="152"/>
-      <c r="Y235" s="152"/>
-      <c r="Z235" s="152"/>
-      <c r="AA235" s="152"/>
-      <c r="AB235" s="152"/>
-      <c r="AC235" s="152"/>
-      <c r="AD235" s="152"/>
-      <c r="AE235" s="152"/>
-      <c r="AF235" s="152"/>
-      <c r="AG235" s="152"/>
-      <c r="AH235" s="152"/>
-      <c r="AI235" s="152"/>
-      <c r="AJ235" s="152"/>
-      <c r="AK235" s="152"/>
+      <c r="B235" s="155"/>
+      <c r="C235" s="155"/>
+      <c r="D235" s="155"/>
+      <c r="E235" s="155"/>
+      <c r="F235" s="155"/>
+      <c r="G235" s="155"/>
+      <c r="H235" s="155"/>
+      <c r="I235" s="155"/>
+      <c r="J235" s="155"/>
+      <c r="K235" s="155"/>
+      <c r="L235" s="155"/>
+      <c r="M235" s="155"/>
+      <c r="N235" s="155"/>
+      <c r="O235" s="155"/>
+      <c r="P235" s="155"/>
+      <c r="Q235" s="155"/>
+      <c r="R235" s="155"/>
+      <c r="S235" s="155"/>
+      <c r="T235" s="155"/>
+      <c r="U235" s="155"/>
+      <c r="V235" s="155"/>
+      <c r="W235" s="155"/>
+      <c r="X235" s="155"/>
+      <c r="Y235" s="155"/>
+      <c r="Z235" s="155"/>
+      <c r="AA235" s="155"/>
+      <c r="AB235" s="155"/>
+      <c r="AC235" s="155"/>
+      <c r="AD235" s="155"/>
+      <c r="AE235" s="155"/>
+      <c r="AF235" s="155"/>
+      <c r="AG235" s="155"/>
+      <c r="AH235" s="155"/>
+      <c r="AI235" s="155"/>
+      <c r="AJ235" s="155"/>
+      <c r="AK235" s="155"/>
     </row>
     <row r="236" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="152"/>
-      <c r="C236" s="152"/>
-      <c r="D236" s="152"/>
-      <c r="E236" s="152"/>
-      <c r="F236" s="152"/>
-      <c r="G236" s="152"/>
-      <c r="H236" s="152"/>
-      <c r="I236" s="152"/>
-      <c r="J236" s="152"/>
-      <c r="K236" s="152"/>
-      <c r="L236" s="152"/>
-      <c r="M236" s="152"/>
-      <c r="N236" s="152"/>
-      <c r="O236" s="152"/>
-      <c r="P236" s="152"/>
-      <c r="Q236" s="152"/>
-      <c r="R236" s="152"/>
-      <c r="S236" s="152"/>
-      <c r="T236" s="152"/>
-      <c r="U236" s="152"/>
-      <c r="V236" s="152"/>
-      <c r="W236" s="152"/>
-      <c r="X236" s="152"/>
-      <c r="Y236" s="152"/>
-      <c r="Z236" s="152"/>
-      <c r="AA236" s="152">
+      <c r="B236" s="155"/>
+      <c r="C236" s="155"/>
+      <c r="D236" s="155"/>
+      <c r="E236" s="155"/>
+      <c r="F236" s="155"/>
+      <c r="G236" s="155"/>
+      <c r="H236" s="155"/>
+      <c r="I236" s="155"/>
+      <c r="J236" s="155"/>
+      <c r="K236" s="155"/>
+      <c r="L236" s="155"/>
+      <c r="M236" s="155"/>
+      <c r="N236" s="155"/>
+      <c r="O236" s="155"/>
+      <c r="P236" s="155"/>
+      <c r="Q236" s="155"/>
+      <c r="R236" s="155"/>
+      <c r="S236" s="155"/>
+      <c r="T236" s="155"/>
+      <c r="U236" s="155"/>
+      <c r="V236" s="155"/>
+      <c r="W236" s="155"/>
+      <c r="X236" s="155"/>
+      <c r="Y236" s="155"/>
+      <c r="Z236" s="155"/>
+      <c r="AA236" s="155">
         <f t="shared" ref="AA236" si="11">B236*J236</f>
         <v>0</v>
       </c>
-      <c r="AB236" s="152"/>
-      <c r="AC236" s="152"/>
-      <c r="AD236" s="152"/>
-      <c r="AE236" s="152"/>
-      <c r="AF236" s="152"/>
-      <c r="AG236" s="152"/>
-      <c r="AH236" s="152"/>
-      <c r="AI236" s="152"/>
-      <c r="AJ236" s="152"/>
-      <c r="AK236" s="152"/>
+      <c r="AB236" s="155"/>
+      <c r="AC236" s="155"/>
+      <c r="AD236" s="155"/>
+      <c r="AE236" s="155"/>
+      <c r="AF236" s="155"/>
+      <c r="AG236" s="155"/>
+      <c r="AH236" s="155"/>
+      <c r="AI236" s="155"/>
+      <c r="AJ236" s="155"/>
+      <c r="AK236" s="155"/>
     </row>
     <row r="237" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="152"/>
-      <c r="C237" s="152"/>
-      <c r="D237" s="152"/>
-      <c r="E237" s="152"/>
-      <c r="F237" s="152"/>
-      <c r="G237" s="152"/>
-      <c r="H237" s="152"/>
-      <c r="I237" s="152"/>
-      <c r="J237" s="152"/>
-      <c r="K237" s="152"/>
-      <c r="L237" s="152"/>
-      <c r="M237" s="152"/>
-      <c r="N237" s="152"/>
-      <c r="O237" s="152"/>
-      <c r="P237" s="152"/>
-      <c r="Q237" s="152"/>
-      <c r="R237" s="152"/>
-      <c r="S237" s="152"/>
-      <c r="T237" s="152"/>
-      <c r="U237" s="152"/>
-      <c r="V237" s="152"/>
-      <c r="W237" s="152"/>
-      <c r="X237" s="152"/>
-      <c r="Y237" s="152"/>
-      <c r="Z237" s="152"/>
-      <c r="AA237" s="152"/>
-      <c r="AB237" s="152"/>
-      <c r="AC237" s="152"/>
-      <c r="AD237" s="152"/>
-      <c r="AE237" s="152"/>
-      <c r="AF237" s="152"/>
-      <c r="AG237" s="152"/>
-      <c r="AH237" s="152"/>
-      <c r="AI237" s="152"/>
-      <c r="AJ237" s="152"/>
-      <c r="AK237" s="152"/>
+      <c r="B237" s="155"/>
+      <c r="C237" s="155"/>
+      <c r="D237" s="155"/>
+      <c r="E237" s="155"/>
+      <c r="F237" s="155"/>
+      <c r="G237" s="155"/>
+      <c r="H237" s="155"/>
+      <c r="I237" s="155"/>
+      <c r="J237" s="155"/>
+      <c r="K237" s="155"/>
+      <c r="L237" s="155"/>
+      <c r="M237" s="155"/>
+      <c r="N237" s="155"/>
+      <c r="O237" s="155"/>
+      <c r="P237" s="155"/>
+      <c r="Q237" s="155"/>
+      <c r="R237" s="155"/>
+      <c r="S237" s="155"/>
+      <c r="T237" s="155"/>
+      <c r="U237" s="155"/>
+      <c r="V237" s="155"/>
+      <c r="W237" s="155"/>
+      <c r="X237" s="155"/>
+      <c r="Y237" s="155"/>
+      <c r="Z237" s="155"/>
+      <c r="AA237" s="155"/>
+      <c r="AB237" s="155"/>
+      <c r="AC237" s="155"/>
+      <c r="AD237" s="155"/>
+      <c r="AE237" s="155"/>
+      <c r="AF237" s="155"/>
+      <c r="AG237" s="155"/>
+      <c r="AH237" s="155"/>
+      <c r="AI237" s="155"/>
+      <c r="AJ237" s="155"/>
+      <c r="AK237" s="155"/>
     </row>
     <row r="238" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="152"/>
-      <c r="C238" s="152"/>
-      <c r="D238" s="152"/>
-      <c r="E238" s="152"/>
-      <c r="F238" s="152"/>
-      <c r="G238" s="152"/>
-      <c r="H238" s="152"/>
-      <c r="I238" s="152"/>
-      <c r="J238" s="152"/>
-      <c r="K238" s="152"/>
-      <c r="L238" s="152"/>
-      <c r="M238" s="152"/>
-      <c r="N238" s="152"/>
-      <c r="O238" s="152"/>
-      <c r="P238" s="152"/>
-      <c r="Q238" s="152"/>
-      <c r="R238" s="152"/>
-      <c r="S238" s="152"/>
-      <c r="T238" s="152"/>
-      <c r="U238" s="152"/>
-      <c r="V238" s="152"/>
-      <c r="W238" s="152"/>
-      <c r="X238" s="152"/>
-      <c r="Y238" s="152"/>
-      <c r="Z238" s="152"/>
-      <c r="AA238" s="152">
+      <c r="B238" s="155"/>
+      <c r="C238" s="155"/>
+      <c r="D238" s="155"/>
+      <c r="E238" s="155"/>
+      <c r="F238" s="155"/>
+      <c r="G238" s="155"/>
+      <c r="H238" s="155"/>
+      <c r="I238" s="155"/>
+      <c r="J238" s="155"/>
+      <c r="K238" s="155"/>
+      <c r="L238" s="155"/>
+      <c r="M238" s="155"/>
+      <c r="N238" s="155"/>
+      <c r="O238" s="155"/>
+      <c r="P238" s="155"/>
+      <c r="Q238" s="155"/>
+      <c r="R238" s="155"/>
+      <c r="S238" s="155"/>
+      <c r="T238" s="155"/>
+      <c r="U238" s="155"/>
+      <c r="V238" s="155"/>
+      <c r="W238" s="155"/>
+      <c r="X238" s="155"/>
+      <c r="Y238" s="155"/>
+      <c r="Z238" s="155"/>
+      <c r="AA238" s="155">
         <f t="shared" ref="AA238" si="12">B238*J238</f>
         <v>0</v>
       </c>
-      <c r="AB238" s="152"/>
-      <c r="AC238" s="152"/>
-      <c r="AD238" s="152"/>
-      <c r="AE238" s="152"/>
-      <c r="AF238" s="152"/>
-      <c r="AG238" s="152"/>
-      <c r="AH238" s="152"/>
-      <c r="AI238" s="152"/>
-      <c r="AJ238" s="152"/>
-      <c r="AK238" s="152"/>
+      <c r="AB238" s="155"/>
+      <c r="AC238" s="155"/>
+      <c r="AD238" s="155"/>
+      <c r="AE238" s="155"/>
+      <c r="AF238" s="155"/>
+      <c r="AG238" s="155"/>
+      <c r="AH238" s="155"/>
+      <c r="AI238" s="155"/>
+      <c r="AJ238" s="155"/>
+      <c r="AK238" s="155"/>
     </row>
     <row r="239" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="152"/>
-      <c r="C239" s="152"/>
-      <c r="D239" s="152"/>
-      <c r="E239" s="152"/>
-      <c r="F239" s="152"/>
-      <c r="G239" s="152"/>
-      <c r="H239" s="152"/>
-      <c r="I239" s="152"/>
-      <c r="J239" s="152"/>
-      <c r="K239" s="152"/>
-      <c r="L239" s="152"/>
-      <c r="M239" s="152"/>
-      <c r="N239" s="152"/>
-      <c r="O239" s="152"/>
-      <c r="P239" s="152"/>
-      <c r="Q239" s="152"/>
-      <c r="R239" s="152"/>
-      <c r="S239" s="152"/>
-      <c r="T239" s="152"/>
-      <c r="U239" s="152"/>
-      <c r="V239" s="152"/>
-      <c r="W239" s="152"/>
-      <c r="X239" s="152"/>
-      <c r="Y239" s="152"/>
-      <c r="Z239" s="152"/>
-      <c r="AA239" s="152"/>
-      <c r="AB239" s="152"/>
-      <c r="AC239" s="152"/>
-      <c r="AD239" s="152"/>
-      <c r="AE239" s="152"/>
-      <c r="AF239" s="152"/>
-      <c r="AG239" s="152"/>
-      <c r="AH239" s="152"/>
-      <c r="AI239" s="152"/>
-      <c r="AJ239" s="152"/>
-      <c r="AK239" s="152"/>
+      <c r="B239" s="155"/>
+      <c r="C239" s="155"/>
+      <c r="D239" s="155"/>
+      <c r="E239" s="155"/>
+      <c r="F239" s="155"/>
+      <c r="G239" s="155"/>
+      <c r="H239" s="155"/>
+      <c r="I239" s="155"/>
+      <c r="J239" s="155"/>
+      <c r="K239" s="155"/>
+      <c r="L239" s="155"/>
+      <c r="M239" s="155"/>
+      <c r="N239" s="155"/>
+      <c r="O239" s="155"/>
+      <c r="P239" s="155"/>
+      <c r="Q239" s="155"/>
+      <c r="R239" s="155"/>
+      <c r="S239" s="155"/>
+      <c r="T239" s="155"/>
+      <c r="U239" s="155"/>
+      <c r="V239" s="155"/>
+      <c r="W239" s="155"/>
+      <c r="X239" s="155"/>
+      <c r="Y239" s="155"/>
+      <c r="Z239" s="155"/>
+      <c r="AA239" s="155"/>
+      <c r="AB239" s="155"/>
+      <c r="AC239" s="155"/>
+      <c r="AD239" s="155"/>
+      <c r="AE239" s="155"/>
+      <c r="AF239" s="155"/>
+      <c r="AG239" s="155"/>
+      <c r="AH239" s="155"/>
+      <c r="AI239" s="155"/>
+      <c r="AJ239" s="155"/>
+      <c r="AK239" s="155"/>
     </row>
     <row r="240" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="152"/>
-      <c r="C240" s="152"/>
-      <c r="D240" s="152"/>
-      <c r="E240" s="152"/>
-      <c r="F240" s="152"/>
-      <c r="G240" s="152"/>
-      <c r="H240" s="152"/>
-      <c r="I240" s="152"/>
-      <c r="J240" s="152"/>
-      <c r="K240" s="152"/>
-      <c r="L240" s="152"/>
-      <c r="M240" s="152"/>
-      <c r="N240" s="152"/>
-      <c r="O240" s="152"/>
-      <c r="P240" s="152"/>
-      <c r="Q240" s="152"/>
-      <c r="R240" s="152"/>
-      <c r="S240" s="152"/>
-      <c r="T240" s="152"/>
-      <c r="U240" s="152"/>
-      <c r="V240" s="152"/>
-      <c r="W240" s="152"/>
-      <c r="X240" s="152"/>
-      <c r="Y240" s="152"/>
-      <c r="Z240" s="152"/>
-      <c r="AA240" s="152">
+      <c r="B240" s="155"/>
+      <c r="C240" s="155"/>
+      <c r="D240" s="155"/>
+      <c r="E240" s="155"/>
+      <c r="F240" s="155"/>
+      <c r="G240" s="155"/>
+      <c r="H240" s="155"/>
+      <c r="I240" s="155"/>
+      <c r="J240" s="155"/>
+      <c r="K240" s="155"/>
+      <c r="L240" s="155"/>
+      <c r="M240" s="155"/>
+      <c r="N240" s="155"/>
+      <c r="O240" s="155"/>
+      <c r="P240" s="155"/>
+      <c r="Q240" s="155"/>
+      <c r="R240" s="155"/>
+      <c r="S240" s="155"/>
+      <c r="T240" s="155"/>
+      <c r="U240" s="155"/>
+      <c r="V240" s="155"/>
+      <c r="W240" s="155"/>
+      <c r="X240" s="155"/>
+      <c r="Y240" s="155"/>
+      <c r="Z240" s="155"/>
+      <c r="AA240" s="155">
         <f t="shared" ref="AA240" si="13">B240*J240</f>
         <v>0</v>
       </c>
-      <c r="AB240" s="152"/>
-      <c r="AC240" s="152"/>
-      <c r="AD240" s="152"/>
-      <c r="AE240" s="152"/>
-      <c r="AF240" s="152"/>
-      <c r="AG240" s="152"/>
-      <c r="AH240" s="152"/>
-      <c r="AI240" s="152"/>
-      <c r="AJ240" s="152"/>
-      <c r="AK240" s="152"/>
+      <c r="AB240" s="155"/>
+      <c r="AC240" s="155"/>
+      <c r="AD240" s="155"/>
+      <c r="AE240" s="155"/>
+      <c r="AF240" s="155"/>
+      <c r="AG240" s="155"/>
+      <c r="AH240" s="155"/>
+      <c r="AI240" s="155"/>
+      <c r="AJ240" s="155"/>
+      <c r="AK240" s="155"/>
     </row>
     <row r="241" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="152"/>
-      <c r="C241" s="152"/>
-      <c r="D241" s="152"/>
-      <c r="E241" s="152"/>
-      <c r="F241" s="152"/>
-      <c r="G241" s="152"/>
-      <c r="H241" s="152"/>
-      <c r="I241" s="152"/>
-      <c r="J241" s="152"/>
-      <c r="K241" s="152"/>
-      <c r="L241" s="152"/>
-      <c r="M241" s="152"/>
-      <c r="N241" s="152"/>
-      <c r="O241" s="152"/>
-      <c r="P241" s="152"/>
-      <c r="Q241" s="152"/>
-      <c r="R241" s="152"/>
-      <c r="S241" s="152"/>
-      <c r="T241" s="152"/>
-      <c r="U241" s="152"/>
-      <c r="V241" s="152"/>
-      <c r="W241" s="152"/>
-      <c r="X241" s="152"/>
-      <c r="Y241" s="152"/>
-      <c r="Z241" s="152"/>
-      <c r="AA241" s="152"/>
-      <c r="AB241" s="152"/>
-      <c r="AC241" s="152"/>
-      <c r="AD241" s="152"/>
-      <c r="AE241" s="152"/>
-      <c r="AF241" s="152"/>
-      <c r="AG241" s="152"/>
-      <c r="AH241" s="152"/>
-      <c r="AI241" s="152"/>
-      <c r="AJ241" s="152"/>
-      <c r="AK241" s="152"/>
+      <c r="B241" s="155"/>
+      <c r="C241" s="155"/>
+      <c r="D241" s="155"/>
+      <c r="E241" s="155"/>
+      <c r="F241" s="155"/>
+      <c r="G241" s="155"/>
+      <c r="H241" s="155"/>
+      <c r="I241" s="155"/>
+      <c r="J241" s="155"/>
+      <c r="K241" s="155"/>
+      <c r="L241" s="155"/>
+      <c r="M241" s="155"/>
+      <c r="N241" s="155"/>
+      <c r="O241" s="155"/>
+      <c r="P241" s="155"/>
+      <c r="Q241" s="155"/>
+      <c r="R241" s="155"/>
+      <c r="S241" s="155"/>
+      <c r="T241" s="155"/>
+      <c r="U241" s="155"/>
+      <c r="V241" s="155"/>
+      <c r="W241" s="155"/>
+      <c r="X241" s="155"/>
+      <c r="Y241" s="155"/>
+      <c r="Z241" s="155"/>
+      <c r="AA241" s="155"/>
+      <c r="AB241" s="155"/>
+      <c r="AC241" s="155"/>
+      <c r="AD241" s="155"/>
+      <c r="AE241" s="155"/>
+      <c r="AF241" s="155"/>
+      <c r="AG241" s="155"/>
+      <c r="AH241" s="155"/>
+      <c r="AI241" s="155"/>
+      <c r="AJ241" s="155"/>
+      <c r="AK241" s="155"/>
     </row>
     <row r="242" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="152"/>
-      <c r="C242" s="152"/>
-      <c r="D242" s="152"/>
-      <c r="E242" s="152"/>
-      <c r="F242" s="152"/>
-      <c r="G242" s="152"/>
-      <c r="H242" s="152"/>
-      <c r="I242" s="152"/>
-      <c r="J242" s="152"/>
-      <c r="K242" s="152"/>
-      <c r="L242" s="152"/>
-      <c r="M242" s="152"/>
-      <c r="N242" s="152"/>
-      <c r="O242" s="152"/>
-      <c r="P242" s="152"/>
-      <c r="Q242" s="152"/>
-      <c r="R242" s="152"/>
-      <c r="S242" s="152"/>
-      <c r="T242" s="152"/>
-      <c r="U242" s="152"/>
-      <c r="V242" s="152"/>
-      <c r="W242" s="152"/>
-      <c r="X242" s="152"/>
-      <c r="Y242" s="152"/>
-      <c r="Z242" s="152"/>
-      <c r="AA242" s="152">
+      <c r="B242" s="155"/>
+      <c r="C242" s="155"/>
+      <c r="D242" s="155"/>
+      <c r="E242" s="155"/>
+      <c r="F242" s="155"/>
+      <c r="G242" s="155"/>
+      <c r="H242" s="155"/>
+      <c r="I242" s="155"/>
+      <c r="J242" s="155"/>
+      <c r="K242" s="155"/>
+      <c r="L242" s="155"/>
+      <c r="M242" s="155"/>
+      <c r="N242" s="155"/>
+      <c r="O242" s="155"/>
+      <c r="P242" s="155"/>
+      <c r="Q242" s="155"/>
+      <c r="R242" s="155"/>
+      <c r="S242" s="155"/>
+      <c r="T242" s="155"/>
+      <c r="U242" s="155"/>
+      <c r="V242" s="155"/>
+      <c r="W242" s="155"/>
+      <c r="X242" s="155"/>
+      <c r="Y242" s="155"/>
+      <c r="Z242" s="155"/>
+      <c r="AA242" s="155">
         <f t="shared" ref="AA242" si="14">B242*J242</f>
         <v>0</v>
       </c>
-      <c r="AB242" s="152"/>
-      <c r="AC242" s="152"/>
-      <c r="AD242" s="152"/>
-      <c r="AE242" s="152"/>
-      <c r="AF242" s="152"/>
-      <c r="AG242" s="152"/>
-      <c r="AH242" s="152"/>
-      <c r="AI242" s="152"/>
-      <c r="AJ242" s="152"/>
-      <c r="AK242" s="152"/>
+      <c r="AB242" s="155"/>
+      <c r="AC242" s="155"/>
+      <c r="AD242" s="155"/>
+      <c r="AE242" s="155"/>
+      <c r="AF242" s="155"/>
+      <c r="AG242" s="155"/>
+      <c r="AH242" s="155"/>
+      <c r="AI242" s="155"/>
+      <c r="AJ242" s="155"/>
+      <c r="AK242" s="155"/>
     </row>
     <row r="243" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="152"/>
-      <c r="C243" s="152"/>
-      <c r="D243" s="152"/>
-      <c r="E243" s="152"/>
-      <c r="F243" s="152"/>
-      <c r="G243" s="152"/>
-      <c r="H243" s="152"/>
-      <c r="I243" s="152"/>
-      <c r="J243" s="152"/>
-      <c r="K243" s="152"/>
-      <c r="L243" s="152"/>
-      <c r="M243" s="152"/>
-      <c r="N243" s="152"/>
-      <c r="O243" s="152"/>
-      <c r="P243" s="152"/>
-      <c r="Q243" s="152"/>
-      <c r="R243" s="152"/>
-      <c r="S243" s="152"/>
-      <c r="T243" s="152"/>
-      <c r="U243" s="152"/>
-      <c r="V243" s="152"/>
-      <c r="W243" s="152"/>
-      <c r="X243" s="152"/>
-      <c r="Y243" s="152"/>
-      <c r="Z243" s="152"/>
-      <c r="AA243" s="152"/>
-      <c r="AB243" s="152"/>
-      <c r="AC243" s="152"/>
-      <c r="AD243" s="152"/>
-      <c r="AE243" s="152"/>
-      <c r="AF243" s="152"/>
-      <c r="AG243" s="152"/>
-      <c r="AH243" s="152"/>
-      <c r="AI243" s="152"/>
-      <c r="AJ243" s="152"/>
-      <c r="AK243" s="152"/>
+      <c r="B243" s="155"/>
+      <c r="C243" s="155"/>
+      <c r="D243" s="155"/>
+      <c r="E243" s="155"/>
+      <c r="F243" s="155"/>
+      <c r="G243" s="155"/>
+      <c r="H243" s="155"/>
+      <c r="I243" s="155"/>
+      <c r="J243" s="155"/>
+      <c r="K243" s="155"/>
+      <c r="L243" s="155"/>
+      <c r="M243" s="155"/>
+      <c r="N243" s="155"/>
+      <c r="O243" s="155"/>
+      <c r="P243" s="155"/>
+      <c r="Q243" s="155"/>
+      <c r="R243" s="155"/>
+      <c r="S243" s="155"/>
+      <c r="T243" s="155"/>
+      <c r="U243" s="155"/>
+      <c r="V243" s="155"/>
+      <c r="W243" s="155"/>
+      <c r="X243" s="155"/>
+      <c r="Y243" s="155"/>
+      <c r="Z243" s="155"/>
+      <c r="AA243" s="155"/>
+      <c r="AB243" s="155"/>
+      <c r="AC243" s="155"/>
+      <c r="AD243" s="155"/>
+      <c r="AE243" s="155"/>
+      <c r="AF243" s="155"/>
+      <c r="AG243" s="155"/>
+      <c r="AH243" s="155"/>
+      <c r="AI243" s="155"/>
+      <c r="AJ243" s="155"/>
+      <c r="AK243" s="155"/>
     </row>
     <row r="244" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="152"/>
-      <c r="C244" s="152"/>
-      <c r="D244" s="152"/>
-      <c r="E244" s="152"/>
-      <c r="F244" s="152"/>
-      <c r="G244" s="152"/>
-      <c r="H244" s="152"/>
-      <c r="I244" s="152"/>
-      <c r="J244" s="152"/>
-      <c r="K244" s="152"/>
-      <c r="L244" s="152"/>
-      <c r="M244" s="152"/>
-      <c r="N244" s="152"/>
-      <c r="O244" s="152"/>
-      <c r="P244" s="152"/>
-      <c r="Q244" s="152"/>
-      <c r="R244" s="152"/>
-      <c r="S244" s="152"/>
-      <c r="T244" s="152"/>
-      <c r="U244" s="152"/>
-      <c r="V244" s="152"/>
-      <c r="W244" s="152"/>
-      <c r="X244" s="152"/>
-      <c r="Y244" s="152"/>
-      <c r="Z244" s="152"/>
-      <c r="AA244" s="152">
+      <c r="B244" s="155"/>
+      <c r="C244" s="155"/>
+      <c r="D244" s="155"/>
+      <c r="E244" s="155"/>
+      <c r="F244" s="155"/>
+      <c r="G244" s="155"/>
+      <c r="H244" s="155"/>
+      <c r="I244" s="155"/>
+      <c r="J244" s="155"/>
+      <c r="K244" s="155"/>
+      <c r="L244" s="155"/>
+      <c r="M244" s="155"/>
+      <c r="N244" s="155"/>
+      <c r="O244" s="155"/>
+      <c r="P244" s="155"/>
+      <c r="Q244" s="155"/>
+      <c r="R244" s="155"/>
+      <c r="S244" s="155"/>
+      <c r="T244" s="155"/>
+      <c r="U244" s="155"/>
+      <c r="V244" s="155"/>
+      <c r="W244" s="155"/>
+      <c r="X244" s="155"/>
+      <c r="Y244" s="155"/>
+      <c r="Z244" s="155"/>
+      <c r="AA244" s="155">
         <f t="shared" ref="AA244" si="15">B244*J244</f>
         <v>0</v>
       </c>
-      <c r="AB244" s="152"/>
-      <c r="AC244" s="152"/>
-      <c r="AD244" s="152"/>
-      <c r="AE244" s="152"/>
-      <c r="AF244" s="152"/>
-      <c r="AG244" s="152"/>
-      <c r="AH244" s="152"/>
-      <c r="AI244" s="152"/>
-      <c r="AJ244" s="152"/>
-      <c r="AK244" s="152"/>
+      <c r="AB244" s="155"/>
+      <c r="AC244" s="155"/>
+      <c r="AD244" s="155"/>
+      <c r="AE244" s="155"/>
+      <c r="AF244" s="155"/>
+      <c r="AG244" s="155"/>
+      <c r="AH244" s="155"/>
+      <c r="AI244" s="155"/>
+      <c r="AJ244" s="155"/>
+      <c r="AK244" s="155"/>
     </row>
     <row r="245" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="152"/>
-      <c r="C245" s="152"/>
-      <c r="D245" s="152"/>
-      <c r="E245" s="152"/>
-      <c r="F245" s="152"/>
-      <c r="G245" s="152"/>
-      <c r="H245" s="152"/>
-      <c r="I245" s="152"/>
-      <c r="J245" s="152"/>
-      <c r="K245" s="152"/>
-      <c r="L245" s="152"/>
-      <c r="M245" s="152"/>
-      <c r="N245" s="152"/>
-      <c r="O245" s="152"/>
-      <c r="P245" s="152"/>
-      <c r="Q245" s="152"/>
-      <c r="R245" s="152"/>
-      <c r="S245" s="152"/>
-      <c r="T245" s="152"/>
-      <c r="U245" s="152"/>
-      <c r="V245" s="152"/>
-      <c r="W245" s="152"/>
-      <c r="X245" s="152"/>
-      <c r="Y245" s="152"/>
-      <c r="Z245" s="152"/>
-      <c r="AA245" s="152"/>
-      <c r="AB245" s="152"/>
-      <c r="AC245" s="152"/>
-      <c r="AD245" s="152"/>
-      <c r="AE245" s="152"/>
-      <c r="AF245" s="152"/>
-      <c r="AG245" s="152"/>
-      <c r="AH245" s="152"/>
-      <c r="AI245" s="152"/>
-      <c r="AJ245" s="152"/>
-      <c r="AK245" s="152"/>
+      <c r="B245" s="155"/>
+      <c r="C245" s="155"/>
+      <c r="D245" s="155"/>
+      <c r="E245" s="155"/>
+      <c r="F245" s="155"/>
+      <c r="G245" s="155"/>
+      <c r="H245" s="155"/>
+      <c r="I245" s="155"/>
+      <c r="J245" s="155"/>
+      <c r="K245" s="155"/>
+      <c r="L245" s="155"/>
+      <c r="M245" s="155"/>
+      <c r="N245" s="155"/>
+      <c r="O245" s="155"/>
+      <c r="P245" s="155"/>
+      <c r="Q245" s="155"/>
+      <c r="R245" s="155"/>
+      <c r="S245" s="155"/>
+      <c r="T245" s="155"/>
+      <c r="U245" s="155"/>
+      <c r="V245" s="155"/>
+      <c r="W245" s="155"/>
+      <c r="X245" s="155"/>
+      <c r="Y245" s="155"/>
+      <c r="Z245" s="155"/>
+      <c r="AA245" s="155"/>
+      <c r="AB245" s="155"/>
+      <c r="AC245" s="155"/>
+      <c r="AD245" s="155"/>
+      <c r="AE245" s="155"/>
+      <c r="AF245" s="155"/>
+      <c r="AG245" s="155"/>
+      <c r="AH245" s="155"/>
+      <c r="AI245" s="155"/>
+      <c r="AJ245" s="155"/>
+      <c r="AK245" s="155"/>
     </row>
     <row r="246" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z246" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="AD246" s="156">
+      <c r="AD246" s="159">
         <f>SUM(AA210:AK245)</f>
         <v>0</v>
       </c>
-      <c r="AE246" s="156"/>
-      <c r="AF246" s="156"/>
-      <c r="AG246" s="156"/>
-      <c r="AH246" s="156"/>
+      <c r="AE246" s="159"/>
+      <c r="AF246" s="159"/>
+      <c r="AG246" s="159"/>
+      <c r="AH246" s="159"/>
     </row>
     <row r="250" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="153" t="s">
+      <c r="B250" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C250" s="153"/>
-      <c r="D250" s="153"/>
-      <c r="E250" s="153"/>
-      <c r="F250" s="153"/>
-      <c r="G250" s="153"/>
-      <c r="H250" s="153"/>
-      <c r="I250" s="153"/>
-      <c r="J250" s="153"/>
-      <c r="K250" s="153"/>
-      <c r="L250" s="153"/>
-      <c r="M250" s="153"/>
-      <c r="N250" s="153"/>
-      <c r="O250" s="153"/>
-      <c r="P250" s="153"/>
-      <c r="Q250" s="153"/>
-      <c r="R250" s="153"/>
-      <c r="S250" s="153"/>
-      <c r="T250" s="153"/>
-      <c r="U250" s="153"/>
-      <c r="V250" s="153"/>
-      <c r="W250" s="153"/>
-      <c r="X250" s="153"/>
-      <c r="Y250" s="153"/>
-      <c r="Z250" s="153"/>
-      <c r="AA250" s="153"/>
-      <c r="AB250" s="153"/>
-      <c r="AC250" s="153"/>
-      <c r="AD250" s="153"/>
-      <c r="AE250" s="153"/>
-      <c r="AF250" s="153"/>
-      <c r="AG250" s="153"/>
-      <c r="AH250" s="153"/>
-      <c r="AI250" s="153"/>
-      <c r="AJ250" s="153"/>
-      <c r="AK250" s="153"/>
+      <c r="C250" s="156"/>
+      <c r="D250" s="156"/>
+      <c r="E250" s="156"/>
+      <c r="F250" s="156"/>
+      <c r="G250" s="156"/>
+      <c r="H250" s="156"/>
+      <c r="I250" s="156"/>
+      <c r="J250" s="156"/>
+      <c r="K250" s="156"/>
+      <c r="L250" s="156"/>
+      <c r="M250" s="156"/>
+      <c r="N250" s="156"/>
+      <c r="O250" s="156"/>
+      <c r="P250" s="156"/>
+      <c r="Q250" s="156"/>
+      <c r="R250" s="156"/>
+      <c r="S250" s="156"/>
+      <c r="T250" s="156"/>
+      <c r="U250" s="156"/>
+      <c r="V250" s="156"/>
+      <c r="W250" s="156"/>
+      <c r="X250" s="156"/>
+      <c r="Y250" s="156"/>
+      <c r="Z250" s="156"/>
+      <c r="AA250" s="156"/>
+      <c r="AB250" s="156"/>
+      <c r="AC250" s="156"/>
+      <c r="AD250" s="156"/>
+      <c r="AE250" s="156"/>
+      <c r="AF250" s="156"/>
+      <c r="AG250" s="156"/>
+      <c r="AH250" s="156"/>
+      <c r="AI250" s="156"/>
+      <c r="AJ250" s="156"/>
+      <c r="AK250" s="156"/>
     </row>
     <row r="251" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="71" t="s">
@@ -10838,1575 +10845,1575 @@
       <c r="B253" s="101">
         <v>1</v>
       </c>
-      <c r="C253" s="154"/>
-      <c r="D253" s="154"/>
-      <c r="E253" s="154"/>
-      <c r="F253" s="154"/>
-      <c r="G253" s="154"/>
-      <c r="H253" s="154"/>
-      <c r="I253" s="155"/>
+      <c r="C253" s="157"/>
+      <c r="D253" s="157"/>
+      <c r="E253" s="157"/>
+      <c r="F253" s="157"/>
+      <c r="G253" s="157"/>
+      <c r="H253" s="157"/>
+      <c r="I253" s="158"/>
       <c r="J253" s="101">
         <v>2</v>
       </c>
-      <c r="K253" s="154"/>
-      <c r="L253" s="154"/>
-      <c r="M253" s="154"/>
-      <c r="N253" s="154"/>
-      <c r="O253" s="154"/>
-      <c r="P253" s="154"/>
-      <c r="Q253" s="154"/>
-      <c r="R253" s="154"/>
-      <c r="S253" s="154"/>
-      <c r="T253" s="154"/>
-      <c r="U253" s="154"/>
-      <c r="V253" s="154"/>
-      <c r="W253" s="154"/>
-      <c r="X253" s="154"/>
-      <c r="Y253" s="154"/>
-      <c r="Z253" s="155"/>
+      <c r="K253" s="157"/>
+      <c r="L253" s="157"/>
+      <c r="M253" s="157"/>
+      <c r="N253" s="157"/>
+      <c r="O253" s="157"/>
+      <c r="P253" s="157"/>
+      <c r="Q253" s="157"/>
+      <c r="R253" s="157"/>
+      <c r="S253" s="157"/>
+      <c r="T253" s="157"/>
+      <c r="U253" s="157"/>
+      <c r="V253" s="157"/>
+      <c r="W253" s="157"/>
+      <c r="X253" s="157"/>
+      <c r="Y253" s="157"/>
+      <c r="Z253" s="158"/>
       <c r="AA253" s="101">
         <v>3</v>
       </c>
-      <c r="AB253" s="154"/>
-      <c r="AC253" s="154"/>
-      <c r="AD253" s="154"/>
-      <c r="AE253" s="154"/>
-      <c r="AF253" s="154"/>
-      <c r="AG253" s="154"/>
-      <c r="AH253" s="154"/>
-      <c r="AI253" s="154"/>
-      <c r="AJ253" s="154"/>
-      <c r="AK253" s="155"/>
+      <c r="AB253" s="157"/>
+      <c r="AC253" s="157"/>
+      <c r="AD253" s="157"/>
+      <c r="AE253" s="157"/>
+      <c r="AF253" s="157"/>
+      <c r="AG253" s="157"/>
+      <c r="AH253" s="157"/>
+      <c r="AI253" s="157"/>
+      <c r="AJ253" s="157"/>
+      <c r="AK253" s="158"/>
     </row>
     <row r="254" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="152">
+      <c r="B254" s="155">
         <f>B210</f>
         <v>0</v>
       </c>
-      <c r="C254" s="152"/>
-      <c r="D254" s="152"/>
-      <c r="E254" s="152"/>
-      <c r="F254" s="152"/>
-      <c r="G254" s="152"/>
-      <c r="H254" s="152"/>
-      <c r="I254" s="152"/>
-      <c r="J254" s="152">
+      <c r="C254" s="155"/>
+      <c r="D254" s="155"/>
+      <c r="E254" s="155"/>
+      <c r="F254" s="155"/>
+      <c r="G254" s="155"/>
+      <c r="H254" s="155"/>
+      <c r="I254" s="155"/>
+      <c r="J254" s="155">
         <f>J210</f>
         <v>0</v>
       </c>
-      <c r="K254" s="152"/>
-      <c r="L254" s="152"/>
-      <c r="M254" s="152"/>
-      <c r="N254" s="152"/>
-      <c r="O254" s="152"/>
-      <c r="P254" s="152"/>
-      <c r="Q254" s="152"/>
-      <c r="R254" s="152"/>
-      <c r="S254" s="152"/>
-      <c r="T254" s="152"/>
-      <c r="U254" s="152"/>
-      <c r="V254" s="152"/>
-      <c r="W254" s="152"/>
-      <c r="X254" s="152"/>
-      <c r="Y254" s="152"/>
-      <c r="Z254" s="152"/>
-      <c r="AA254" s="152">
+      <c r="K254" s="155"/>
+      <c r="L254" s="155"/>
+      <c r="M254" s="155"/>
+      <c r="N254" s="155"/>
+      <c r="O254" s="155"/>
+      <c r="P254" s="155"/>
+      <c r="Q254" s="155"/>
+      <c r="R254" s="155"/>
+      <c r="S254" s="155"/>
+      <c r="T254" s="155"/>
+      <c r="U254" s="155"/>
+      <c r="V254" s="155"/>
+      <c r="W254" s="155"/>
+      <c r="X254" s="155"/>
+      <c r="Y254" s="155"/>
+      <c r="Z254" s="155"/>
+      <c r="AA254" s="155">
         <f>AA210</f>
         <v>0</v>
       </c>
-      <c r="AB254" s="152"/>
-      <c r="AC254" s="152"/>
-      <c r="AD254" s="152"/>
-      <c r="AE254" s="152"/>
-      <c r="AF254" s="152"/>
-      <c r="AG254" s="152"/>
-      <c r="AH254" s="152"/>
-      <c r="AI254" s="152"/>
-      <c r="AJ254" s="152"/>
-      <c r="AK254" s="152"/>
+      <c r="AB254" s="155"/>
+      <c r="AC254" s="155"/>
+      <c r="AD254" s="155"/>
+      <c r="AE254" s="155"/>
+      <c r="AF254" s="155"/>
+      <c r="AG254" s="155"/>
+      <c r="AH254" s="155"/>
+      <c r="AI254" s="155"/>
+      <c r="AJ254" s="155"/>
+      <c r="AK254" s="155"/>
     </row>
     <row r="255" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="152"/>
-      <c r="C255" s="152"/>
-      <c r="D255" s="152"/>
-      <c r="E255" s="152"/>
-      <c r="F255" s="152"/>
-      <c r="G255" s="152"/>
-      <c r="H255" s="152"/>
-      <c r="I255" s="152"/>
-      <c r="J255" s="152"/>
-      <c r="K255" s="152"/>
-      <c r="L255" s="152"/>
-      <c r="M255" s="152"/>
-      <c r="N255" s="152"/>
-      <c r="O255" s="152"/>
-      <c r="P255" s="152"/>
-      <c r="Q255" s="152"/>
-      <c r="R255" s="152"/>
-      <c r="S255" s="152"/>
-      <c r="T255" s="152"/>
-      <c r="U255" s="152"/>
-      <c r="V255" s="152"/>
-      <c r="W255" s="152"/>
-      <c r="X255" s="152"/>
-      <c r="Y255" s="152"/>
-      <c r="Z255" s="152"/>
-      <c r="AA255" s="152"/>
-      <c r="AB255" s="152"/>
-      <c r="AC255" s="152"/>
-      <c r="AD255" s="152"/>
-      <c r="AE255" s="152"/>
-      <c r="AF255" s="152"/>
-      <c r="AG255" s="152"/>
-      <c r="AH255" s="152"/>
-      <c r="AI255" s="152"/>
-      <c r="AJ255" s="152"/>
-      <c r="AK255" s="152"/>
+      <c r="B255" s="155"/>
+      <c r="C255" s="155"/>
+      <c r="D255" s="155"/>
+      <c r="E255" s="155"/>
+      <c r="F255" s="155"/>
+      <c r="G255" s="155"/>
+      <c r="H255" s="155"/>
+      <c r="I255" s="155"/>
+      <c r="J255" s="155"/>
+      <c r="K255" s="155"/>
+      <c r="L255" s="155"/>
+      <c r="M255" s="155"/>
+      <c r="N255" s="155"/>
+      <c r="O255" s="155"/>
+      <c r="P255" s="155"/>
+      <c r="Q255" s="155"/>
+      <c r="R255" s="155"/>
+      <c r="S255" s="155"/>
+      <c r="T255" s="155"/>
+      <c r="U255" s="155"/>
+      <c r="V255" s="155"/>
+      <c r="W255" s="155"/>
+      <c r="X255" s="155"/>
+      <c r="Y255" s="155"/>
+      <c r="Z255" s="155"/>
+      <c r="AA255" s="155"/>
+      <c r="AB255" s="155"/>
+      <c r="AC255" s="155"/>
+      <c r="AD255" s="155"/>
+      <c r="AE255" s="155"/>
+      <c r="AF255" s="155"/>
+      <c r="AG255" s="155"/>
+      <c r="AH255" s="155"/>
+      <c r="AI255" s="155"/>
+      <c r="AJ255" s="155"/>
+      <c r="AK255" s="155"/>
     </row>
     <row r="256" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="152">
+      <c r="B256" s="155">
         <f t="shared" ref="B256" si="16">B212</f>
         <v>0</v>
       </c>
-      <c r="C256" s="152"/>
-      <c r="D256" s="152"/>
-      <c r="E256" s="152"/>
-      <c r="F256" s="152"/>
-      <c r="G256" s="152"/>
-      <c r="H256" s="152"/>
-      <c r="I256" s="152"/>
-      <c r="J256" s="152">
+      <c r="C256" s="155"/>
+      <c r="D256" s="155"/>
+      <c r="E256" s="155"/>
+      <c r="F256" s="155"/>
+      <c r="G256" s="155"/>
+      <c r="H256" s="155"/>
+      <c r="I256" s="155"/>
+      <c r="J256" s="155">
         <f t="shared" ref="J256" si="17">J212</f>
         <v>0</v>
       </c>
-      <c r="K256" s="152"/>
-      <c r="L256" s="152"/>
-      <c r="M256" s="152"/>
-      <c r="N256" s="152"/>
-      <c r="O256" s="152"/>
-      <c r="P256" s="152"/>
-      <c r="Q256" s="152"/>
-      <c r="R256" s="152"/>
-      <c r="S256" s="152"/>
-      <c r="T256" s="152"/>
-      <c r="U256" s="152"/>
-      <c r="V256" s="152"/>
-      <c r="W256" s="152"/>
-      <c r="X256" s="152"/>
-      <c r="Y256" s="152"/>
-      <c r="Z256" s="152"/>
-      <c r="AA256" s="152">
+      <c r="K256" s="155"/>
+      <c r="L256" s="155"/>
+      <c r="M256" s="155"/>
+      <c r="N256" s="155"/>
+      <c r="O256" s="155"/>
+      <c r="P256" s="155"/>
+      <c r="Q256" s="155"/>
+      <c r="R256" s="155"/>
+      <c r="S256" s="155"/>
+      <c r="T256" s="155"/>
+      <c r="U256" s="155"/>
+      <c r="V256" s="155"/>
+      <c r="W256" s="155"/>
+      <c r="X256" s="155"/>
+      <c r="Y256" s="155"/>
+      <c r="Z256" s="155"/>
+      <c r="AA256" s="155">
         <f t="shared" ref="AA256" si="18">AA212</f>
         <v>0</v>
       </c>
-      <c r="AB256" s="152"/>
-      <c r="AC256" s="152"/>
-      <c r="AD256" s="152"/>
-      <c r="AE256" s="152"/>
-      <c r="AF256" s="152"/>
-      <c r="AG256" s="152"/>
-      <c r="AH256" s="152"/>
-      <c r="AI256" s="152"/>
-      <c r="AJ256" s="152"/>
-      <c r="AK256" s="152"/>
+      <c r="AB256" s="155"/>
+      <c r="AC256" s="155"/>
+      <c r="AD256" s="155"/>
+      <c r="AE256" s="155"/>
+      <c r="AF256" s="155"/>
+      <c r="AG256" s="155"/>
+      <c r="AH256" s="155"/>
+      <c r="AI256" s="155"/>
+      <c r="AJ256" s="155"/>
+      <c r="AK256" s="155"/>
     </row>
     <row r="257" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="152"/>
-      <c r="C257" s="152"/>
-      <c r="D257" s="152"/>
-      <c r="E257" s="152"/>
-      <c r="F257" s="152"/>
-      <c r="G257" s="152"/>
-      <c r="H257" s="152"/>
-      <c r="I257" s="152"/>
-      <c r="J257" s="152"/>
-      <c r="K257" s="152"/>
-      <c r="L257" s="152"/>
-      <c r="M257" s="152"/>
-      <c r="N257" s="152"/>
-      <c r="O257" s="152"/>
-      <c r="P257" s="152"/>
-      <c r="Q257" s="152"/>
-      <c r="R257" s="152"/>
-      <c r="S257" s="152"/>
-      <c r="T257" s="152"/>
-      <c r="U257" s="152"/>
-      <c r="V257" s="152"/>
-      <c r="W257" s="152"/>
-      <c r="X257" s="152"/>
-      <c r="Y257" s="152"/>
-      <c r="Z257" s="152"/>
-      <c r="AA257" s="152"/>
-      <c r="AB257" s="152"/>
-      <c r="AC257" s="152"/>
-      <c r="AD257" s="152"/>
-      <c r="AE257" s="152"/>
-      <c r="AF257" s="152"/>
-      <c r="AG257" s="152"/>
-      <c r="AH257" s="152"/>
-      <c r="AI257" s="152"/>
-      <c r="AJ257" s="152"/>
-      <c r="AK257" s="152"/>
+      <c r="B257" s="155"/>
+      <c r="C257" s="155"/>
+      <c r="D257" s="155"/>
+      <c r="E257" s="155"/>
+      <c r="F257" s="155"/>
+      <c r="G257" s="155"/>
+      <c r="H257" s="155"/>
+      <c r="I257" s="155"/>
+      <c r="J257" s="155"/>
+      <c r="K257" s="155"/>
+      <c r="L257" s="155"/>
+      <c r="M257" s="155"/>
+      <c r="N257" s="155"/>
+      <c r="O257" s="155"/>
+      <c r="P257" s="155"/>
+      <c r="Q257" s="155"/>
+      <c r="R257" s="155"/>
+      <c r="S257" s="155"/>
+      <c r="T257" s="155"/>
+      <c r="U257" s="155"/>
+      <c r="V257" s="155"/>
+      <c r="W257" s="155"/>
+      <c r="X257" s="155"/>
+      <c r="Y257" s="155"/>
+      <c r="Z257" s="155"/>
+      <c r="AA257" s="155"/>
+      <c r="AB257" s="155"/>
+      <c r="AC257" s="155"/>
+      <c r="AD257" s="155"/>
+      <c r="AE257" s="155"/>
+      <c r="AF257" s="155"/>
+      <c r="AG257" s="155"/>
+      <c r="AH257" s="155"/>
+      <c r="AI257" s="155"/>
+      <c r="AJ257" s="155"/>
+      <c r="AK257" s="155"/>
     </row>
     <row r="258" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="152">
+      <c r="B258" s="155">
         <f t="shared" ref="B258" si="19">B214</f>
         <v>0</v>
       </c>
-      <c r="C258" s="152"/>
-      <c r="D258" s="152"/>
-      <c r="E258" s="152"/>
-      <c r="F258" s="152"/>
-      <c r="G258" s="152"/>
-      <c r="H258" s="152"/>
-      <c r="I258" s="152"/>
-      <c r="J258" s="152">
+      <c r="C258" s="155"/>
+      <c r="D258" s="155"/>
+      <c r="E258" s="155"/>
+      <c r="F258" s="155"/>
+      <c r="G258" s="155"/>
+      <c r="H258" s="155"/>
+      <c r="I258" s="155"/>
+      <c r="J258" s="155">
         <f t="shared" ref="J258" si="20">J214</f>
         <v>0</v>
       </c>
-      <c r="K258" s="152"/>
-      <c r="L258" s="152"/>
-      <c r="M258" s="152"/>
-      <c r="N258" s="152"/>
-      <c r="O258" s="152"/>
-      <c r="P258" s="152"/>
-      <c r="Q258" s="152"/>
-      <c r="R258" s="152"/>
-      <c r="S258" s="152"/>
-      <c r="T258" s="152"/>
-      <c r="U258" s="152"/>
-      <c r="V258" s="152"/>
-      <c r="W258" s="152"/>
-      <c r="X258" s="152"/>
-      <c r="Y258" s="152"/>
-      <c r="Z258" s="152"/>
-      <c r="AA258" s="152">
+      <c r="K258" s="155"/>
+      <c r="L258" s="155"/>
+      <c r="M258" s="155"/>
+      <c r="N258" s="155"/>
+      <c r="O258" s="155"/>
+      <c r="P258" s="155"/>
+      <c r="Q258" s="155"/>
+      <c r="R258" s="155"/>
+      <c r="S258" s="155"/>
+      <c r="T258" s="155"/>
+      <c r="U258" s="155"/>
+      <c r="V258" s="155"/>
+      <c r="W258" s="155"/>
+      <c r="X258" s="155"/>
+      <c r="Y258" s="155"/>
+      <c r="Z258" s="155"/>
+      <c r="AA258" s="155">
         <f t="shared" ref="AA258" si="21">AA214</f>
         <v>0</v>
       </c>
-      <c r="AB258" s="152"/>
-      <c r="AC258" s="152"/>
-      <c r="AD258" s="152"/>
-      <c r="AE258" s="152"/>
-      <c r="AF258" s="152"/>
-      <c r="AG258" s="152"/>
-      <c r="AH258" s="152"/>
-      <c r="AI258" s="152"/>
-      <c r="AJ258" s="152"/>
-      <c r="AK258" s="152"/>
+      <c r="AB258" s="155"/>
+      <c r="AC258" s="155"/>
+      <c r="AD258" s="155"/>
+      <c r="AE258" s="155"/>
+      <c r="AF258" s="155"/>
+      <c r="AG258" s="155"/>
+      <c r="AH258" s="155"/>
+      <c r="AI258" s="155"/>
+      <c r="AJ258" s="155"/>
+      <c r="AK258" s="155"/>
     </row>
     <row r="259" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="152"/>
-      <c r="C259" s="152"/>
-      <c r="D259" s="152"/>
-      <c r="E259" s="152"/>
-      <c r="F259" s="152"/>
-      <c r="G259" s="152"/>
-      <c r="H259" s="152"/>
-      <c r="I259" s="152"/>
-      <c r="J259" s="152"/>
-      <c r="K259" s="152"/>
-      <c r="L259" s="152"/>
-      <c r="M259" s="152"/>
-      <c r="N259" s="152"/>
-      <c r="O259" s="152"/>
-      <c r="P259" s="152"/>
-      <c r="Q259" s="152"/>
-      <c r="R259" s="152"/>
-      <c r="S259" s="152"/>
-      <c r="T259" s="152"/>
-      <c r="U259" s="152"/>
-      <c r="V259" s="152"/>
-      <c r="W259" s="152"/>
-      <c r="X259" s="152"/>
-      <c r="Y259" s="152"/>
-      <c r="Z259" s="152"/>
-      <c r="AA259" s="152"/>
-      <c r="AB259" s="152"/>
-      <c r="AC259" s="152"/>
-      <c r="AD259" s="152"/>
-      <c r="AE259" s="152"/>
-      <c r="AF259" s="152"/>
-      <c r="AG259" s="152"/>
-      <c r="AH259" s="152"/>
-      <c r="AI259" s="152"/>
-      <c r="AJ259" s="152"/>
-      <c r="AK259" s="152"/>
+      <c r="B259" s="155"/>
+      <c r="C259" s="155"/>
+      <c r="D259" s="155"/>
+      <c r="E259" s="155"/>
+      <c r="F259" s="155"/>
+      <c r="G259" s="155"/>
+      <c r="H259" s="155"/>
+      <c r="I259" s="155"/>
+      <c r="J259" s="155"/>
+      <c r="K259" s="155"/>
+      <c r="L259" s="155"/>
+      <c r="M259" s="155"/>
+      <c r="N259" s="155"/>
+      <c r="O259" s="155"/>
+      <c r="P259" s="155"/>
+      <c r="Q259" s="155"/>
+      <c r="R259" s="155"/>
+      <c r="S259" s="155"/>
+      <c r="T259" s="155"/>
+      <c r="U259" s="155"/>
+      <c r="V259" s="155"/>
+      <c r="W259" s="155"/>
+      <c r="X259" s="155"/>
+      <c r="Y259" s="155"/>
+      <c r="Z259" s="155"/>
+      <c r="AA259" s="155"/>
+      <c r="AB259" s="155"/>
+      <c r="AC259" s="155"/>
+      <c r="AD259" s="155"/>
+      <c r="AE259" s="155"/>
+      <c r="AF259" s="155"/>
+      <c r="AG259" s="155"/>
+      <c r="AH259" s="155"/>
+      <c r="AI259" s="155"/>
+      <c r="AJ259" s="155"/>
+      <c r="AK259" s="155"/>
     </row>
     <row r="260" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="152">
+      <c r="B260" s="155">
         <f t="shared" ref="B260" si="22">B216</f>
         <v>0</v>
       </c>
-      <c r="C260" s="152"/>
-      <c r="D260" s="152"/>
-      <c r="E260" s="152"/>
-      <c r="F260" s="152"/>
-      <c r="G260" s="152"/>
-      <c r="H260" s="152"/>
-      <c r="I260" s="152"/>
-      <c r="J260" s="152">
+      <c r="C260" s="155"/>
+      <c r="D260" s="155"/>
+      <c r="E260" s="155"/>
+      <c r="F260" s="155"/>
+      <c r="G260" s="155"/>
+      <c r="H260" s="155"/>
+      <c r="I260" s="155"/>
+      <c r="J260" s="155">
         <f t="shared" ref="J260" si="23">J216</f>
         <v>0</v>
       </c>
-      <c r="K260" s="152"/>
-      <c r="L260" s="152"/>
-      <c r="M260" s="152"/>
-      <c r="N260" s="152"/>
-      <c r="O260" s="152"/>
-      <c r="P260" s="152"/>
-      <c r="Q260" s="152"/>
-      <c r="R260" s="152"/>
-      <c r="S260" s="152"/>
-      <c r="T260" s="152"/>
-      <c r="U260" s="152"/>
-      <c r="V260" s="152"/>
-      <c r="W260" s="152"/>
-      <c r="X260" s="152"/>
-      <c r="Y260" s="152"/>
-      <c r="Z260" s="152"/>
-      <c r="AA260" s="152">
+      <c r="K260" s="155"/>
+      <c r="L260" s="155"/>
+      <c r="M260" s="155"/>
+      <c r="N260" s="155"/>
+      <c r="O260" s="155"/>
+      <c r="P260" s="155"/>
+      <c r="Q260" s="155"/>
+      <c r="R260" s="155"/>
+      <c r="S260" s="155"/>
+      <c r="T260" s="155"/>
+      <c r="U260" s="155"/>
+      <c r="V260" s="155"/>
+      <c r="W260" s="155"/>
+      <c r="X260" s="155"/>
+      <c r="Y260" s="155"/>
+      <c r="Z260" s="155"/>
+      <c r="AA260" s="155">
         <f t="shared" ref="AA260" si="24">AA216</f>
         <v>0</v>
       </c>
-      <c r="AB260" s="152"/>
-      <c r="AC260" s="152"/>
-      <c r="AD260" s="152"/>
-      <c r="AE260" s="152"/>
-      <c r="AF260" s="152"/>
-      <c r="AG260" s="152"/>
-      <c r="AH260" s="152"/>
-      <c r="AI260" s="152"/>
-      <c r="AJ260" s="152"/>
-      <c r="AK260" s="152"/>
+      <c r="AB260" s="155"/>
+      <c r="AC260" s="155"/>
+      <c r="AD260" s="155"/>
+      <c r="AE260" s="155"/>
+      <c r="AF260" s="155"/>
+      <c r="AG260" s="155"/>
+      <c r="AH260" s="155"/>
+      <c r="AI260" s="155"/>
+      <c r="AJ260" s="155"/>
+      <c r="AK260" s="155"/>
     </row>
     <row r="261" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="152"/>
-      <c r="C261" s="152"/>
-      <c r="D261" s="152"/>
-      <c r="E261" s="152"/>
-      <c r="F261" s="152"/>
-      <c r="G261" s="152"/>
-      <c r="H261" s="152"/>
-      <c r="I261" s="152"/>
-      <c r="J261" s="152"/>
-      <c r="K261" s="152"/>
-      <c r="L261" s="152"/>
-      <c r="M261" s="152"/>
-      <c r="N261" s="152"/>
-      <c r="O261" s="152"/>
-      <c r="P261" s="152"/>
-      <c r="Q261" s="152"/>
-      <c r="R261" s="152"/>
-      <c r="S261" s="152"/>
-      <c r="T261" s="152"/>
-      <c r="U261" s="152"/>
-      <c r="V261" s="152"/>
-      <c r="W261" s="152"/>
-      <c r="X261" s="152"/>
-      <c r="Y261" s="152"/>
-      <c r="Z261" s="152"/>
-      <c r="AA261" s="152"/>
-      <c r="AB261" s="152"/>
-      <c r="AC261" s="152"/>
-      <c r="AD261" s="152"/>
-      <c r="AE261" s="152"/>
-      <c r="AF261" s="152"/>
-      <c r="AG261" s="152"/>
-      <c r="AH261" s="152"/>
-      <c r="AI261" s="152"/>
-      <c r="AJ261" s="152"/>
-      <c r="AK261" s="152"/>
+      <c r="B261" s="155"/>
+      <c r="C261" s="155"/>
+      <c r="D261" s="155"/>
+      <c r="E261" s="155"/>
+      <c r="F261" s="155"/>
+      <c r="G261" s="155"/>
+      <c r="H261" s="155"/>
+      <c r="I261" s="155"/>
+      <c r="J261" s="155"/>
+      <c r="K261" s="155"/>
+      <c r="L261" s="155"/>
+      <c r="M261" s="155"/>
+      <c r="N261" s="155"/>
+      <c r="O261" s="155"/>
+      <c r="P261" s="155"/>
+      <c r="Q261" s="155"/>
+      <c r="R261" s="155"/>
+      <c r="S261" s="155"/>
+      <c r="T261" s="155"/>
+      <c r="U261" s="155"/>
+      <c r="V261" s="155"/>
+      <c r="W261" s="155"/>
+      <c r="X261" s="155"/>
+      <c r="Y261" s="155"/>
+      <c r="Z261" s="155"/>
+      <c r="AA261" s="155"/>
+      <c r="AB261" s="155"/>
+      <c r="AC261" s="155"/>
+      <c r="AD261" s="155"/>
+      <c r="AE261" s="155"/>
+      <c r="AF261" s="155"/>
+      <c r="AG261" s="155"/>
+      <c r="AH261" s="155"/>
+      <c r="AI261" s="155"/>
+      <c r="AJ261" s="155"/>
+      <c r="AK261" s="155"/>
     </row>
     <row r="262" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="152">
+      <c r="B262" s="155">
         <f t="shared" ref="B262" si="25">B218</f>
         <v>0</v>
       </c>
-      <c r="C262" s="152"/>
-      <c r="D262" s="152"/>
-      <c r="E262" s="152"/>
-      <c r="F262" s="152"/>
-      <c r="G262" s="152"/>
-      <c r="H262" s="152"/>
-      <c r="I262" s="152"/>
-      <c r="J262" s="152">
+      <c r="C262" s="155"/>
+      <c r="D262" s="155"/>
+      <c r="E262" s="155"/>
+      <c r="F262" s="155"/>
+      <c r="G262" s="155"/>
+      <c r="H262" s="155"/>
+      <c r="I262" s="155"/>
+      <c r="J262" s="155">
         <f t="shared" ref="J262" si="26">J218</f>
         <v>0</v>
       </c>
-      <c r="K262" s="152"/>
-      <c r="L262" s="152"/>
-      <c r="M262" s="152"/>
-      <c r="N262" s="152"/>
-      <c r="O262" s="152"/>
-      <c r="P262" s="152"/>
-      <c r="Q262" s="152"/>
-      <c r="R262" s="152"/>
-      <c r="S262" s="152"/>
-      <c r="T262" s="152"/>
-      <c r="U262" s="152"/>
-      <c r="V262" s="152"/>
-      <c r="W262" s="152"/>
-      <c r="X262" s="152"/>
-      <c r="Y262" s="152"/>
-      <c r="Z262" s="152"/>
-      <c r="AA262" s="152">
+      <c r="K262" s="155"/>
+      <c r="L262" s="155"/>
+      <c r="M262" s="155"/>
+      <c r="N262" s="155"/>
+      <c r="O262" s="155"/>
+      <c r="P262" s="155"/>
+      <c r="Q262" s="155"/>
+      <c r="R262" s="155"/>
+      <c r="S262" s="155"/>
+      <c r="T262" s="155"/>
+      <c r="U262" s="155"/>
+      <c r="V262" s="155"/>
+      <c r="W262" s="155"/>
+      <c r="X262" s="155"/>
+      <c r="Y262" s="155"/>
+      <c r="Z262" s="155"/>
+      <c r="AA262" s="155">
         <f t="shared" ref="AA262" si="27">AA218</f>
         <v>0</v>
       </c>
-      <c r="AB262" s="152"/>
-      <c r="AC262" s="152"/>
-      <c r="AD262" s="152"/>
-      <c r="AE262" s="152"/>
-      <c r="AF262" s="152"/>
-      <c r="AG262" s="152"/>
-      <c r="AH262" s="152"/>
-      <c r="AI262" s="152"/>
-      <c r="AJ262" s="152"/>
-      <c r="AK262" s="152"/>
+      <c r="AB262" s="155"/>
+      <c r="AC262" s="155"/>
+      <c r="AD262" s="155"/>
+      <c r="AE262" s="155"/>
+      <c r="AF262" s="155"/>
+      <c r="AG262" s="155"/>
+      <c r="AH262" s="155"/>
+      <c r="AI262" s="155"/>
+      <c r="AJ262" s="155"/>
+      <c r="AK262" s="155"/>
     </row>
     <row r="263" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="152"/>
-      <c r="C263" s="152"/>
-      <c r="D263" s="152"/>
-      <c r="E263" s="152"/>
-      <c r="F263" s="152"/>
-      <c r="G263" s="152"/>
-      <c r="H263" s="152"/>
-      <c r="I263" s="152"/>
-      <c r="J263" s="152"/>
-      <c r="K263" s="152"/>
-      <c r="L263" s="152"/>
-      <c r="M263" s="152"/>
-      <c r="N263" s="152"/>
-      <c r="O263" s="152"/>
-      <c r="P263" s="152"/>
-      <c r="Q263" s="152"/>
-      <c r="R263" s="152"/>
-      <c r="S263" s="152"/>
-      <c r="T263" s="152"/>
-      <c r="U263" s="152"/>
-      <c r="V263" s="152"/>
-      <c r="W263" s="152"/>
-      <c r="X263" s="152"/>
-      <c r="Y263" s="152"/>
-      <c r="Z263" s="152"/>
-      <c r="AA263" s="152"/>
-      <c r="AB263" s="152"/>
-      <c r="AC263" s="152"/>
-      <c r="AD263" s="152"/>
-      <c r="AE263" s="152"/>
-      <c r="AF263" s="152"/>
-      <c r="AG263" s="152"/>
-      <c r="AH263" s="152"/>
-      <c r="AI263" s="152"/>
-      <c r="AJ263" s="152"/>
-      <c r="AK263" s="152"/>
+      <c r="B263" s="155"/>
+      <c r="C263" s="155"/>
+      <c r="D263" s="155"/>
+      <c r="E263" s="155"/>
+      <c r="F263" s="155"/>
+      <c r="G263" s="155"/>
+      <c r="H263" s="155"/>
+      <c r="I263" s="155"/>
+      <c r="J263" s="155"/>
+      <c r="K263" s="155"/>
+      <c r="L263" s="155"/>
+      <c r="M263" s="155"/>
+      <c r="N263" s="155"/>
+      <c r="O263" s="155"/>
+      <c r="P263" s="155"/>
+      <c r="Q263" s="155"/>
+      <c r="R263" s="155"/>
+      <c r="S263" s="155"/>
+      <c r="T263" s="155"/>
+      <c r="U263" s="155"/>
+      <c r="V263" s="155"/>
+      <c r="W263" s="155"/>
+      <c r="X263" s="155"/>
+      <c r="Y263" s="155"/>
+      <c r="Z263" s="155"/>
+      <c r="AA263" s="155"/>
+      <c r="AB263" s="155"/>
+      <c r="AC263" s="155"/>
+      <c r="AD263" s="155"/>
+      <c r="AE263" s="155"/>
+      <c r="AF263" s="155"/>
+      <c r="AG263" s="155"/>
+      <c r="AH263" s="155"/>
+      <c r="AI263" s="155"/>
+      <c r="AJ263" s="155"/>
+      <c r="AK263" s="155"/>
     </row>
     <row r="264" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="152">
+      <c r="B264" s="155">
         <f t="shared" ref="B264" si="28">B220</f>
         <v>0</v>
       </c>
-      <c r="C264" s="152"/>
-      <c r="D264" s="152"/>
-      <c r="E264" s="152"/>
-      <c r="F264" s="152"/>
-      <c r="G264" s="152"/>
-      <c r="H264" s="152"/>
-      <c r="I264" s="152"/>
-      <c r="J264" s="152">
+      <c r="C264" s="155"/>
+      <c r="D264" s="155"/>
+      <c r="E264" s="155"/>
+      <c r="F264" s="155"/>
+      <c r="G264" s="155"/>
+      <c r="H264" s="155"/>
+      <c r="I264" s="155"/>
+      <c r="J264" s="155">
         <f t="shared" ref="J264" si="29">J220</f>
         <v>0</v>
       </c>
-      <c r="K264" s="152"/>
-      <c r="L264" s="152"/>
-      <c r="M264" s="152"/>
-      <c r="N264" s="152"/>
-      <c r="O264" s="152"/>
-      <c r="P264" s="152"/>
-      <c r="Q264" s="152"/>
-      <c r="R264" s="152"/>
-      <c r="S264" s="152"/>
-      <c r="T264" s="152"/>
-      <c r="U264" s="152"/>
-      <c r="V264" s="152"/>
-      <c r="W264" s="152"/>
-      <c r="X264" s="152"/>
-      <c r="Y264" s="152"/>
-      <c r="Z264" s="152"/>
-      <c r="AA264" s="152">
+      <c r="K264" s="155"/>
+      <c r="L264" s="155"/>
+      <c r="M264" s="155"/>
+      <c r="N264" s="155"/>
+      <c r="O264" s="155"/>
+      <c r="P264" s="155"/>
+      <c r="Q264" s="155"/>
+      <c r="R264" s="155"/>
+      <c r="S264" s="155"/>
+      <c r="T264" s="155"/>
+      <c r="U264" s="155"/>
+      <c r="V264" s="155"/>
+      <c r="W264" s="155"/>
+      <c r="X264" s="155"/>
+      <c r="Y264" s="155"/>
+      <c r="Z264" s="155"/>
+      <c r="AA264" s="155">
         <f t="shared" ref="AA264" si="30">AA220</f>
         <v>0</v>
       </c>
-      <c r="AB264" s="152"/>
-      <c r="AC264" s="152"/>
-      <c r="AD264" s="152"/>
-      <c r="AE264" s="152"/>
-      <c r="AF264" s="152"/>
-      <c r="AG264" s="152"/>
-      <c r="AH264" s="152"/>
-      <c r="AI264" s="152"/>
-      <c r="AJ264" s="152"/>
-      <c r="AK264" s="152"/>
+      <c r="AB264" s="155"/>
+      <c r="AC264" s="155"/>
+      <c r="AD264" s="155"/>
+      <c r="AE264" s="155"/>
+      <c r="AF264" s="155"/>
+      <c r="AG264" s="155"/>
+      <c r="AH264" s="155"/>
+      <c r="AI264" s="155"/>
+      <c r="AJ264" s="155"/>
+      <c r="AK264" s="155"/>
     </row>
     <row r="265" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="152"/>
-      <c r="C265" s="152"/>
-      <c r="D265" s="152"/>
-      <c r="E265" s="152"/>
-      <c r="F265" s="152"/>
-      <c r="G265" s="152"/>
-      <c r="H265" s="152"/>
-      <c r="I265" s="152"/>
-      <c r="J265" s="152"/>
-      <c r="K265" s="152"/>
-      <c r="L265" s="152"/>
-      <c r="M265" s="152"/>
-      <c r="N265" s="152"/>
-      <c r="O265" s="152"/>
-      <c r="P265" s="152"/>
-      <c r="Q265" s="152"/>
-      <c r="R265" s="152"/>
-      <c r="S265" s="152"/>
-      <c r="T265" s="152"/>
-      <c r="U265" s="152"/>
-      <c r="V265" s="152"/>
-      <c r="W265" s="152"/>
-      <c r="X265" s="152"/>
-      <c r="Y265" s="152"/>
-      <c r="Z265" s="152"/>
-      <c r="AA265" s="152"/>
-      <c r="AB265" s="152"/>
-      <c r="AC265" s="152"/>
-      <c r="AD265" s="152"/>
-      <c r="AE265" s="152"/>
-      <c r="AF265" s="152"/>
-      <c r="AG265" s="152"/>
-      <c r="AH265" s="152"/>
-      <c r="AI265" s="152"/>
-      <c r="AJ265" s="152"/>
-      <c r="AK265" s="152"/>
+      <c r="B265" s="155"/>
+      <c r="C265" s="155"/>
+      <c r="D265" s="155"/>
+      <c r="E265" s="155"/>
+      <c r="F265" s="155"/>
+      <c r="G265" s="155"/>
+      <c r="H265" s="155"/>
+      <c r="I265" s="155"/>
+      <c r="J265" s="155"/>
+      <c r="K265" s="155"/>
+      <c r="L265" s="155"/>
+      <c r="M265" s="155"/>
+      <c r="N265" s="155"/>
+      <c r="O265" s="155"/>
+      <c r="P265" s="155"/>
+      <c r="Q265" s="155"/>
+      <c r="R265" s="155"/>
+      <c r="S265" s="155"/>
+      <c r="T265" s="155"/>
+      <c r="U265" s="155"/>
+      <c r="V265" s="155"/>
+      <c r="W265" s="155"/>
+      <c r="X265" s="155"/>
+      <c r="Y265" s="155"/>
+      <c r="Z265" s="155"/>
+      <c r="AA265" s="155"/>
+      <c r="AB265" s="155"/>
+      <c r="AC265" s="155"/>
+      <c r="AD265" s="155"/>
+      <c r="AE265" s="155"/>
+      <c r="AF265" s="155"/>
+      <c r="AG265" s="155"/>
+      <c r="AH265" s="155"/>
+      <c r="AI265" s="155"/>
+      <c r="AJ265" s="155"/>
+      <c r="AK265" s="155"/>
     </row>
     <row r="266" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="152">
+      <c r="B266" s="155">
         <f t="shared" ref="B266" si="31">B222</f>
         <v>0</v>
       </c>
-      <c r="C266" s="152"/>
-      <c r="D266" s="152"/>
-      <c r="E266" s="152"/>
-      <c r="F266" s="152"/>
-      <c r="G266" s="152"/>
-      <c r="H266" s="152"/>
-      <c r="I266" s="152"/>
-      <c r="J266" s="152">
+      <c r="C266" s="155"/>
+      <c r="D266" s="155"/>
+      <c r="E266" s="155"/>
+      <c r="F266" s="155"/>
+      <c r="G266" s="155"/>
+      <c r="H266" s="155"/>
+      <c r="I266" s="155"/>
+      <c r="J266" s="155">
         <f t="shared" ref="J266" si="32">J222</f>
         <v>0</v>
       </c>
-      <c r="K266" s="152"/>
-      <c r="L266" s="152"/>
-      <c r="M266" s="152"/>
-      <c r="N266" s="152"/>
-      <c r="O266" s="152"/>
-      <c r="P266" s="152"/>
-      <c r="Q266" s="152"/>
-      <c r="R266" s="152"/>
-      <c r="S266" s="152"/>
-      <c r="T266" s="152"/>
-      <c r="U266" s="152"/>
-      <c r="V266" s="152"/>
-      <c r="W266" s="152"/>
-      <c r="X266" s="152"/>
-      <c r="Y266" s="152"/>
-      <c r="Z266" s="152"/>
-      <c r="AA266" s="152">
+      <c r="K266" s="155"/>
+      <c r="L266" s="155"/>
+      <c r="M266" s="155"/>
+      <c r="N266" s="155"/>
+      <c r="O266" s="155"/>
+      <c r="P266" s="155"/>
+      <c r="Q266" s="155"/>
+      <c r="R266" s="155"/>
+      <c r="S266" s="155"/>
+      <c r="T266" s="155"/>
+      <c r="U266" s="155"/>
+      <c r="V266" s="155"/>
+      <c r="W266" s="155"/>
+      <c r="X266" s="155"/>
+      <c r="Y266" s="155"/>
+      <c r="Z266" s="155"/>
+      <c r="AA266" s="155">
         <f t="shared" ref="AA266" si="33">AA222</f>
         <v>0</v>
       </c>
-      <c r="AB266" s="152"/>
-      <c r="AC266" s="152"/>
-      <c r="AD266" s="152"/>
-      <c r="AE266" s="152"/>
-      <c r="AF266" s="152"/>
-      <c r="AG266" s="152"/>
-      <c r="AH266" s="152"/>
-      <c r="AI266" s="152"/>
-      <c r="AJ266" s="152"/>
-      <c r="AK266" s="152"/>
+      <c r="AB266" s="155"/>
+      <c r="AC266" s="155"/>
+      <c r="AD266" s="155"/>
+      <c r="AE266" s="155"/>
+      <c r="AF266" s="155"/>
+      <c r="AG266" s="155"/>
+      <c r="AH266" s="155"/>
+      <c r="AI266" s="155"/>
+      <c r="AJ266" s="155"/>
+      <c r="AK266" s="155"/>
     </row>
     <row r="267" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="152"/>
-      <c r="C267" s="152"/>
-      <c r="D267" s="152"/>
-      <c r="E267" s="152"/>
-      <c r="F267" s="152"/>
-      <c r="G267" s="152"/>
-      <c r="H267" s="152"/>
-      <c r="I267" s="152"/>
-      <c r="J267" s="152"/>
-      <c r="K267" s="152"/>
-      <c r="L267" s="152"/>
-      <c r="M267" s="152"/>
-      <c r="N267" s="152"/>
-      <c r="O267" s="152"/>
-      <c r="P267" s="152"/>
-      <c r="Q267" s="152"/>
-      <c r="R267" s="152"/>
-      <c r="S267" s="152"/>
-      <c r="T267" s="152"/>
-      <c r="U267" s="152"/>
-      <c r="V267" s="152"/>
-      <c r="W267" s="152"/>
-      <c r="X267" s="152"/>
-      <c r="Y267" s="152"/>
-      <c r="Z267" s="152"/>
-      <c r="AA267" s="152"/>
-      <c r="AB267" s="152"/>
-      <c r="AC267" s="152"/>
-      <c r="AD267" s="152"/>
-      <c r="AE267" s="152"/>
-      <c r="AF267" s="152"/>
-      <c r="AG267" s="152"/>
-      <c r="AH267" s="152"/>
-      <c r="AI267" s="152"/>
-      <c r="AJ267" s="152"/>
-      <c r="AK267" s="152"/>
+      <c r="B267" s="155"/>
+      <c r="C267" s="155"/>
+      <c r="D267" s="155"/>
+      <c r="E267" s="155"/>
+      <c r="F267" s="155"/>
+      <c r="G267" s="155"/>
+      <c r="H267" s="155"/>
+      <c r="I267" s="155"/>
+      <c r="J267" s="155"/>
+      <c r="K267" s="155"/>
+      <c r="L267" s="155"/>
+      <c r="M267" s="155"/>
+      <c r="N267" s="155"/>
+      <c r="O267" s="155"/>
+      <c r="P267" s="155"/>
+      <c r="Q267" s="155"/>
+      <c r="R267" s="155"/>
+      <c r="S267" s="155"/>
+      <c r="T267" s="155"/>
+      <c r="U267" s="155"/>
+      <c r="V267" s="155"/>
+      <c r="W267" s="155"/>
+      <c r="X267" s="155"/>
+      <c r="Y267" s="155"/>
+      <c r="Z267" s="155"/>
+      <c r="AA267" s="155"/>
+      <c r="AB267" s="155"/>
+      <c r="AC267" s="155"/>
+      <c r="AD267" s="155"/>
+      <c r="AE267" s="155"/>
+      <c r="AF267" s="155"/>
+      <c r="AG267" s="155"/>
+      <c r="AH267" s="155"/>
+      <c r="AI267" s="155"/>
+      <c r="AJ267" s="155"/>
+      <c r="AK267" s="155"/>
     </row>
     <row r="268" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="152">
+      <c r="B268" s="155">
         <f t="shared" ref="B268" si="34">B224</f>
         <v>0</v>
       </c>
-      <c r="C268" s="152"/>
-      <c r="D268" s="152"/>
-      <c r="E268" s="152"/>
-      <c r="F268" s="152"/>
-      <c r="G268" s="152"/>
-      <c r="H268" s="152"/>
-      <c r="I268" s="152"/>
-      <c r="J268" s="152">
+      <c r="C268" s="155"/>
+      <c r="D268" s="155"/>
+      <c r="E268" s="155"/>
+      <c r="F268" s="155"/>
+      <c r="G268" s="155"/>
+      <c r="H268" s="155"/>
+      <c r="I268" s="155"/>
+      <c r="J268" s="155">
         <f t="shared" ref="J268" si="35">J224</f>
         <v>0</v>
       </c>
-      <c r="K268" s="152"/>
-      <c r="L268" s="152"/>
-      <c r="M268" s="152"/>
-      <c r="N268" s="152"/>
-      <c r="O268" s="152"/>
-      <c r="P268" s="152"/>
-      <c r="Q268" s="152"/>
-      <c r="R268" s="152"/>
-      <c r="S268" s="152"/>
-      <c r="T268" s="152"/>
-      <c r="U268" s="152"/>
-      <c r="V268" s="152"/>
-      <c r="W268" s="152"/>
-      <c r="X268" s="152"/>
-      <c r="Y268" s="152"/>
-      <c r="Z268" s="152"/>
-      <c r="AA268" s="152">
+      <c r="K268" s="155"/>
+      <c r="L268" s="155"/>
+      <c r="M268" s="155"/>
+      <c r="N268" s="155"/>
+      <c r="O268" s="155"/>
+      <c r="P268" s="155"/>
+      <c r="Q268" s="155"/>
+      <c r="R268" s="155"/>
+      <c r="S268" s="155"/>
+      <c r="T268" s="155"/>
+      <c r="U268" s="155"/>
+      <c r="V268" s="155"/>
+      <c r="W268" s="155"/>
+      <c r="X268" s="155"/>
+      <c r="Y268" s="155"/>
+      <c r="Z268" s="155"/>
+      <c r="AA268" s="155">
         <f t="shared" ref="AA268" si="36">AA224</f>
         <v>0</v>
       </c>
-      <c r="AB268" s="152"/>
-      <c r="AC268" s="152"/>
-      <c r="AD268" s="152"/>
-      <c r="AE268" s="152"/>
-      <c r="AF268" s="152"/>
-      <c r="AG268" s="152"/>
-      <c r="AH268" s="152"/>
-      <c r="AI268" s="152"/>
-      <c r="AJ268" s="152"/>
-      <c r="AK268" s="152"/>
+      <c r="AB268" s="155"/>
+      <c r="AC268" s="155"/>
+      <c r="AD268" s="155"/>
+      <c r="AE268" s="155"/>
+      <c r="AF268" s="155"/>
+      <c r="AG268" s="155"/>
+      <c r="AH268" s="155"/>
+      <c r="AI268" s="155"/>
+      <c r="AJ268" s="155"/>
+      <c r="AK268" s="155"/>
     </row>
     <row r="269" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="152"/>
-      <c r="C269" s="152"/>
-      <c r="D269" s="152"/>
-      <c r="E269" s="152"/>
-      <c r="F269" s="152"/>
-      <c r="G269" s="152"/>
-      <c r="H269" s="152"/>
-      <c r="I269" s="152"/>
-      <c r="J269" s="152"/>
-      <c r="K269" s="152"/>
-      <c r="L269" s="152"/>
-      <c r="M269" s="152"/>
-      <c r="N269" s="152"/>
-      <c r="O269" s="152"/>
-      <c r="P269" s="152"/>
-      <c r="Q269" s="152"/>
-      <c r="R269" s="152"/>
-      <c r="S269" s="152"/>
-      <c r="T269" s="152"/>
-      <c r="U269" s="152"/>
-      <c r="V269" s="152"/>
-      <c r="W269" s="152"/>
-      <c r="X269" s="152"/>
-      <c r="Y269" s="152"/>
-      <c r="Z269" s="152"/>
-      <c r="AA269" s="152"/>
-      <c r="AB269" s="152"/>
-      <c r="AC269" s="152"/>
-      <c r="AD269" s="152"/>
-      <c r="AE269" s="152"/>
-      <c r="AF269" s="152"/>
-      <c r="AG269" s="152"/>
-      <c r="AH269" s="152"/>
-      <c r="AI269" s="152"/>
-      <c r="AJ269" s="152"/>
-      <c r="AK269" s="152"/>
+      <c r="B269" s="155"/>
+      <c r="C269" s="155"/>
+      <c r="D269" s="155"/>
+      <c r="E269" s="155"/>
+      <c r="F269" s="155"/>
+      <c r="G269" s="155"/>
+      <c r="H269" s="155"/>
+      <c r="I269" s="155"/>
+      <c r="J269" s="155"/>
+      <c r="K269" s="155"/>
+      <c r="L269" s="155"/>
+      <c r="M269" s="155"/>
+      <c r="N269" s="155"/>
+      <c r="O269" s="155"/>
+      <c r="P269" s="155"/>
+      <c r="Q269" s="155"/>
+      <c r="R269" s="155"/>
+      <c r="S269" s="155"/>
+      <c r="T269" s="155"/>
+      <c r="U269" s="155"/>
+      <c r="V269" s="155"/>
+      <c r="W269" s="155"/>
+      <c r="X269" s="155"/>
+      <c r="Y269" s="155"/>
+      <c r="Z269" s="155"/>
+      <c r="AA269" s="155"/>
+      <c r="AB269" s="155"/>
+      <c r="AC269" s="155"/>
+      <c r="AD269" s="155"/>
+      <c r="AE269" s="155"/>
+      <c r="AF269" s="155"/>
+      <c r="AG269" s="155"/>
+      <c r="AH269" s="155"/>
+      <c r="AI269" s="155"/>
+      <c r="AJ269" s="155"/>
+      <c r="AK269" s="155"/>
     </row>
     <row r="270" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="152">
+      <c r="B270" s="155">
         <f t="shared" ref="B270" si="37">B226</f>
         <v>0</v>
       </c>
-      <c r="C270" s="152"/>
-      <c r="D270" s="152"/>
-      <c r="E270" s="152"/>
-      <c r="F270" s="152"/>
-      <c r="G270" s="152"/>
-      <c r="H270" s="152"/>
-      <c r="I270" s="152"/>
-      <c r="J270" s="152">
+      <c r="C270" s="155"/>
+      <c r="D270" s="155"/>
+      <c r="E270" s="155"/>
+      <c r="F270" s="155"/>
+      <c r="G270" s="155"/>
+      <c r="H270" s="155"/>
+      <c r="I270" s="155"/>
+      <c r="J270" s="155">
         <f t="shared" ref="J270" si="38">J226</f>
         <v>0</v>
       </c>
-      <c r="K270" s="152"/>
-      <c r="L270" s="152"/>
-      <c r="M270" s="152"/>
-      <c r="N270" s="152"/>
-      <c r="O270" s="152"/>
-      <c r="P270" s="152"/>
-      <c r="Q270" s="152"/>
-      <c r="R270" s="152"/>
-      <c r="S270" s="152"/>
-      <c r="T270" s="152"/>
-      <c r="U270" s="152"/>
-      <c r="V270" s="152"/>
-      <c r="W270" s="152"/>
-      <c r="X270" s="152"/>
-      <c r="Y270" s="152"/>
-      <c r="Z270" s="152"/>
-      <c r="AA270" s="152">
+      <c r="K270" s="155"/>
+      <c r="L270" s="155"/>
+      <c r="M270" s="155"/>
+      <c r="N270" s="155"/>
+      <c r="O270" s="155"/>
+      <c r="P270" s="155"/>
+      <c r="Q270" s="155"/>
+      <c r="R270" s="155"/>
+      <c r="S270" s="155"/>
+      <c r="T270" s="155"/>
+      <c r="U270" s="155"/>
+      <c r="V270" s="155"/>
+      <c r="W270" s="155"/>
+      <c r="X270" s="155"/>
+      <c r="Y270" s="155"/>
+      <c r="Z270" s="155"/>
+      <c r="AA270" s="155">
         <f t="shared" ref="AA270" si="39">AA226</f>
         <v>0</v>
       </c>
-      <c r="AB270" s="152"/>
-      <c r="AC270" s="152"/>
-      <c r="AD270" s="152"/>
-      <c r="AE270" s="152"/>
-      <c r="AF270" s="152"/>
-      <c r="AG270" s="152"/>
-      <c r="AH270" s="152"/>
-      <c r="AI270" s="152"/>
-      <c r="AJ270" s="152"/>
-      <c r="AK270" s="152"/>
+      <c r="AB270" s="155"/>
+      <c r="AC270" s="155"/>
+      <c r="AD270" s="155"/>
+      <c r="AE270" s="155"/>
+      <c r="AF270" s="155"/>
+      <c r="AG270" s="155"/>
+      <c r="AH270" s="155"/>
+      <c r="AI270" s="155"/>
+      <c r="AJ270" s="155"/>
+      <c r="AK270" s="155"/>
     </row>
     <row r="271" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="152"/>
-      <c r="C271" s="152"/>
-      <c r="D271" s="152"/>
-      <c r="E271" s="152"/>
-      <c r="F271" s="152"/>
-      <c r="G271" s="152"/>
-      <c r="H271" s="152"/>
-      <c r="I271" s="152"/>
-      <c r="J271" s="152"/>
-      <c r="K271" s="152"/>
-      <c r="L271" s="152"/>
-      <c r="M271" s="152"/>
-      <c r="N271" s="152"/>
-      <c r="O271" s="152"/>
-      <c r="P271" s="152"/>
-      <c r="Q271" s="152"/>
-      <c r="R271" s="152"/>
-      <c r="S271" s="152"/>
-      <c r="T271" s="152"/>
-      <c r="U271" s="152"/>
-      <c r="V271" s="152"/>
-      <c r="W271" s="152"/>
-      <c r="X271" s="152"/>
-      <c r="Y271" s="152"/>
-      <c r="Z271" s="152"/>
-      <c r="AA271" s="152"/>
-      <c r="AB271" s="152"/>
-      <c r="AC271" s="152"/>
-      <c r="AD271" s="152"/>
-      <c r="AE271" s="152"/>
-      <c r="AF271" s="152"/>
-      <c r="AG271" s="152"/>
-      <c r="AH271" s="152"/>
-      <c r="AI271" s="152"/>
-      <c r="AJ271" s="152"/>
-      <c r="AK271" s="152"/>
+      <c r="B271" s="155"/>
+      <c r="C271" s="155"/>
+      <c r="D271" s="155"/>
+      <c r="E271" s="155"/>
+      <c r="F271" s="155"/>
+      <c r="G271" s="155"/>
+      <c r="H271" s="155"/>
+      <c r="I271" s="155"/>
+      <c r="J271" s="155"/>
+      <c r="K271" s="155"/>
+      <c r="L271" s="155"/>
+      <c r="M271" s="155"/>
+      <c r="N271" s="155"/>
+      <c r="O271" s="155"/>
+      <c r="P271" s="155"/>
+      <c r="Q271" s="155"/>
+      <c r="R271" s="155"/>
+      <c r="S271" s="155"/>
+      <c r="T271" s="155"/>
+      <c r="U271" s="155"/>
+      <c r="V271" s="155"/>
+      <c r="W271" s="155"/>
+      <c r="X271" s="155"/>
+      <c r="Y271" s="155"/>
+      <c r="Z271" s="155"/>
+      <c r="AA271" s="155"/>
+      <c r="AB271" s="155"/>
+      <c r="AC271" s="155"/>
+      <c r="AD271" s="155"/>
+      <c r="AE271" s="155"/>
+      <c r="AF271" s="155"/>
+      <c r="AG271" s="155"/>
+      <c r="AH271" s="155"/>
+      <c r="AI271" s="155"/>
+      <c r="AJ271" s="155"/>
+      <c r="AK271" s="155"/>
     </row>
     <row r="272" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="152">
+      <c r="B272" s="155">
         <f t="shared" ref="B272" si="40">B228</f>
         <v>0</v>
       </c>
-      <c r="C272" s="152"/>
-      <c r="D272" s="152"/>
-      <c r="E272" s="152"/>
-      <c r="F272" s="152"/>
-      <c r="G272" s="152"/>
-      <c r="H272" s="152"/>
-      <c r="I272" s="152"/>
-      <c r="J272" s="152">
+      <c r="C272" s="155"/>
+      <c r="D272" s="155"/>
+      <c r="E272" s="155"/>
+      <c r="F272" s="155"/>
+      <c r="G272" s="155"/>
+      <c r="H272" s="155"/>
+      <c r="I272" s="155"/>
+      <c r="J272" s="155">
         <f t="shared" ref="J272" si="41">J228</f>
         <v>0</v>
       </c>
-      <c r="K272" s="152"/>
-      <c r="L272" s="152"/>
-      <c r="M272" s="152"/>
-      <c r="N272" s="152"/>
-      <c r="O272" s="152"/>
-      <c r="P272" s="152"/>
-      <c r="Q272" s="152"/>
-      <c r="R272" s="152"/>
-      <c r="S272" s="152"/>
-      <c r="T272" s="152"/>
-      <c r="U272" s="152"/>
-      <c r="V272" s="152"/>
-      <c r="W272" s="152"/>
-      <c r="X272" s="152"/>
-      <c r="Y272" s="152"/>
-      <c r="Z272" s="152"/>
-      <c r="AA272" s="152">
+      <c r="K272" s="155"/>
+      <c r="L272" s="155"/>
+      <c r="M272" s="155"/>
+      <c r="N272" s="155"/>
+      <c r="O272" s="155"/>
+      <c r="P272" s="155"/>
+      <c r="Q272" s="155"/>
+      <c r="R272" s="155"/>
+      <c r="S272" s="155"/>
+      <c r="T272" s="155"/>
+      <c r="U272" s="155"/>
+      <c r="V272" s="155"/>
+      <c r="W272" s="155"/>
+      <c r="X272" s="155"/>
+      <c r="Y272" s="155"/>
+      <c r="Z272" s="155"/>
+      <c r="AA272" s="155">
         <f t="shared" ref="AA272" si="42">AA228</f>
         <v>0</v>
       </c>
-      <c r="AB272" s="152"/>
-      <c r="AC272" s="152"/>
-      <c r="AD272" s="152"/>
-      <c r="AE272" s="152"/>
-      <c r="AF272" s="152"/>
-      <c r="AG272" s="152"/>
-      <c r="AH272" s="152"/>
-      <c r="AI272" s="152"/>
-      <c r="AJ272" s="152"/>
-      <c r="AK272" s="152"/>
+      <c r="AB272" s="155"/>
+      <c r="AC272" s="155"/>
+      <c r="AD272" s="155"/>
+      <c r="AE272" s="155"/>
+      <c r="AF272" s="155"/>
+      <c r="AG272" s="155"/>
+      <c r="AH272" s="155"/>
+      <c r="AI272" s="155"/>
+      <c r="AJ272" s="155"/>
+      <c r="AK272" s="155"/>
     </row>
     <row r="273" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="152"/>
-      <c r="C273" s="152"/>
-      <c r="D273" s="152"/>
-      <c r="E273" s="152"/>
-      <c r="F273" s="152"/>
-      <c r="G273" s="152"/>
-      <c r="H273" s="152"/>
-      <c r="I273" s="152"/>
-      <c r="J273" s="152"/>
-      <c r="K273" s="152"/>
-      <c r="L273" s="152"/>
-      <c r="M273" s="152"/>
-      <c r="N273" s="152"/>
-      <c r="O273" s="152"/>
-      <c r="P273" s="152"/>
-      <c r="Q273" s="152"/>
-      <c r="R273" s="152"/>
-      <c r="S273" s="152"/>
-      <c r="T273" s="152"/>
-      <c r="U273" s="152"/>
-      <c r="V273" s="152"/>
-      <c r="W273" s="152"/>
-      <c r="X273" s="152"/>
-      <c r="Y273" s="152"/>
-      <c r="Z273" s="152"/>
-      <c r="AA273" s="152"/>
-      <c r="AB273" s="152"/>
-      <c r="AC273" s="152"/>
-      <c r="AD273" s="152"/>
-      <c r="AE273" s="152"/>
-      <c r="AF273" s="152"/>
-      <c r="AG273" s="152"/>
-      <c r="AH273" s="152"/>
-      <c r="AI273" s="152"/>
-      <c r="AJ273" s="152"/>
-      <c r="AK273" s="152"/>
+      <c r="B273" s="155"/>
+      <c r="C273" s="155"/>
+      <c r="D273" s="155"/>
+      <c r="E273" s="155"/>
+      <c r="F273" s="155"/>
+      <c r="G273" s="155"/>
+      <c r="H273" s="155"/>
+      <c r="I273" s="155"/>
+      <c r="J273" s="155"/>
+      <c r="K273" s="155"/>
+      <c r="L273" s="155"/>
+      <c r="M273" s="155"/>
+      <c r="N273" s="155"/>
+      <c r="O273" s="155"/>
+      <c r="P273" s="155"/>
+      <c r="Q273" s="155"/>
+      <c r="R273" s="155"/>
+      <c r="S273" s="155"/>
+      <c r="T273" s="155"/>
+      <c r="U273" s="155"/>
+      <c r="V273" s="155"/>
+      <c r="W273" s="155"/>
+      <c r="X273" s="155"/>
+      <c r="Y273" s="155"/>
+      <c r="Z273" s="155"/>
+      <c r="AA273" s="155"/>
+      <c r="AB273" s="155"/>
+      <c r="AC273" s="155"/>
+      <c r="AD273" s="155"/>
+      <c r="AE273" s="155"/>
+      <c r="AF273" s="155"/>
+      <c r="AG273" s="155"/>
+      <c r="AH273" s="155"/>
+      <c r="AI273" s="155"/>
+      <c r="AJ273" s="155"/>
+      <c r="AK273" s="155"/>
     </row>
     <row r="274" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="152">
+      <c r="B274" s="155">
         <f t="shared" ref="B274" si="43">B230</f>
         <v>0</v>
       </c>
-      <c r="C274" s="152"/>
-      <c r="D274" s="152"/>
-      <c r="E274" s="152"/>
-      <c r="F274" s="152"/>
-      <c r="G274" s="152"/>
-      <c r="H274" s="152"/>
-      <c r="I274" s="152"/>
-      <c r="J274" s="152">
+      <c r="C274" s="155"/>
+      <c r="D274" s="155"/>
+      <c r="E274" s="155"/>
+      <c r="F274" s="155"/>
+      <c r="G274" s="155"/>
+      <c r="H274" s="155"/>
+      <c r="I274" s="155"/>
+      <c r="J274" s="155">
         <f t="shared" ref="J274" si="44">J230</f>
         <v>0</v>
       </c>
-      <c r="K274" s="152"/>
-      <c r="L274" s="152"/>
-      <c r="M274" s="152"/>
-      <c r="N274" s="152"/>
-      <c r="O274" s="152"/>
-      <c r="P274" s="152"/>
-      <c r="Q274" s="152"/>
-      <c r="R274" s="152"/>
-      <c r="S274" s="152"/>
-      <c r="T274" s="152"/>
-      <c r="U274" s="152"/>
-      <c r="V274" s="152"/>
-      <c r="W274" s="152"/>
-      <c r="X274" s="152"/>
-      <c r="Y274" s="152"/>
-      <c r="Z274" s="152"/>
-      <c r="AA274" s="152">
+      <c r="K274" s="155"/>
+      <c r="L274" s="155"/>
+      <c r="M274" s="155"/>
+      <c r="N274" s="155"/>
+      <c r="O274" s="155"/>
+      <c r="P274" s="155"/>
+      <c r="Q274" s="155"/>
+      <c r="R274" s="155"/>
+      <c r="S274" s="155"/>
+      <c r="T274" s="155"/>
+      <c r="U274" s="155"/>
+      <c r="V274" s="155"/>
+      <c r="W274" s="155"/>
+      <c r="X274" s="155"/>
+      <c r="Y274" s="155"/>
+      <c r="Z274" s="155"/>
+      <c r="AA274" s="155">
         <f t="shared" ref="AA274" si="45">AA230</f>
         <v>0</v>
       </c>
-      <c r="AB274" s="152"/>
-      <c r="AC274" s="152"/>
-      <c r="AD274" s="152"/>
-      <c r="AE274" s="152"/>
-      <c r="AF274" s="152"/>
-      <c r="AG274" s="152"/>
-      <c r="AH274" s="152"/>
-      <c r="AI274" s="152"/>
-      <c r="AJ274" s="152"/>
-      <c r="AK274" s="152"/>
+      <c r="AB274" s="155"/>
+      <c r="AC274" s="155"/>
+      <c r="AD274" s="155"/>
+      <c r="AE274" s="155"/>
+      <c r="AF274" s="155"/>
+      <c r="AG274" s="155"/>
+      <c r="AH274" s="155"/>
+      <c r="AI274" s="155"/>
+      <c r="AJ274" s="155"/>
+      <c r="AK274" s="155"/>
     </row>
     <row r="275" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="152"/>
-      <c r="C275" s="152"/>
-      <c r="D275" s="152"/>
-      <c r="E275" s="152"/>
-      <c r="F275" s="152"/>
-      <c r="G275" s="152"/>
-      <c r="H275" s="152"/>
-      <c r="I275" s="152"/>
-      <c r="J275" s="152"/>
-      <c r="K275" s="152"/>
-      <c r="L275" s="152"/>
-      <c r="M275" s="152"/>
-      <c r="N275" s="152"/>
-      <c r="O275" s="152"/>
-      <c r="P275" s="152"/>
-      <c r="Q275" s="152"/>
-      <c r="R275" s="152"/>
-      <c r="S275" s="152"/>
-      <c r="T275" s="152"/>
-      <c r="U275" s="152"/>
-      <c r="V275" s="152"/>
-      <c r="W275" s="152"/>
-      <c r="X275" s="152"/>
-      <c r="Y275" s="152"/>
-      <c r="Z275" s="152"/>
-      <c r="AA275" s="152"/>
-      <c r="AB275" s="152"/>
-      <c r="AC275" s="152"/>
-      <c r="AD275" s="152"/>
-      <c r="AE275" s="152"/>
-      <c r="AF275" s="152"/>
-      <c r="AG275" s="152"/>
-      <c r="AH275" s="152"/>
-      <c r="AI275" s="152"/>
-      <c r="AJ275" s="152"/>
-      <c r="AK275" s="152"/>
+      <c r="B275" s="155"/>
+      <c r="C275" s="155"/>
+      <c r="D275" s="155"/>
+      <c r="E275" s="155"/>
+      <c r="F275" s="155"/>
+      <c r="G275" s="155"/>
+      <c r="H275" s="155"/>
+      <c r="I275" s="155"/>
+      <c r="J275" s="155"/>
+      <c r="K275" s="155"/>
+      <c r="L275" s="155"/>
+      <c r="M275" s="155"/>
+      <c r="N275" s="155"/>
+      <c r="O275" s="155"/>
+      <c r="P275" s="155"/>
+      <c r="Q275" s="155"/>
+      <c r="R275" s="155"/>
+      <c r="S275" s="155"/>
+      <c r="T275" s="155"/>
+      <c r="U275" s="155"/>
+      <c r="V275" s="155"/>
+      <c r="W275" s="155"/>
+      <c r="X275" s="155"/>
+      <c r="Y275" s="155"/>
+      <c r="Z275" s="155"/>
+      <c r="AA275" s="155"/>
+      <c r="AB275" s="155"/>
+      <c r="AC275" s="155"/>
+      <c r="AD275" s="155"/>
+      <c r="AE275" s="155"/>
+      <c r="AF275" s="155"/>
+      <c r="AG275" s="155"/>
+      <c r="AH275" s="155"/>
+      <c r="AI275" s="155"/>
+      <c r="AJ275" s="155"/>
+      <c r="AK275" s="155"/>
     </row>
     <row r="276" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="152">
+      <c r="B276" s="155">
         <f t="shared" ref="B276" si="46">B232</f>
         <v>0</v>
       </c>
-      <c r="C276" s="152"/>
-      <c r="D276" s="152"/>
-      <c r="E276" s="152"/>
-      <c r="F276" s="152"/>
-      <c r="G276" s="152"/>
-      <c r="H276" s="152"/>
-      <c r="I276" s="152"/>
-      <c r="J276" s="152">
+      <c r="C276" s="155"/>
+      <c r="D276" s="155"/>
+      <c r="E276" s="155"/>
+      <c r="F276" s="155"/>
+      <c r="G276" s="155"/>
+      <c r="H276" s="155"/>
+      <c r="I276" s="155"/>
+      <c r="J276" s="155">
         <f t="shared" ref="J276" si="47">J232</f>
         <v>0</v>
       </c>
-      <c r="K276" s="152"/>
-      <c r="L276" s="152"/>
-      <c r="M276" s="152"/>
-      <c r="N276" s="152"/>
-      <c r="O276" s="152"/>
-      <c r="P276" s="152"/>
-      <c r="Q276" s="152"/>
-      <c r="R276" s="152"/>
-      <c r="S276" s="152"/>
-      <c r="T276" s="152"/>
-      <c r="U276" s="152"/>
-      <c r="V276" s="152"/>
-      <c r="W276" s="152"/>
-      <c r="X276" s="152"/>
-      <c r="Y276" s="152"/>
-      <c r="Z276" s="152"/>
-      <c r="AA276" s="152">
+      <c r="K276" s="155"/>
+      <c r="L276" s="155"/>
+      <c r="M276" s="155"/>
+      <c r="N276" s="155"/>
+      <c r="O276" s="155"/>
+      <c r="P276" s="155"/>
+      <c r="Q276" s="155"/>
+      <c r="R276" s="155"/>
+      <c r="S276" s="155"/>
+      <c r="T276" s="155"/>
+      <c r="U276" s="155"/>
+      <c r="V276" s="155"/>
+      <c r="W276" s="155"/>
+      <c r="X276" s="155"/>
+      <c r="Y276" s="155"/>
+      <c r="Z276" s="155"/>
+      <c r="AA276" s="155">
         <f t="shared" ref="AA276" si="48">AA232</f>
         <v>0</v>
       </c>
-      <c r="AB276" s="152"/>
-      <c r="AC276" s="152"/>
-      <c r="AD276" s="152"/>
-      <c r="AE276" s="152"/>
-      <c r="AF276" s="152"/>
-      <c r="AG276" s="152"/>
-      <c r="AH276" s="152"/>
-      <c r="AI276" s="152"/>
-      <c r="AJ276" s="152"/>
-      <c r="AK276" s="152"/>
+      <c r="AB276" s="155"/>
+      <c r="AC276" s="155"/>
+      <c r="AD276" s="155"/>
+      <c r="AE276" s="155"/>
+      <c r="AF276" s="155"/>
+      <c r="AG276" s="155"/>
+      <c r="AH276" s="155"/>
+      <c r="AI276" s="155"/>
+      <c r="AJ276" s="155"/>
+      <c r="AK276" s="155"/>
     </row>
     <row r="277" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="152"/>
-      <c r="C277" s="152"/>
-      <c r="D277" s="152"/>
-      <c r="E277" s="152"/>
-      <c r="F277" s="152"/>
-      <c r="G277" s="152"/>
-      <c r="H277" s="152"/>
-      <c r="I277" s="152"/>
-      <c r="J277" s="152"/>
-      <c r="K277" s="152"/>
-      <c r="L277" s="152"/>
-      <c r="M277" s="152"/>
-      <c r="N277" s="152"/>
-      <c r="O277" s="152"/>
-      <c r="P277" s="152"/>
-      <c r="Q277" s="152"/>
-      <c r="R277" s="152"/>
-      <c r="S277" s="152"/>
-      <c r="T277" s="152"/>
-      <c r="U277" s="152"/>
-      <c r="V277" s="152"/>
-      <c r="W277" s="152"/>
-      <c r="X277" s="152"/>
-      <c r="Y277" s="152"/>
-      <c r="Z277" s="152"/>
-      <c r="AA277" s="152"/>
-      <c r="AB277" s="152"/>
-      <c r="AC277" s="152"/>
-      <c r="AD277" s="152"/>
-      <c r="AE277" s="152"/>
-      <c r="AF277" s="152"/>
-      <c r="AG277" s="152"/>
-      <c r="AH277" s="152"/>
-      <c r="AI277" s="152"/>
-      <c r="AJ277" s="152"/>
-      <c r="AK277" s="152"/>
+      <c r="B277" s="155"/>
+      <c r="C277" s="155"/>
+      <c r="D277" s="155"/>
+      <c r="E277" s="155"/>
+      <c r="F277" s="155"/>
+      <c r="G277" s="155"/>
+      <c r="H277" s="155"/>
+      <c r="I277" s="155"/>
+      <c r="J277" s="155"/>
+      <c r="K277" s="155"/>
+      <c r="L277" s="155"/>
+      <c r="M277" s="155"/>
+      <c r="N277" s="155"/>
+      <c r="O277" s="155"/>
+      <c r="P277" s="155"/>
+      <c r="Q277" s="155"/>
+      <c r="R277" s="155"/>
+      <c r="S277" s="155"/>
+      <c r="T277" s="155"/>
+      <c r="U277" s="155"/>
+      <c r="V277" s="155"/>
+      <c r="W277" s="155"/>
+      <c r="X277" s="155"/>
+      <c r="Y277" s="155"/>
+      <c r="Z277" s="155"/>
+      <c r="AA277" s="155"/>
+      <c r="AB277" s="155"/>
+      <c r="AC277" s="155"/>
+      <c r="AD277" s="155"/>
+      <c r="AE277" s="155"/>
+      <c r="AF277" s="155"/>
+      <c r="AG277" s="155"/>
+      <c r="AH277" s="155"/>
+      <c r="AI277" s="155"/>
+      <c r="AJ277" s="155"/>
+      <c r="AK277" s="155"/>
     </row>
     <row r="278" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="152">
+      <c r="B278" s="155">
         <f t="shared" ref="B278" si="49">B234</f>
         <v>0</v>
       </c>
-      <c r="C278" s="152"/>
-      <c r="D278" s="152"/>
-      <c r="E278" s="152"/>
-      <c r="F278" s="152"/>
-      <c r="G278" s="152"/>
-      <c r="H278" s="152"/>
-      <c r="I278" s="152"/>
-      <c r="J278" s="152">
+      <c r="C278" s="155"/>
+      <c r="D278" s="155"/>
+      <c r="E278" s="155"/>
+      <c r="F278" s="155"/>
+      <c r="G278" s="155"/>
+      <c r="H278" s="155"/>
+      <c r="I278" s="155"/>
+      <c r="J278" s="155">
         <f t="shared" ref="J278" si="50">J234</f>
         <v>0</v>
       </c>
-      <c r="K278" s="152"/>
-      <c r="L278" s="152"/>
-      <c r="M278" s="152"/>
-      <c r="N278" s="152"/>
-      <c r="O278" s="152"/>
-      <c r="P278" s="152"/>
-      <c r="Q278" s="152"/>
-      <c r="R278" s="152"/>
-      <c r="S278" s="152"/>
-      <c r="T278" s="152"/>
-      <c r="U278" s="152"/>
-      <c r="V278" s="152"/>
-      <c r="W278" s="152"/>
-      <c r="X278" s="152"/>
-      <c r="Y278" s="152"/>
-      <c r="Z278" s="152"/>
-      <c r="AA278" s="152">
+      <c r="K278" s="155"/>
+      <c r="L278" s="155"/>
+      <c r="M278" s="155"/>
+      <c r="N278" s="155"/>
+      <c r="O278" s="155"/>
+      <c r="P278" s="155"/>
+      <c r="Q278" s="155"/>
+      <c r="R278" s="155"/>
+      <c r="S278" s="155"/>
+      <c r="T278" s="155"/>
+      <c r="U278" s="155"/>
+      <c r="V278" s="155"/>
+      <c r="W278" s="155"/>
+      <c r="X278" s="155"/>
+      <c r="Y278" s="155"/>
+      <c r="Z278" s="155"/>
+      <c r="AA278" s="155">
         <f t="shared" ref="AA278" si="51">AA234</f>
         <v>0</v>
       </c>
-      <c r="AB278" s="152"/>
-      <c r="AC278" s="152"/>
-      <c r="AD278" s="152"/>
-      <c r="AE278" s="152"/>
-      <c r="AF278" s="152"/>
-      <c r="AG278" s="152"/>
-      <c r="AH278" s="152"/>
-      <c r="AI278" s="152"/>
-      <c r="AJ278" s="152"/>
-      <c r="AK278" s="152"/>
+      <c r="AB278" s="155"/>
+      <c r="AC278" s="155"/>
+      <c r="AD278" s="155"/>
+      <c r="AE278" s="155"/>
+      <c r="AF278" s="155"/>
+      <c r="AG278" s="155"/>
+      <c r="AH278" s="155"/>
+      <c r="AI278" s="155"/>
+      <c r="AJ278" s="155"/>
+      <c r="AK278" s="155"/>
     </row>
     <row r="279" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="152"/>
-      <c r="C279" s="152"/>
-      <c r="D279" s="152"/>
-      <c r="E279" s="152"/>
-      <c r="F279" s="152"/>
-      <c r="G279" s="152"/>
-      <c r="H279" s="152"/>
-      <c r="I279" s="152"/>
-      <c r="J279" s="152"/>
-      <c r="K279" s="152"/>
-      <c r="L279" s="152"/>
-      <c r="M279" s="152"/>
-      <c r="N279" s="152"/>
-      <c r="O279" s="152"/>
-      <c r="P279" s="152"/>
-      <c r="Q279" s="152"/>
-      <c r="R279" s="152"/>
-      <c r="S279" s="152"/>
-      <c r="T279" s="152"/>
-      <c r="U279" s="152"/>
-      <c r="V279" s="152"/>
-      <c r="W279" s="152"/>
-      <c r="X279" s="152"/>
-      <c r="Y279" s="152"/>
-      <c r="Z279" s="152"/>
-      <c r="AA279" s="152"/>
-      <c r="AB279" s="152"/>
-      <c r="AC279" s="152"/>
-      <c r="AD279" s="152"/>
-      <c r="AE279" s="152"/>
-      <c r="AF279" s="152"/>
-      <c r="AG279" s="152"/>
-      <c r="AH279" s="152"/>
-      <c r="AI279" s="152"/>
-      <c r="AJ279" s="152"/>
-      <c r="AK279" s="152"/>
+      <c r="B279" s="155"/>
+      <c r="C279" s="155"/>
+      <c r="D279" s="155"/>
+      <c r="E279" s="155"/>
+      <c r="F279" s="155"/>
+      <c r="G279" s="155"/>
+      <c r="H279" s="155"/>
+      <c r="I279" s="155"/>
+      <c r="J279" s="155"/>
+      <c r="K279" s="155"/>
+      <c r="L279" s="155"/>
+      <c r="M279" s="155"/>
+      <c r="N279" s="155"/>
+      <c r="O279" s="155"/>
+      <c r="P279" s="155"/>
+      <c r="Q279" s="155"/>
+      <c r="R279" s="155"/>
+      <c r="S279" s="155"/>
+      <c r="T279" s="155"/>
+      <c r="U279" s="155"/>
+      <c r="V279" s="155"/>
+      <c r="W279" s="155"/>
+      <c r="X279" s="155"/>
+      <c r="Y279" s="155"/>
+      <c r="Z279" s="155"/>
+      <c r="AA279" s="155"/>
+      <c r="AB279" s="155"/>
+      <c r="AC279" s="155"/>
+      <c r="AD279" s="155"/>
+      <c r="AE279" s="155"/>
+      <c r="AF279" s="155"/>
+      <c r="AG279" s="155"/>
+      <c r="AH279" s="155"/>
+      <c r="AI279" s="155"/>
+      <c r="AJ279" s="155"/>
+      <c r="AK279" s="155"/>
     </row>
     <row r="280" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="152">
+      <c r="B280" s="155">
         <f t="shared" ref="B280" si="52">B236</f>
         <v>0</v>
       </c>
-      <c r="C280" s="152"/>
-      <c r="D280" s="152"/>
-      <c r="E280" s="152"/>
-      <c r="F280" s="152"/>
-      <c r="G280" s="152"/>
-      <c r="H280" s="152"/>
-      <c r="I280" s="152"/>
-      <c r="J280" s="152">
+      <c r="C280" s="155"/>
+      <c r="D280" s="155"/>
+      <c r="E280" s="155"/>
+      <c r="F280" s="155"/>
+      <c r="G280" s="155"/>
+      <c r="H280" s="155"/>
+      <c r="I280" s="155"/>
+      <c r="J280" s="155">
         <f t="shared" ref="J280" si="53">J236</f>
         <v>0</v>
       </c>
-      <c r="K280" s="152"/>
-      <c r="L280" s="152"/>
-      <c r="M280" s="152"/>
-      <c r="N280" s="152"/>
-      <c r="O280" s="152"/>
-      <c r="P280" s="152"/>
-      <c r="Q280" s="152"/>
-      <c r="R280" s="152"/>
-      <c r="S280" s="152"/>
-      <c r="T280" s="152"/>
-      <c r="U280" s="152"/>
-      <c r="V280" s="152"/>
-      <c r="W280" s="152"/>
-      <c r="X280" s="152"/>
-      <c r="Y280" s="152"/>
-      <c r="Z280" s="152"/>
-      <c r="AA280" s="152">
+      <c r="K280" s="155"/>
+      <c r="L280" s="155"/>
+      <c r="M280" s="155"/>
+      <c r="N280" s="155"/>
+      <c r="O280" s="155"/>
+      <c r="P280" s="155"/>
+      <c r="Q280" s="155"/>
+      <c r="R280" s="155"/>
+      <c r="S280" s="155"/>
+      <c r="T280" s="155"/>
+      <c r="U280" s="155"/>
+      <c r="V280" s="155"/>
+      <c r="W280" s="155"/>
+      <c r="X280" s="155"/>
+      <c r="Y280" s="155"/>
+      <c r="Z280" s="155"/>
+      <c r="AA280" s="155">
         <f t="shared" ref="AA280" si="54">AA236</f>
         <v>0</v>
       </c>
-      <c r="AB280" s="152"/>
-      <c r="AC280" s="152"/>
-      <c r="AD280" s="152"/>
-      <c r="AE280" s="152"/>
-      <c r="AF280" s="152"/>
-      <c r="AG280" s="152"/>
-      <c r="AH280" s="152"/>
-      <c r="AI280" s="152"/>
-      <c r="AJ280" s="152"/>
-      <c r="AK280" s="152"/>
+      <c r="AB280" s="155"/>
+      <c r="AC280" s="155"/>
+      <c r="AD280" s="155"/>
+      <c r="AE280" s="155"/>
+      <c r="AF280" s="155"/>
+      <c r="AG280" s="155"/>
+      <c r="AH280" s="155"/>
+      <c r="AI280" s="155"/>
+      <c r="AJ280" s="155"/>
+      <c r="AK280" s="155"/>
     </row>
     <row r="281" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="152"/>
-      <c r="C281" s="152"/>
-      <c r="D281" s="152"/>
-      <c r="E281" s="152"/>
-      <c r="F281" s="152"/>
-      <c r="G281" s="152"/>
-      <c r="H281" s="152"/>
-      <c r="I281" s="152"/>
-      <c r="J281" s="152"/>
-      <c r="K281" s="152"/>
-      <c r="L281" s="152"/>
-      <c r="M281" s="152"/>
-      <c r="N281" s="152"/>
-      <c r="O281" s="152"/>
-      <c r="P281" s="152"/>
-      <c r="Q281" s="152"/>
-      <c r="R281" s="152"/>
-      <c r="S281" s="152"/>
-      <c r="T281" s="152"/>
-      <c r="U281" s="152"/>
-      <c r="V281" s="152"/>
-      <c r="W281" s="152"/>
-      <c r="X281" s="152"/>
-      <c r="Y281" s="152"/>
-      <c r="Z281" s="152"/>
-      <c r="AA281" s="152"/>
-      <c r="AB281" s="152"/>
-      <c r="AC281" s="152"/>
-      <c r="AD281" s="152"/>
-      <c r="AE281" s="152"/>
-      <c r="AF281" s="152"/>
-      <c r="AG281" s="152"/>
-      <c r="AH281" s="152"/>
-      <c r="AI281" s="152"/>
-      <c r="AJ281" s="152"/>
-      <c r="AK281" s="152"/>
+      <c r="B281" s="155"/>
+      <c r="C281" s="155"/>
+      <c r="D281" s="155"/>
+      <c r="E281" s="155"/>
+      <c r="F281" s="155"/>
+      <c r="G281" s="155"/>
+      <c r="H281" s="155"/>
+      <c r="I281" s="155"/>
+      <c r="J281" s="155"/>
+      <c r="K281" s="155"/>
+      <c r="L281" s="155"/>
+      <c r="M281" s="155"/>
+      <c r="N281" s="155"/>
+      <c r="O281" s="155"/>
+      <c r="P281" s="155"/>
+      <c r="Q281" s="155"/>
+      <c r="R281" s="155"/>
+      <c r="S281" s="155"/>
+      <c r="T281" s="155"/>
+      <c r="U281" s="155"/>
+      <c r="V281" s="155"/>
+      <c r="W281" s="155"/>
+      <c r="X281" s="155"/>
+      <c r="Y281" s="155"/>
+      <c r="Z281" s="155"/>
+      <c r="AA281" s="155"/>
+      <c r="AB281" s="155"/>
+      <c r="AC281" s="155"/>
+      <c r="AD281" s="155"/>
+      <c r="AE281" s="155"/>
+      <c r="AF281" s="155"/>
+      <c r="AG281" s="155"/>
+      <c r="AH281" s="155"/>
+      <c r="AI281" s="155"/>
+      <c r="AJ281" s="155"/>
+      <c r="AK281" s="155"/>
     </row>
     <row r="282" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="152">
+      <c r="B282" s="155">
         <f t="shared" ref="B282" si="55">B238</f>
         <v>0</v>
       </c>
-      <c r="C282" s="152"/>
-      <c r="D282" s="152"/>
-      <c r="E282" s="152"/>
-      <c r="F282" s="152"/>
-      <c r="G282" s="152"/>
-      <c r="H282" s="152"/>
-      <c r="I282" s="152"/>
-      <c r="J282" s="152">
+      <c r="C282" s="155"/>
+      <c r="D282" s="155"/>
+      <c r="E282" s="155"/>
+      <c r="F282" s="155"/>
+      <c r="G282" s="155"/>
+      <c r="H282" s="155"/>
+      <c r="I282" s="155"/>
+      <c r="J282" s="155">
         <f t="shared" ref="J282" si="56">J238</f>
         <v>0</v>
       </c>
-      <c r="K282" s="152"/>
-      <c r="L282" s="152"/>
-      <c r="M282" s="152"/>
-      <c r="N282" s="152"/>
-      <c r="O282" s="152"/>
-      <c r="P282" s="152"/>
-      <c r="Q282" s="152"/>
-      <c r="R282" s="152"/>
-      <c r="S282" s="152"/>
-      <c r="T282" s="152"/>
-      <c r="U282" s="152"/>
-      <c r="V282" s="152"/>
-      <c r="W282" s="152"/>
-      <c r="X282" s="152"/>
-      <c r="Y282" s="152"/>
-      <c r="Z282" s="152"/>
-      <c r="AA282" s="152">
+      <c r="K282" s="155"/>
+      <c r="L282" s="155"/>
+      <c r="M282" s="155"/>
+      <c r="N282" s="155"/>
+      <c r="O282" s="155"/>
+      <c r="P282" s="155"/>
+      <c r="Q282" s="155"/>
+      <c r="R282" s="155"/>
+      <c r="S282" s="155"/>
+      <c r="T282" s="155"/>
+      <c r="U282" s="155"/>
+      <c r="V282" s="155"/>
+      <c r="W282" s="155"/>
+      <c r="X282" s="155"/>
+      <c r="Y282" s="155"/>
+      <c r="Z282" s="155"/>
+      <c r="AA282" s="155">
         <f t="shared" ref="AA282" si="57">AA238</f>
         <v>0</v>
       </c>
-      <c r="AB282" s="152"/>
-      <c r="AC282" s="152"/>
-      <c r="AD282" s="152"/>
-      <c r="AE282" s="152"/>
-      <c r="AF282" s="152"/>
-      <c r="AG282" s="152"/>
-      <c r="AH282" s="152"/>
-      <c r="AI282" s="152"/>
-      <c r="AJ282" s="152"/>
-      <c r="AK282" s="152"/>
+      <c r="AB282" s="155"/>
+      <c r="AC282" s="155"/>
+      <c r="AD282" s="155"/>
+      <c r="AE282" s="155"/>
+      <c r="AF282" s="155"/>
+      <c r="AG282" s="155"/>
+      <c r="AH282" s="155"/>
+      <c r="AI282" s="155"/>
+      <c r="AJ282" s="155"/>
+      <c r="AK282" s="155"/>
     </row>
     <row r="283" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="152"/>
-      <c r="C283" s="152"/>
-      <c r="D283" s="152"/>
-      <c r="E283" s="152"/>
-      <c r="F283" s="152"/>
-      <c r="G283" s="152"/>
-      <c r="H283" s="152"/>
-      <c r="I283" s="152"/>
-      <c r="J283" s="152"/>
-      <c r="K283" s="152"/>
-      <c r="L283" s="152"/>
-      <c r="M283" s="152"/>
-      <c r="N283" s="152"/>
-      <c r="O283" s="152"/>
-      <c r="P283" s="152"/>
-      <c r="Q283" s="152"/>
-      <c r="R283" s="152"/>
-      <c r="S283" s="152"/>
-      <c r="T283" s="152"/>
-      <c r="U283" s="152"/>
-      <c r="V283" s="152"/>
-      <c r="W283" s="152"/>
-      <c r="X283" s="152"/>
-      <c r="Y283" s="152"/>
-      <c r="Z283" s="152"/>
-      <c r="AA283" s="152"/>
-      <c r="AB283" s="152"/>
-      <c r="AC283" s="152"/>
-      <c r="AD283" s="152"/>
-      <c r="AE283" s="152"/>
-      <c r="AF283" s="152"/>
-      <c r="AG283" s="152"/>
-      <c r="AH283" s="152"/>
-      <c r="AI283" s="152"/>
-      <c r="AJ283" s="152"/>
-      <c r="AK283" s="152"/>
+      <c r="B283" s="155"/>
+      <c r="C283" s="155"/>
+      <c r="D283" s="155"/>
+      <c r="E283" s="155"/>
+      <c r="F283" s="155"/>
+      <c r="G283" s="155"/>
+      <c r="H283" s="155"/>
+      <c r="I283" s="155"/>
+      <c r="J283" s="155"/>
+      <c r="K283" s="155"/>
+      <c r="L283" s="155"/>
+      <c r="M283" s="155"/>
+      <c r="N283" s="155"/>
+      <c r="O283" s="155"/>
+      <c r="P283" s="155"/>
+      <c r="Q283" s="155"/>
+      <c r="R283" s="155"/>
+      <c r="S283" s="155"/>
+      <c r="T283" s="155"/>
+      <c r="U283" s="155"/>
+      <c r="V283" s="155"/>
+      <c r="W283" s="155"/>
+      <c r="X283" s="155"/>
+      <c r="Y283" s="155"/>
+      <c r="Z283" s="155"/>
+      <c r="AA283" s="155"/>
+      <c r="AB283" s="155"/>
+      <c r="AC283" s="155"/>
+      <c r="AD283" s="155"/>
+      <c r="AE283" s="155"/>
+      <c r="AF283" s="155"/>
+      <c r="AG283" s="155"/>
+      <c r="AH283" s="155"/>
+      <c r="AI283" s="155"/>
+      <c r="AJ283" s="155"/>
+      <c r="AK283" s="155"/>
     </row>
     <row r="284" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="152">
+      <c r="B284" s="155">
         <f t="shared" ref="B284" si="58">B240</f>
         <v>0</v>
       </c>
-      <c r="C284" s="152"/>
-      <c r="D284" s="152"/>
-      <c r="E284" s="152"/>
-      <c r="F284" s="152"/>
-      <c r="G284" s="152"/>
-      <c r="H284" s="152"/>
-      <c r="I284" s="152"/>
-      <c r="J284" s="152">
+      <c r="C284" s="155"/>
+      <c r="D284" s="155"/>
+      <c r="E284" s="155"/>
+      <c r="F284" s="155"/>
+      <c r="G284" s="155"/>
+      <c r="H284" s="155"/>
+      <c r="I284" s="155"/>
+      <c r="J284" s="155">
         <f t="shared" ref="J284" si="59">J240</f>
         <v>0</v>
       </c>
-      <c r="K284" s="152"/>
-      <c r="L284" s="152"/>
-      <c r="M284" s="152"/>
-      <c r="N284" s="152"/>
-      <c r="O284" s="152"/>
-      <c r="P284" s="152"/>
-      <c r="Q284" s="152"/>
-      <c r="R284" s="152"/>
-      <c r="S284" s="152"/>
-      <c r="T284" s="152"/>
-      <c r="U284" s="152"/>
-      <c r="V284" s="152"/>
-      <c r="W284" s="152"/>
-      <c r="X284" s="152"/>
-      <c r="Y284" s="152"/>
-      <c r="Z284" s="152"/>
-      <c r="AA284" s="152">
+      <c r="K284" s="155"/>
+      <c r="L284" s="155"/>
+      <c r="M284" s="155"/>
+      <c r="N284" s="155"/>
+      <c r="O284" s="155"/>
+      <c r="P284" s="155"/>
+      <c r="Q284" s="155"/>
+      <c r="R284" s="155"/>
+      <c r="S284" s="155"/>
+      <c r="T284" s="155"/>
+      <c r="U284" s="155"/>
+      <c r="V284" s="155"/>
+      <c r="W284" s="155"/>
+      <c r="X284" s="155"/>
+      <c r="Y284" s="155"/>
+      <c r="Z284" s="155"/>
+      <c r="AA284" s="155">
         <f t="shared" ref="AA284" si="60">AA240</f>
         <v>0</v>
       </c>
-      <c r="AB284" s="152"/>
-      <c r="AC284" s="152"/>
-      <c r="AD284" s="152"/>
-      <c r="AE284" s="152"/>
-      <c r="AF284" s="152"/>
-      <c r="AG284" s="152"/>
-      <c r="AH284" s="152"/>
-      <c r="AI284" s="152"/>
-      <c r="AJ284" s="152"/>
-      <c r="AK284" s="152"/>
+      <c r="AB284" s="155"/>
+      <c r="AC284" s="155"/>
+      <c r="AD284" s="155"/>
+      <c r="AE284" s="155"/>
+      <c r="AF284" s="155"/>
+      <c r="AG284" s="155"/>
+      <c r="AH284" s="155"/>
+      <c r="AI284" s="155"/>
+      <c r="AJ284" s="155"/>
+      <c r="AK284" s="155"/>
     </row>
     <row r="285" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="152"/>
-      <c r="C285" s="152"/>
-      <c r="D285" s="152"/>
-      <c r="E285" s="152"/>
-      <c r="F285" s="152"/>
-      <c r="G285" s="152"/>
-      <c r="H285" s="152"/>
-      <c r="I285" s="152"/>
-      <c r="J285" s="152"/>
-      <c r="K285" s="152"/>
-      <c r="L285" s="152"/>
-      <c r="M285" s="152"/>
-      <c r="N285" s="152"/>
-      <c r="O285" s="152"/>
-      <c r="P285" s="152"/>
-      <c r="Q285" s="152"/>
-      <c r="R285" s="152"/>
-      <c r="S285" s="152"/>
-      <c r="T285" s="152"/>
-      <c r="U285" s="152"/>
-      <c r="V285" s="152"/>
-      <c r="W285" s="152"/>
-      <c r="X285" s="152"/>
-      <c r="Y285" s="152"/>
-      <c r="Z285" s="152"/>
-      <c r="AA285" s="152"/>
-      <c r="AB285" s="152"/>
-      <c r="AC285" s="152"/>
-      <c r="AD285" s="152"/>
-      <c r="AE285" s="152"/>
-      <c r="AF285" s="152"/>
-      <c r="AG285" s="152"/>
-      <c r="AH285" s="152"/>
-      <c r="AI285" s="152"/>
-      <c r="AJ285" s="152"/>
-      <c r="AK285" s="152"/>
+      <c r="B285" s="155"/>
+      <c r="C285" s="155"/>
+      <c r="D285" s="155"/>
+      <c r="E285" s="155"/>
+      <c r="F285" s="155"/>
+      <c r="G285" s="155"/>
+      <c r="H285" s="155"/>
+      <c r="I285" s="155"/>
+      <c r="J285" s="155"/>
+      <c r="K285" s="155"/>
+      <c r="L285" s="155"/>
+      <c r="M285" s="155"/>
+      <c r="N285" s="155"/>
+      <c r="O285" s="155"/>
+      <c r="P285" s="155"/>
+      <c r="Q285" s="155"/>
+      <c r="R285" s="155"/>
+      <c r="S285" s="155"/>
+      <c r="T285" s="155"/>
+      <c r="U285" s="155"/>
+      <c r="V285" s="155"/>
+      <c r="W285" s="155"/>
+      <c r="X285" s="155"/>
+      <c r="Y285" s="155"/>
+      <c r="Z285" s="155"/>
+      <c r="AA285" s="155"/>
+      <c r="AB285" s="155"/>
+      <c r="AC285" s="155"/>
+      <c r="AD285" s="155"/>
+      <c r="AE285" s="155"/>
+      <c r="AF285" s="155"/>
+      <c r="AG285" s="155"/>
+      <c r="AH285" s="155"/>
+      <c r="AI285" s="155"/>
+      <c r="AJ285" s="155"/>
+      <c r="AK285" s="155"/>
     </row>
     <row r="286" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="152">
+      <c r="B286" s="155">
         <f t="shared" ref="B286" si="61">B242</f>
         <v>0</v>
       </c>
-      <c r="C286" s="152"/>
-      <c r="D286" s="152"/>
-      <c r="E286" s="152"/>
-      <c r="F286" s="152"/>
-      <c r="G286" s="152"/>
-      <c r="H286" s="152"/>
-      <c r="I286" s="152"/>
-      <c r="J286" s="152">
+      <c r="C286" s="155"/>
+      <c r="D286" s="155"/>
+      <c r="E286" s="155"/>
+      <c r="F286" s="155"/>
+      <c r="G286" s="155"/>
+      <c r="H286" s="155"/>
+      <c r="I286" s="155"/>
+      <c r="J286" s="155">
         <f t="shared" ref="J286" si="62">J242</f>
         <v>0</v>
       </c>
-      <c r="K286" s="152"/>
-      <c r="L286" s="152"/>
-      <c r="M286" s="152"/>
-      <c r="N286" s="152"/>
-      <c r="O286" s="152"/>
-      <c r="P286" s="152"/>
-      <c r="Q286" s="152"/>
-      <c r="R286" s="152"/>
-      <c r="S286" s="152"/>
-      <c r="T286" s="152"/>
-      <c r="U286" s="152"/>
-      <c r="V286" s="152"/>
-      <c r="W286" s="152"/>
-      <c r="X286" s="152"/>
-      <c r="Y286" s="152"/>
-      <c r="Z286" s="152"/>
-      <c r="AA286" s="152">
+      <c r="K286" s="155"/>
+      <c r="L286" s="155"/>
+      <c r="M286" s="155"/>
+      <c r="N286" s="155"/>
+      <c r="O286" s="155"/>
+      <c r="P286" s="155"/>
+      <c r="Q286" s="155"/>
+      <c r="R286" s="155"/>
+      <c r="S286" s="155"/>
+      <c r="T286" s="155"/>
+      <c r="U286" s="155"/>
+      <c r="V286" s="155"/>
+      <c r="W286" s="155"/>
+      <c r="X286" s="155"/>
+      <c r="Y286" s="155"/>
+      <c r="Z286" s="155"/>
+      <c r="AA286" s="155">
         <f t="shared" ref="AA286" si="63">AA242</f>
         <v>0</v>
       </c>
-      <c r="AB286" s="152"/>
-      <c r="AC286" s="152"/>
-      <c r="AD286" s="152"/>
-      <c r="AE286" s="152"/>
-      <c r="AF286" s="152"/>
-      <c r="AG286" s="152"/>
-      <c r="AH286" s="152"/>
-      <c r="AI286" s="152"/>
-      <c r="AJ286" s="152"/>
-      <c r="AK286" s="152"/>
+      <c r="AB286" s="155"/>
+      <c r="AC286" s="155"/>
+      <c r="AD286" s="155"/>
+      <c r="AE286" s="155"/>
+      <c r="AF286" s="155"/>
+      <c r="AG286" s="155"/>
+      <c r="AH286" s="155"/>
+      <c r="AI286" s="155"/>
+      <c r="AJ286" s="155"/>
+      <c r="AK286" s="155"/>
     </row>
     <row r="287" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="152"/>
-      <c r="C287" s="152"/>
-      <c r="D287" s="152"/>
-      <c r="E287" s="152"/>
-      <c r="F287" s="152"/>
-      <c r="G287" s="152"/>
-      <c r="H287" s="152"/>
-      <c r="I287" s="152"/>
-      <c r="J287" s="152"/>
-      <c r="K287" s="152"/>
-      <c r="L287" s="152"/>
-      <c r="M287" s="152"/>
-      <c r="N287" s="152"/>
-      <c r="O287" s="152"/>
-      <c r="P287" s="152"/>
-      <c r="Q287" s="152"/>
-      <c r="R287" s="152"/>
-      <c r="S287" s="152"/>
-      <c r="T287" s="152"/>
-      <c r="U287" s="152"/>
-      <c r="V287" s="152"/>
-      <c r="W287" s="152"/>
-      <c r="X287" s="152"/>
-      <c r="Y287" s="152"/>
-      <c r="Z287" s="152"/>
-      <c r="AA287" s="152"/>
-      <c r="AB287" s="152"/>
-      <c r="AC287" s="152"/>
-      <c r="AD287" s="152"/>
-      <c r="AE287" s="152"/>
-      <c r="AF287" s="152"/>
-      <c r="AG287" s="152"/>
-      <c r="AH287" s="152"/>
-      <c r="AI287" s="152"/>
-      <c r="AJ287" s="152"/>
-      <c r="AK287" s="152"/>
+      <c r="B287" s="155"/>
+      <c r="C287" s="155"/>
+      <c r="D287" s="155"/>
+      <c r="E287" s="155"/>
+      <c r="F287" s="155"/>
+      <c r="G287" s="155"/>
+      <c r="H287" s="155"/>
+      <c r="I287" s="155"/>
+      <c r="J287" s="155"/>
+      <c r="K287" s="155"/>
+      <c r="L287" s="155"/>
+      <c r="M287" s="155"/>
+      <c r="N287" s="155"/>
+      <c r="O287" s="155"/>
+      <c r="P287" s="155"/>
+      <c r="Q287" s="155"/>
+      <c r="R287" s="155"/>
+      <c r="S287" s="155"/>
+      <c r="T287" s="155"/>
+      <c r="U287" s="155"/>
+      <c r="V287" s="155"/>
+      <c r="W287" s="155"/>
+      <c r="X287" s="155"/>
+      <c r="Y287" s="155"/>
+      <c r="Z287" s="155"/>
+      <c r="AA287" s="155"/>
+      <c r="AB287" s="155"/>
+      <c r="AC287" s="155"/>
+      <c r="AD287" s="155"/>
+      <c r="AE287" s="155"/>
+      <c r="AF287" s="155"/>
+      <c r="AG287" s="155"/>
+      <c r="AH287" s="155"/>
+      <c r="AI287" s="155"/>
+      <c r="AJ287" s="155"/>
+      <c r="AK287" s="155"/>
     </row>
     <row r="288" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="152">
+      <c r="B288" s="155">
         <f t="shared" ref="B288" si="64">B244</f>
         <v>0</v>
       </c>
-      <c r="C288" s="152"/>
-      <c r="D288" s="152"/>
-      <c r="E288" s="152"/>
-      <c r="F288" s="152"/>
-      <c r="G288" s="152"/>
-      <c r="H288" s="152"/>
-      <c r="I288" s="152"/>
-      <c r="J288" s="152">
+      <c r="C288" s="155"/>
+      <c r="D288" s="155"/>
+      <c r="E288" s="155"/>
+      <c r="F288" s="155"/>
+      <c r="G288" s="155"/>
+      <c r="H288" s="155"/>
+      <c r="I288" s="155"/>
+      <c r="J288" s="155">
         <f t="shared" ref="J288" si="65">J244</f>
         <v>0</v>
       </c>
-      <c r="K288" s="152"/>
-      <c r="L288" s="152"/>
-      <c r="M288" s="152"/>
-      <c r="N288" s="152"/>
-      <c r="O288" s="152"/>
-      <c r="P288" s="152"/>
-      <c r="Q288" s="152"/>
-      <c r="R288" s="152"/>
-      <c r="S288" s="152"/>
-      <c r="T288" s="152"/>
-      <c r="U288" s="152"/>
-      <c r="V288" s="152"/>
-      <c r="W288" s="152"/>
-      <c r="X288" s="152"/>
-      <c r="Y288" s="152"/>
-      <c r="Z288" s="152"/>
-      <c r="AA288" s="152">
+      <c r="K288" s="155"/>
+      <c r="L288" s="155"/>
+      <c r="M288" s="155"/>
+      <c r="N288" s="155"/>
+      <c r="O288" s="155"/>
+      <c r="P288" s="155"/>
+      <c r="Q288" s="155"/>
+      <c r="R288" s="155"/>
+      <c r="S288" s="155"/>
+      <c r="T288" s="155"/>
+      <c r="U288" s="155"/>
+      <c r="V288" s="155"/>
+      <c r="W288" s="155"/>
+      <c r="X288" s="155"/>
+      <c r="Y288" s="155"/>
+      <c r="Z288" s="155"/>
+      <c r="AA288" s="155">
         <f t="shared" ref="AA288" si="66">AA244</f>
         <v>0</v>
       </c>
-      <c r="AB288" s="152"/>
-      <c r="AC288" s="152"/>
-      <c r="AD288" s="152"/>
-      <c r="AE288" s="152"/>
-      <c r="AF288" s="152"/>
-      <c r="AG288" s="152"/>
-      <c r="AH288" s="152"/>
-      <c r="AI288" s="152"/>
-      <c r="AJ288" s="152"/>
-      <c r="AK288" s="152"/>
+      <c r="AB288" s="155"/>
+      <c r="AC288" s="155"/>
+      <c r="AD288" s="155"/>
+      <c r="AE288" s="155"/>
+      <c r="AF288" s="155"/>
+      <c r="AG288" s="155"/>
+      <c r="AH288" s="155"/>
+      <c r="AI288" s="155"/>
+      <c r="AJ288" s="155"/>
+      <c r="AK288" s="155"/>
     </row>
     <row r="289" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="152"/>
-      <c r="C289" s="152"/>
-      <c r="D289" s="152"/>
-      <c r="E289" s="152"/>
-      <c r="F289" s="152"/>
-      <c r="G289" s="152"/>
-      <c r="H289" s="152"/>
-      <c r="I289" s="152"/>
-      <c r="J289" s="152"/>
-      <c r="K289" s="152"/>
-      <c r="L289" s="152"/>
-      <c r="M289" s="152"/>
-      <c r="N289" s="152"/>
-      <c r="O289" s="152"/>
-      <c r="P289" s="152"/>
-      <c r="Q289" s="152"/>
-      <c r="R289" s="152"/>
-      <c r="S289" s="152"/>
-      <c r="T289" s="152"/>
-      <c r="U289" s="152"/>
-      <c r="V289" s="152"/>
-      <c r="W289" s="152"/>
-      <c r="X289" s="152"/>
-      <c r="Y289" s="152"/>
-      <c r="Z289" s="152"/>
-      <c r="AA289" s="152"/>
-      <c r="AB289" s="152"/>
-      <c r="AC289" s="152"/>
-      <c r="AD289" s="152"/>
-      <c r="AE289" s="152"/>
-      <c r="AF289" s="152"/>
-      <c r="AG289" s="152"/>
-      <c r="AH289" s="152"/>
-      <c r="AI289" s="152"/>
-      <c r="AJ289" s="152"/>
-      <c r="AK289" s="152"/>
+      <c r="B289" s="155"/>
+      <c r="C289" s="155"/>
+      <c r="D289" s="155"/>
+      <c r="E289" s="155"/>
+      <c r="F289" s="155"/>
+      <c r="G289" s="155"/>
+      <c r="H289" s="155"/>
+      <c r="I289" s="155"/>
+      <c r="J289" s="155"/>
+      <c r="K289" s="155"/>
+      <c r="L289" s="155"/>
+      <c r="M289" s="155"/>
+      <c r="N289" s="155"/>
+      <c r="O289" s="155"/>
+      <c r="P289" s="155"/>
+      <c r="Q289" s="155"/>
+      <c r="R289" s="155"/>
+      <c r="S289" s="155"/>
+      <c r="T289" s="155"/>
+      <c r="U289" s="155"/>
+      <c r="V289" s="155"/>
+      <c r="W289" s="155"/>
+      <c r="X289" s="155"/>
+      <c r="Y289" s="155"/>
+      <c r="Z289" s="155"/>
+      <c r="AA289" s="155"/>
+      <c r="AB289" s="155"/>
+      <c r="AC289" s="155"/>
+      <c r="AD289" s="155"/>
+      <c r="AE289" s="155"/>
+      <c r="AF289" s="155"/>
+      <c r="AG289" s="155"/>
+      <c r="AH289" s="155"/>
+      <c r="AI289" s="155"/>
+      <c r="AJ289" s="155"/>
+      <c r="AK289" s="155"/>
     </row>
     <row r="290" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z290" s="41" t="s">
@@ -12415,14 +12422,14 @@
       <c r="AA290" s="29"/>
       <c r="AB290" s="29"/>
       <c r="AC290" s="29"/>
-      <c r="AD290" s="157">
+      <c r="AD290" s="160">
         <f>AD246</f>
         <v>0</v>
       </c>
-      <c r="AE290" s="158"/>
-      <c r="AF290" s="158"/>
-      <c r="AG290" s="158"/>
-      <c r="AH290" s="158"/>
+      <c r="AE290" s="161"/>
+      <c r="AF290" s="161"/>
+      <c r="AG290" s="161"/>
+      <c r="AH290" s="161"/>
     </row>
     <row r="291" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="39"/>
